--- a/xlsx/scordelis_lo_roof_nitsche_alpha.xlsx
+++ b/xlsx/scordelis_lo_roof_nitsche_alpha.xlsx
@@ -2682,55 +2682,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.13780109052673004</v>
+        <v>-0.32726702528256285</v>
       </c>
       <c r="B1">
-        <v>-0.13637907455746073</v>
+        <v>-0.32725202392005714</v>
       </c>
       <c r="C1">
-        <v>-0.13351249826491204</v>
+        <v>-0.32710211622124846</v>
       </c>
       <c r="D1">
-        <v>-0.13023451798027946</v>
+        <v>-0.3256135544597566</v>
       </c>
       <c r="E1">
-        <v>-0.12610704139607604</v>
+        <v>-0.31170784078451275</v>
       </c>
       <c r="F1">
-        <v>-0.12164341708678776</v>
+        <v>-0.2296765420407165</v>
       </c>
       <c r="G1">
-        <v>-0.11731570828742127</v>
+        <v>-0.11987116950239472</v>
       </c>
       <c r="H1">
-        <v>-0.11462605445071761</v>
+        <v>-0.09355568106197638</v>
       </c>
       <c r="I1">
-        <v>-0.11415608642063946</v>
+        <v>-0.08893307943486758</v>
       </c>
       <c r="J1">
-        <v>-0.11413439434792343</v>
+        <v>-0.09080340925657954</v>
       </c>
       <c r="K1">
-        <v>-0.11308861577503584</v>
+        <v>-0.08919852687957526</v>
       </c>
       <c r="L1">
-        <v>-0.16454930604971224</v>
+        <v>-0.08798960772916638</v>
       </c>
       <c r="M1">
-        <v>0.7078845073592072</v>
+        <v>-0.0872070017722812</v>
       </c>
       <c r="N1">
-        <v>-0.102773540336503</v>
+        <v>-0.08647491761393292</v>
       </c>
       <c r="O1">
-        <v>0.0009244697697575357</v>
+        <v>-0.08597314302754591</v>
       </c>
       <c r="P1">
-        <v>-0.0009308100895920468</v>
+        <v>-0.08486040704502666</v>
       </c>
       <c r="Q1">
-        <v>1.5265729104847874e-5</v>
+        <v>-0.0843554206327161</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -2738,55 +2738,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.12401268380674076</v>
+        <v>-0.32726700028655925</v>
       </c>
       <c r="B2">
-        <v>-0.12247529903430146</v>
+        <v>-0.32725199892447776</v>
       </c>
       <c r="C2">
-        <v>-0.11891349412670309</v>
+        <v>-0.32710209122721523</v>
       </c>
       <c r="D2">
-        <v>-0.11617223233266313</v>
+        <v>-0.3256135294820034</v>
       </c>
       <c r="E2">
-        <v>-0.11211426768067925</v>
+        <v>-0.31170781572941786</v>
       </c>
       <c r="F2">
-        <v>-0.10419347316782268</v>
+        <v>-0.22967651534088993</v>
       </c>
       <c r="G2">
-        <v>-0.09635221624512559</v>
+        <v>-0.11987114132266655</v>
       </c>
       <c r="H2">
-        <v>-0.09312238147646536</v>
+        <v>-0.09355497164206002</v>
       </c>
       <c r="I2">
-        <v>-0.09260354861561315</v>
+        <v>-0.08893125058074391</v>
       </c>
       <c r="J2">
-        <v>-0.09251482423164652</v>
+        <v>-0.09080293892265048</v>
       </c>
       <c r="K2">
-        <v>-0.09198590773438213</v>
+        <v>-0.08919862006654877</v>
       </c>
       <c r="L2">
-        <v>-0.11183107112240782</v>
+        <v>-0.08798960310307818</v>
       </c>
       <c r="M2">
-        <v>0.21764859248753007</v>
+        <v>-0.08720694927678517</v>
       </c>
       <c r="N2">
-        <v>-0.3111072315904822</v>
+        <v>-0.08647486653387584</v>
       </c>
       <c r="O2">
-        <v>0.00015834031940300825</v>
+        <v>-0.08597308172165609</v>
       </c>
       <c r="P2">
-        <v>-0.0004135312985447189</v>
+        <v>-0.08486027236879976</v>
       </c>
       <c r="Q2">
-        <v>0.00013590096557567407</v>
+        <v>-0.08435545900878648</v>
       </c>
       <c r="R2">
         <v>-2.1509758391599968E-2</v>
@@ -2794,55 +2794,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.11136621466136758</v>
+        <v>-0.3272667499638809</v>
       </c>
       <c r="B3">
-        <v>-0.11010407696522866</v>
+        <v>-0.32725174860353234</v>
       </c>
       <c r="C3">
-        <v>-0.10731612002213896</v>
+        <v>-0.3271018409278917</v>
       </c>
       <c r="D3">
-        <v>-0.10196508865063446</v>
+        <v>-0.3256132793630256</v>
       </c>
       <c r="E3">
-        <v>-0.09663729535051536</v>
+        <v>-0.311707564974008</v>
       </c>
       <c r="F3">
-        <v>-0.08645625072646261</v>
+        <v>-0.22967624873600304</v>
       </c>
       <c r="G3">
-        <v>-0.0704482609807788</v>
+        <v>-0.119870860218963</v>
       </c>
       <c r="H3">
-        <v>-0.0640669375791861</v>
+        <v>-0.09354795777512002</v>
       </c>
       <c r="I3">
-        <v>-0.06312677995774293</v>
+        <v>-0.08891284899677698</v>
       </c>
       <c r="J3">
-        <v>-0.06303557651865985</v>
+        <v>-0.09079830017280889</v>
       </c>
       <c r="K3">
-        <v>-0.06290898496428057</v>
+        <v>-0.08919954323393729</v>
       </c>
       <c r="L3">
-        <v>-0.07177197762978106</v>
+        <v>-0.08798955684020944</v>
       </c>
       <c r="M3">
-        <v>-0.4561571794785854</v>
+        <v>-0.08720642615232649</v>
       </c>
       <c r="N3">
-        <v>-0.041386984357008404</v>
+        <v>-0.08647434221919086</v>
       </c>
       <c r="O3">
-        <v>0.001949181000938089</v>
+        <v>-0.08597250394324965</v>
       </c>
       <c r="P3">
-        <v>-0.0013784129549401706</v>
+        <v>-0.08485944849198343</v>
       </c>
       <c r="Q3">
-        <v>6.279631723045118e-5</v>
+        <v>-0.08435404103036749</v>
       </c>
       <c r="R3">
         <v>-2.2604289096884046E-2</v>
@@ -2850,55 +2850,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.09817378208896149</v>
+        <v>-0.3272642121899225</v>
       </c>
       <c r="B4">
-        <v>-0.09617832540485712</v>
+        <v>-0.3272492108657702</v>
       </c>
       <c r="C4">
-        <v>-0.09474228042811823</v>
+        <v>-0.3270993035617639</v>
       </c>
       <c r="D4">
-        <v>-0.0911138464519393</v>
+        <v>-0.3256107452919299</v>
       </c>
       <c r="E4">
-        <v>-0.08301381173111805</v>
+        <v>-0.3117050377190343</v>
       </c>
       <c r="F4">
-        <v>-0.07299090105386256</v>
+        <v>-0.22967362100017888</v>
       </c>
       <c r="G4">
-        <v>-0.05969402415863429</v>
+        <v>-0.1198681164085245</v>
       </c>
       <c r="H4">
-        <v>-0.05324147890976604</v>
+        <v>-0.09348501269403772</v>
       </c>
       <c r="I4">
-        <v>-0.05223377443834975</v>
+        <v>-0.08871674141965527</v>
       </c>
       <c r="J4">
-        <v>-0.05212780027416924</v>
+        <v>-0.0907575524377515</v>
       </c>
       <c r="K4">
-        <v>-0.052068560896685726</v>
+        <v>-0.08920797616596395</v>
       </c>
       <c r="L4">
-        <v>-0.05941257877709533</v>
+        <v>-0.08798908633780875</v>
       </c>
       <c r="M4">
-        <v>-0.13497735580779818</v>
+        <v>-0.08720143195587164</v>
       </c>
       <c r="N4">
-        <v>-0.009633982229747476</v>
+        <v>-0.08646934637585474</v>
       </c>
       <c r="O4">
-        <v>0.0003303587739680904</v>
+        <v>-0.08596694406494744</v>
       </c>
       <c r="P4">
-        <v>-0.008917981091778866</v>
+        <v>-0.08485270785389923</v>
       </c>
       <c r="Q4">
-        <v>1.017302834536534e-5</v>
+        <v>-0.0843460006545191</v>
       </c>
       <c r="R4">
         <v>-2.203292825905187E-2</v>
@@ -2906,55 +2906,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.09228500733942971</v>
+        <v>-0.32723623867220625</v>
       </c>
       <c r="B5">
-        <v>-0.08931820152661137</v>
+        <v>-0.327221238868531</v>
       </c>
       <c r="C5">
-        <v>-0.08785981661988926</v>
+        <v>-0.32707134669405946</v>
       </c>
       <c r="D5">
-        <v>-0.08510371468623523</v>
+        <v>-0.32558293416504974</v>
       </c>
       <c r="E5">
-        <v>-0.07547399194062564</v>
+        <v>-0.3116782902870211</v>
       </c>
       <c r="F5">
-        <v>-0.06057122222673012</v>
+        <v>-0.22965022113534664</v>
       </c>
       <c r="G5">
-        <v>-0.05306803064391684</v>
+        <v>-0.1198458510640707</v>
       </c>
       <c r="H5">
-        <v>-0.049174559394838384</v>
+        <v>-0.09318768792882942</v>
       </c>
       <c r="I5">
-        <v>-0.04837128939598377</v>
+        <v>-0.08330196543195663</v>
       </c>
       <c r="J5">
-        <v>-0.048283882676376504</v>
+        <v>-0.0905803045604658</v>
       </c>
       <c r="K5">
-        <v>-0.048178315726831754</v>
+        <v>-0.08924969421801614</v>
       </c>
       <c r="L5">
-        <v>-0.05267372558884241</v>
+        <v>-0.08798390564619589</v>
       </c>
       <c r="M5">
-        <v>-0.11230702798441408</v>
+        <v>-0.08716677658219639</v>
       </c>
       <c r="N5">
-        <v>-0.2363653341933191</v>
+        <v>-0.08643364590178841</v>
       </c>
       <c r="O5">
-        <v>-0.0022520799654346052</v>
+        <v>-0.08592681004273774</v>
       </c>
       <c r="P5">
-        <v>-0.002376611873750304</v>
+        <v>-0.08480197060847033</v>
       </c>
       <c r="Q5">
-        <v>1.1631018549226663e-5</v>
+        <v>-0.08429094854933965</v>
       </c>
       <c r="R5">
         <v>-2.0431425676285104E-2</v>
@@ -2962,55 +2962,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.08762097083567703</v>
+        <v>-0.3268942251731353</v>
       </c>
       <c r="B6">
-        <v>-0.08392532474808825</v>
+        <v>-0.32687926871114925</v>
       </c>
       <c r="C6">
-        <v>-0.08229254929848276</v>
+        <v>-0.3267298091055629</v>
       </c>
       <c r="D6">
-        <v>-0.07980147482364648</v>
+        <v>-0.32524563852046234</v>
       </c>
       <c r="E6">
-        <v>-0.07040332410776057</v>
+        <v>-0.3113766285791352</v>
       </c>
       <c r="F6">
-        <v>-0.05342403313801114</v>
+        <v>-0.2294869919385831</v>
       </c>
       <c r="G6">
-        <v>-0.04687951559526848</v>
+        <v>-0.11975480504702216</v>
       </c>
       <c r="H6">
-        <v>-0.045673220292280346</v>
+        <v>-0.09286858019941269</v>
       </c>
       <c r="I6">
-        <v>-0.045302212941950755</v>
+        <v>-0.09194188149398105</v>
       </c>
       <c r="J6">
-        <v>-0.04525355753862764</v>
+        <v>-0.09033209028185848</v>
       </c>
       <c r="K6">
-        <v>-0.045174527759721805</v>
+        <v>-0.08923083486413465</v>
       </c>
       <c r="L6">
-        <v>-0.049986748915452406</v>
+        <v>-0.08792690671059787</v>
       </c>
       <c r="M6">
-        <v>-0.10131595546068253</v>
+        <v>-0.08705565263955002</v>
       </c>
       <c r="N6">
-        <v>0.05471442353223181</v>
+        <v>-0.08630295500034954</v>
       </c>
       <c r="O6">
-        <v>0.0006240580569140015</v>
+        <v>-0.08577437707551468</v>
       </c>
       <c r="P6">
-        <v>-0.004588693539199143</v>
+        <v>-0.08462232957075312</v>
       </c>
       <c r="Q6">
-        <v>4.297322442810988e-6</v>
+        <v>-0.08410224827516638</v>
       </c>
       <c r="R6">
         <v>-4.0254967833055072E-2</v>
@@ -3018,55 +3018,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.08503818055526188</v>
+        <v>-0.32180468404232143</v>
       </c>
       <c r="B7">
-        <v>-0.08140331336471329</v>
+        <v>-0.3217901649916662</v>
       </c>
       <c r="C7">
-        <v>-0.07968546003097456</v>
+        <v>-0.32164507347086696</v>
       </c>
       <c r="D7">
-        <v>-0.07727039956728038</v>
+        <v>-0.32020398783056814</v>
       </c>
       <c r="E7">
-        <v>-0.06834597458882125</v>
+        <v>-0.3067118700318176</v>
       </c>
       <c r="F7">
-        <v>-0.051792370028433204</v>
+        <v>-0.2251514185274935</v>
       </c>
       <c r="G7">
-        <v>-0.04521415111564303</v>
+        <v>-0.11936387747302266</v>
       </c>
       <c r="H7">
-        <v>-0.04437929259059322</v>
+        <v>-0.09234204398941614</v>
       </c>
       <c r="I7">
-        <v>-0.04424259242377816</v>
+        <v>-0.09030149015914722</v>
       </c>
       <c r="J7">
-        <v>-0.04422608012658814</v>
+        <v>-0.08964752066822217</v>
       </c>
       <c r="K7">
-        <v>-0.044255187158084124</v>
+        <v>-0.08872871494713178</v>
       </c>
       <c r="L7">
-        <v>-0.04711646121876445</v>
+        <v>-0.08746624923485606</v>
       </c>
       <c r="M7">
-        <v>-0.10548928864426028</v>
+        <v>-0.08653746963928023</v>
       </c>
       <c r="N7">
-        <v>0.1808622634319473</v>
+        <v>-0.08568499299764303</v>
       </c>
       <c r="O7">
-        <v>0.0008671923271668464</v>
+        <v>-0.0850689080887301</v>
       </c>
       <c r="P7">
-        <v>-0.002453795469365524</v>
+        <v>-0.08385920046740018</v>
       </c>
       <c r="Q7">
-        <v>4.4076164022011305e-6</v>
+        <v>-0.08331543656227788</v>
       </c>
       <c r="R7">
         <v>-1.9782683507755108E-2</v>
@@ -3074,55 +3074,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.08258777166509493</v>
+        <v>-0.31318709551744744</v>
       </c>
       <c r="B8">
-        <v>-0.07920345979319042</v>
+        <v>-0.3131736606551437</v>
       </c>
       <c r="C8">
-        <v>-0.07743960447207626</v>
+        <v>-0.31303939948769527</v>
       </c>
       <c r="D8">
-        <v>-0.07492852873009274</v>
+        <v>-0.3117054764711487</v>
       </c>
       <c r="E8">
-        <v>-0.0662905354427165</v>
+        <v>-0.29918145638782984</v>
       </c>
       <c r="F8">
-        <v>-0.050714989874396495</v>
+        <v>-0.22312086353864016</v>
       </c>
       <c r="G8">
-        <v>-0.0444048389405644</v>
+        <v>-0.11566466423314295</v>
       </c>
       <c r="H8">
-        <v>-0.043642875870619935</v>
+        <v>-0.08910416966934771</v>
       </c>
       <c r="I8">
-        <v>-0.04359997158566326</v>
+        <v>-0.08567939467399277</v>
       </c>
       <c r="J8">
-        <v>-0.043610131874052854</v>
+        <v>-0.08518194853802916</v>
       </c>
       <c r="K8">
-        <v>-0.04364315285817987</v>
+        <v>-0.08450116013172772</v>
       </c>
       <c r="L8">
-        <v>-0.046082504618608355</v>
+        <v>-0.08353061868977894</v>
       </c>
       <c r="M8">
-        <v>-0.0984443317954804</v>
+        <v>-0.08273996203765145</v>
       </c>
       <c r="N8">
-        <v>-0.027335176488718946</v>
+        <v>-0.08192206592072361</v>
       </c>
       <c r="O8">
-        <v>0.0036314574035197686</v>
+        <v>-0.08134270560356784</v>
       </c>
       <c r="P8">
-        <v>7.080353765042324e-5</v>
+        <v>-0.08020544094390403</v>
       </c>
       <c r="Q8">
-        <v>-5.0509821671810616e-5</v>
+        <v>-0.07969042523976341</v>
       </c>
       <c r="R8">
         <v>-0.11200314042384234</v>
@@ -3130,55 +3130,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.08045411076980653</v>
+        <v>-0.3338811390884267</v>
       </c>
       <c r="B9">
-        <v>-0.07686945394447467</v>
+        <v>-0.3338709798614354</v>
       </c>
       <c r="C9">
-        <v>-0.0749096751417993</v>
+        <v>-0.333769405245442</v>
       </c>
       <c r="D9">
-        <v>-0.07244593952195662</v>
+        <v>-0.3327554201006423</v>
       </c>
       <c r="E9">
-        <v>-0.06428138982067139</v>
+        <v>-0.3227875610445032</v>
       </c>
       <c r="F9">
-        <v>-0.049700290196294246</v>
+        <v>-0.237232069248314</v>
       </c>
       <c r="G9">
-        <v>-0.0436600729096364</v>
+        <v>0.12753400263638764</v>
       </c>
       <c r="H9">
-        <v>-0.04279723523337476</v>
+        <v>0.44518432144871545</v>
       </c>
       <c r="I9">
-        <v>-0.04268742567093393</v>
+        <v>0.5113999233242558</v>
       </c>
       <c r="J9">
-        <v>-0.0426675684092859</v>
+        <v>0.5293086035602601</v>
       </c>
       <c r="K9">
-        <v>-0.04254962621148687</v>
+        <v>0.592165599724536</v>
       </c>
       <c r="L9">
-        <v>-0.046109094179812245</v>
+        <v>0.8228943493938935</v>
       </c>
       <c r="M9">
-        <v>-0.08886090954310316</v>
+        <v>1.238172956728777</v>
       </c>
       <c r="N9">
-        <v>-0.012223202248961645</v>
+        <v>3.686012640560637</v>
       </c>
       <c r="O9">
-        <v>-0.0012460455929999773</v>
+        <v>-3.4673200410103444</v>
       </c>
       <c r="P9">
-        <v>-0.0005394546395930715</v>
+        <v>-1.3951791602688888</v>
       </c>
       <c r="Q9">
-        <v>3.960797779469422e-5</v>
+        <v>-1.1343332227550644</v>
       </c>
       <c r="R9">
         <v>-3.191652442422583E-2</v>
@@ -3186,55 +3186,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.07814001619834005</v>
+        <v>-0.35004279111868863</v>
       </c>
       <c r="B10">
-        <v>-0.07394987625565204</v>
+        <v>-0.35002165729827184</v>
       </c>
       <c r="C10">
-        <v>-0.07103281854828972</v>
+        <v>-0.34981054384101823</v>
       </c>
       <c r="D10">
-        <v>-0.06893953219725055</v>
+        <v>-0.3477216446501406</v>
       </c>
       <c r="E10">
-        <v>-0.06214898184159635</v>
+        <v>-0.3288401601468324</v>
       </c>
       <c r="F10">
-        <v>-0.049063604748926085</v>
+        <v>-0.23679447052623065</v>
       </c>
       <c r="G10">
-        <v>-0.04336471221417485</v>
+        <v>-0.1492932829913375</v>
       </c>
       <c r="H10">
-        <v>-0.04248209634333834</v>
+        <v>-0.13213852427365713</v>
       </c>
       <c r="I10">
-        <v>-0.0422478272290759</v>
+        <v>-0.13015105053179798</v>
       </c>
       <c r="J10">
-        <v>-0.04218289323989723</v>
+        <v>-0.12943930547918175</v>
       </c>
       <c r="K10">
-        <v>-0.04213613982603521</v>
+        <v>-0.12737802342056437</v>
       </c>
       <c r="L10">
-        <v>-0.04551051491572581</v>
+        <v>-0.12461840799975005</v>
       </c>
       <c r="M10">
-        <v>-0.08330711020650913</v>
+        <v>-0.12156007386145087</v>
       </c>
       <c r="N10">
-        <v>-0.05166452115973186</v>
+        <v>-0.11723715347480593</v>
       </c>
       <c r="O10">
-        <v>-0.0009103968974531704</v>
+        <v>-0.11238151401585854</v>
       </c>
       <c r="P10">
-        <v>-0.00450006244381504</v>
+        <v>-0.10828141639985504</v>
       </c>
       <c r="Q10">
-        <v>2.1726045710637052e-7</v>
+        <v>-0.1067747433317351</v>
       </c>
       <c r="R10">
         <v>-1.8593037232677977E-2</v>
@@ -3242,55 +3242,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.07703138710243038</v>
+        <v>-0.3303630845679857</v>
       </c>
       <c r="B11">
-        <v>-0.07239843973488945</v>
+        <v>-0.33034508492687387</v>
       </c>
       <c r="C11">
-        <v>-0.06829210669010752</v>
+        <v>-0.3301652620119051</v>
       </c>
       <c r="D11">
-        <v>-0.06632333080812002</v>
+        <v>-0.3283842155886369</v>
       </c>
       <c r="E11">
-        <v>-0.060619324573159813</v>
+        <v>-0.31213926584366175</v>
       </c>
       <c r="F11">
-        <v>-0.048673405326982576</v>
+        <v>-0.22898137035258892</v>
       </c>
       <c r="G11">
-        <v>-0.04322879144245225</v>
+        <v>-0.1430288475400295</v>
       </c>
       <c r="H11">
-        <v>-0.04237394792981774</v>
+        <v>-0.1242206230600291</v>
       </c>
       <c r="I11">
-        <v>-0.042131692991336955</v>
+        <v>-0.12099355427099187</v>
       </c>
       <c r="J11">
-        <v>-0.04205892684556867</v>
+        <v>-0.12012478915039203</v>
       </c>
       <c r="K11">
-        <v>-0.04204699970088213</v>
+        <v>-0.11788247641607326</v>
       </c>
       <c r="L11">
-        <v>-0.0442385484091627</v>
+        <v>-0.1136179467971336</v>
       </c>
       <c r="M11">
-        <v>-0.07861709380707034</v>
+        <v>-0.11032532738531649</v>
       </c>
       <c r="N11">
-        <v>-0.08845857695080803</v>
+        <v>-0.10483737510903497</v>
       </c>
       <c r="O11">
-        <v>0.0006587746233212204</v>
+        <v>-0.09283492583412699</v>
       </c>
       <c r="P11">
-        <v>0.003397413191335935</v>
+        <v>-0.08375966633725433</v>
       </c>
       <c r="Q11">
-        <v>0.0017480659279380036</v>
+        <v>-0.08139779759817353</v>
       </c>
       <c r="R11">
         <v>-1.6661400782722963E-2</v>
@@ -3298,55 +3298,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.07687278028793483</v>
+        <v>-0.2527185688324674</v>
       </c>
       <c r="B12">
-        <v>-0.07216661995658129</v>
+        <v>-0.2527089438820003</v>
       </c>
       <c r="C12">
-        <v>-0.06780690363522611</v>
+        <v>-0.2526127690537088</v>
       </c>
       <c r="D12">
-        <v>-0.06583493607065859</v>
+        <v>-0.251658430910681</v>
       </c>
       <c r="E12">
-        <v>-0.06032716397923674</v>
+        <v>-0.24280201527768064</v>
       </c>
       <c r="F12">
-        <v>-0.04859907344075157</v>
+        <v>-0.19271357196184563</v>
       </c>
       <c r="G12">
-        <v>-0.043204296217890265</v>
+        <v>-0.13064164658550337</v>
       </c>
       <c r="H12">
-        <v>-0.0423568126789724</v>
+        <v>-0.11438697831154525</v>
       </c>
       <c r="I12">
-        <v>-0.042114125891765074</v>
+        <v>-0.10785309551600644</v>
       </c>
       <c r="J12">
-        <v>-0.04204220759740775</v>
+        <v>-0.10513508175602476</v>
       </c>
       <c r="K12">
-        <v>-0.04212472148121063</v>
+        <v>-0.10375531400759254</v>
       </c>
       <c r="L12">
-        <v>-0.04439676533325939</v>
+        <v>-0.1009020749354967</v>
       </c>
       <c r="M12">
-        <v>-0.09489888853505403</v>
+        <v>-0.09488181729930999</v>
       </c>
       <c r="N12">
-        <v>-0.049032364383261556</v>
+        <v>-0.08808536272858508</v>
       </c>
       <c r="O12">
-        <v>0.0008788600374336134</v>
+        <v>-0.07512229895683975</v>
       </c>
       <c r="P12">
-        <v>-0.0009284668114711027</v>
+        <v>-0.06133417166288687</v>
       </c>
       <c r="Q12">
-        <v>-4.434630850928214e-5</v>
+        <v>-0.057622592278453046</v>
       </c>
       <c r="R12">
         <v>-6.2693258088855716E-2</v>
@@ -3354,55 +3354,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.07684927772411865</v>
+        <v>-0.18449287951184745</v>
       </c>
       <c r="B13">
-        <v>-0.07213700577609883</v>
+        <v>-0.18448843320695563</v>
       </c>
       <c r="C13">
-        <v>-0.06774470745034038</v>
+        <v>-0.18444399751165824</v>
       </c>
       <c r="D13">
-        <v>-0.06578179203755297</v>
+        <v>-0.18400235927257136</v>
       </c>
       <c r="E13">
-        <v>-0.060298811491753534</v>
+        <v>-0.17984183653307584</v>
       </c>
       <c r="F13">
-        <v>-0.048600783969737826</v>
+        <v>-0.1539879209907662</v>
       </c>
       <c r="G13">
-        <v>-0.043202590692807005</v>
+        <v>-0.11520778169806559</v>
       </c>
       <c r="H13">
-        <v>-0.042347581532799466</v>
+        <v>-0.10395869044645978</v>
       </c>
       <c r="I13">
-        <v>-0.042107517375032474</v>
+        <v>-0.09885490066307719</v>
       </c>
       <c r="J13">
-        <v>-0.04203747356598467</v>
+        <v>-0.09429062793160452</v>
       </c>
       <c r="K13">
-        <v>-0.04204239888701443</v>
+        <v>-0.09258226242823596</v>
       </c>
       <c r="L13">
-        <v>-0.04411824191251729</v>
+        <v>-0.09100358408784541</v>
       </c>
       <c r="M13">
-        <v>-0.07940221954634448</v>
+        <v>-0.08610325273147383</v>
       </c>
       <c r="N13">
-        <v>-0.06447339644681732</v>
+        <v>-0.07546185348106295</v>
       </c>
       <c r="O13">
-        <v>0.0030687698182910324</v>
+        <v>-0.06446521408288636</v>
       </c>
       <c r="P13">
-        <v>-0.0006467298214146551</v>
+        <v>-0.054338211807375324</v>
       </c>
       <c r="Q13">
-        <v>4.289322352614055e-6</v>
+        <v>-0.05100687586852362</v>
       </c>
       <c r="R13">
         <v>-0.12948190483105734</v>
@@ -3410,55 +3410,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.07674853367170556</v>
+        <v>-0.15652338636806043</v>
       </c>
       <c r="B14">
-        <v>-0.07203561993919286</v>
+        <v>-0.15652049003175508</v>
       </c>
       <c r="C14">
-        <v>-0.0676529647050654</v>
+        <v>-0.15649154237040075</v>
       </c>
       <c r="D14">
-        <v>-0.06570875034085272</v>
+        <v>-0.15620363059001924</v>
       </c>
       <c r="E14">
-        <v>-0.060140725457861394</v>
+        <v>-0.15347277658357486</v>
       </c>
       <c r="F14">
-        <v>-0.04857174485345212</v>
+        <v>-0.13571303183932018</v>
       </c>
       <c r="G14">
-        <v>-0.04318838709338299</v>
+        <v>-0.10613196815964354</v>
       </c>
       <c r="H14">
-        <v>-0.04236691472268747</v>
+        <v>-0.09692371206157824</v>
       </c>
       <c r="I14">
-        <v>-0.04207838666264377</v>
+        <v>-0.09367128012635291</v>
       </c>
       <c r="J14">
-        <v>-0.04198984357440086</v>
+        <v>-0.08895528184202675</v>
       </c>
       <c r="K14">
-        <v>-0.041998673367958754</v>
+        <v>-0.08664771180583733</v>
       </c>
       <c r="L14">
-        <v>-0.04446366813658641</v>
+        <v>-0.08511880750264601</v>
       </c>
       <c r="M14">
-        <v>-0.07785884662076616</v>
+        <v>-0.08074793834727928</v>
       </c>
       <c r="N14">
-        <v>-0.012091812323583535</v>
+        <v>-0.06719379099409352</v>
       </c>
       <c r="O14">
-        <v>0.0015884367710439404</v>
+        <v>-0.053518445790347154</v>
       </c>
       <c r="P14">
-        <v>-0.001054562448748545</v>
+        <v>-0.04917070803357618</v>
       </c>
       <c r="Q14">
-        <v>1.905383668558964e-5</v>
+        <v>-0.04737211179070597</v>
       </c>
       <c r="R14">
         <v>-8.1906213575370108E-3</v>
@@ -3466,55 +3466,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.07714219586247384</v>
+        <v>-0.13854336725676936</v>
       </c>
       <c r="B15">
-        <v>-0.07227152752884913</v>
+        <v>-0.13854125337632922</v>
       </c>
       <c r="C15">
-        <v>-0.06833578900380297</v>
+        <v>-0.13852012467800331</v>
       </c>
       <c r="D15">
-        <v>-0.06638010105168346</v>
+        <v>-0.13830988473766453</v>
       </c>
       <c r="E15">
-        <v>-0.06148225240900664</v>
+        <v>-0.13630712446035403</v>
       </c>
       <c r="F15">
-        <v>-0.04853260836716172</v>
+        <v>-0.1228894041406271</v>
       </c>
       <c r="G15">
-        <v>-0.04331399248753905</v>
+        <v>-0.0988764573088973</v>
       </c>
       <c r="H15">
-        <v>-0.04225344579503165</v>
+        <v>-0.09101667833734148</v>
       </c>
       <c r="I15">
-        <v>-0.042310100684600116</v>
+        <v>-0.0888689454737424</v>
       </c>
       <c r="J15">
-        <v>-0.042072929531196596</v>
+        <v>-0.08480186503982426</v>
       </c>
       <c r="K15">
-        <v>-0.04281736059004936</v>
+        <v>-0.08193196190172908</v>
       </c>
       <c r="L15">
-        <v>-0.04433297503616689</v>
+        <v>-0.08041988966282518</v>
       </c>
       <c r="M15">
-        <v>-0.07410585412480757</v>
+        <v>-0.07642293506141025</v>
       </c>
       <c r="N15">
-        <v>-0.2077471776625552</v>
+        <v>-0.0632263458755201</v>
       </c>
       <c r="O15">
-        <v>0.000543713609706193</v>
+        <v>-0.048695125668762294</v>
       </c>
       <c r="P15">
-        <v>-0.00022553926678268614</v>
+        <v>-0.045374456927481197</v>
       </c>
       <c r="Q15">
-        <v>8.918989696689975e-6</v>
+        <v>-0.04483182230416664</v>
       </c>
       <c r="R15">
         <v>-1.1538295417500611E-2</v>
@@ -3522,55 +3522,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.06838303659426458</v>
+        <v>-0.1264179103573478</v>
       </c>
       <c r="B16">
-        <v>-0.06829750816033597</v>
+        <v>-0.12641623924697507</v>
       </c>
       <c r="C16">
-        <v>-0.06618018870423202</v>
+        <v>-0.1263995383147757</v>
       </c>
       <c r="D16">
-        <v>-0.06190271790218385</v>
+        <v>-0.1262333115313413</v>
       </c>
       <c r="E16">
-        <v>-0.06665354342713725</v>
+        <v>-0.12464626978008791</v>
       </c>
       <c r="F16">
-        <v>-0.04447917708269045</v>
+        <v>-0.11385204703972776</v>
       </c>
       <c r="G16">
-        <v>-0.042030238233094465</v>
+        <v>-0.09399490937217836</v>
       </c>
       <c r="H16">
-        <v>-0.042170479116653385</v>
+        <v>-0.08757540065135923</v>
       </c>
       <c r="I16">
-        <v>-0.03759769285293875</v>
+        <v>-0.08602303515196796</v>
       </c>
       <c r="J16">
-        <v>-0.04125954684216598</v>
+        <v>-0.08280308017806523</v>
       </c>
       <c r="K16">
-        <v>-0.034178266627354834</v>
+        <v>-0.07996583414739188</v>
       </c>
       <c r="L16">
-        <v>-0.03971393437767361</v>
+        <v>-0.07841586317879695</v>
       </c>
       <c r="M16">
-        <v>-0.07242054556109508</v>
+        <v>-0.07446293167058024</v>
       </c>
       <c r="N16">
-        <v>-0.007760767182008802</v>
+        <v>-0.06189102419442327</v>
       </c>
       <c r="O16">
-        <v>0.0009465660529228278</v>
+        <v>-0.04776245000384885</v>
       </c>
       <c r="P16">
-        <v>-0.0004820739064239921</v>
+        <v>-0.044470610767784656</v>
       </c>
       <c r="Q16">
-        <v>1.2689238568377957e-5</v>
+        <v>-0.044112634380511995</v>
       </c>
       <c r="R16">
         <v>-8.3194399681306031E-3</v>
@@ -3578,55 +3578,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.0676946256666463</v>
+        <v>-0.11763139710340062</v>
       </c>
       <c r="B17">
-        <v>-0.008099170111678966</v>
+        <v>-0.11763005467948565</v>
       </c>
       <c r="C17">
-        <v>-0.06164017777958075</v>
+        <v>-0.1176166623523554</v>
       </c>
       <c r="D17">
-        <v>-0.04548765957145544</v>
+        <v>-0.11748331910084302</v>
       </c>
       <c r="E17">
-        <v>-0.04327251776452356</v>
+        <v>-0.11620650770055928</v>
       </c>
       <c r="F17">
-        <v>-0.04147036092109261</v>
+        <v>-0.1073429806246247</v>
       </c>
       <c r="G17">
-        <v>0.0186447711219737</v>
+        <v>-0.09025666491354155</v>
       </c>
       <c r="H17">
-        <v>-0.031206170190207806</v>
+        <v>-0.08460293603044407</v>
       </c>
       <c r="I17">
-        <v>-0.02625971393011681</v>
+        <v>-0.08328340488869024</v>
       </c>
       <c r="J17">
-        <v>-0.03633277948724829</v>
+        <v>-0.08038040690376813</v>
       </c>
       <c r="K17">
-        <v>-0.03260971060506586</v>
+        <v>-0.07749254902695771</v>
       </c>
       <c r="L17">
-        <v>-0.030292418841298924</v>
+        <v>-0.07585897840820977</v>
       </c>
       <c r="M17">
-        <v>-0.0483534012550884</v>
+        <v>-0.07186389463420842</v>
       </c>
       <c r="N17">
-        <v>-0.009077963994342719</v>
+        <v>-0.059976151589805564</v>
       </c>
       <c r="O17">
-        <v>-0.001249774265558352</v>
+        <v>-0.04671851473719928</v>
       </c>
       <c r="P17">
-        <v>-0.0004566005257333009</v>
+        <v>-0.04354595563815055</v>
       </c>
       <c r="Q17">
-        <v>1.3113652735975323e-5</v>
+        <v>-0.0432442332232194</v>
       </c>
       <c r="R17">
         <v>2.4118290736990281E-3</v>
@@ -6783,55 +6783,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.2977229923269325</v>
+        <v>-0.29003148510435167</v>
       </c>
       <c r="B1">
-        <v>-0.2975296464616446</v>
+        <v>-0.29003120046206243</v>
       </c>
       <c r="C1">
-        <v>-0.2971594235748768</v>
+        <v>-0.29002835244026515</v>
       </c>
       <c r="D1">
-        <v>-0.2969064417715611</v>
+        <v>-0.2899997157173165</v>
       </c>
       <c r="E1">
-        <v>-0.2965816612072986</v>
+        <v>-0.28970520581313197</v>
       </c>
       <c r="F1">
-        <v>-0.2958371554161823</v>
+        <v>-0.267652037802553</v>
       </c>
       <c r="G1">
-        <v>-0.2947647145500546</v>
+        <v>-0.294795795723159</v>
       </c>
       <c r="H1">
-        <v>-0.29371856912456984</v>
+        <v>-0.29421144177851577</v>
       </c>
       <c r="I1">
-        <v>-0.2898017342951279</v>
+        <v>-0.2941219421356071</v>
       </c>
       <c r="J1">
-        <v>-0.284913865191921</v>
+        <v>-0.2940642058005204</v>
       </c>
       <c r="K1">
-        <v>-0.25446991313703493</v>
+        <v>-0.2938793135369405</v>
       </c>
       <c r="L1">
-        <v>-0.17829304733695484</v>
+        <v>-0.29371322434927905</v>
       </c>
       <c r="M1">
-        <v>-0.021760828393635762</v>
+        <v>-0.29359466666259854</v>
       </c>
       <c r="N1">
-        <v>0.0032106613756667938</v>
+        <v>-0.293364234144905</v>
       </c>
       <c r="O1">
-        <v>-0.012805442244372191</v>
+        <v>-0.2927686232313786</v>
       </c>
       <c r="P1">
-        <v>-0.005688798259423495</v>
+        <v>-0.2923046591117736</v>
       </c>
       <c r="Q1">
-        <v>-8.452142118212566e-5</v>
+        <v>-0.2918094692705742</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -6839,55 +6839,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.2948061762616729</v>
+        <v>-0.2900312003363343</v>
       </c>
       <c r="B2">
-        <v>-0.2945824472729538</v>
+        <v>-0.29003091568958494</v>
       </c>
       <c r="C2">
-        <v>-0.29419092897378285</v>
+        <v>-0.29002806762554667</v>
       </c>
       <c r="D2">
-        <v>-0.2939435787242367</v>
+        <v>-0.2899994304738615</v>
       </c>
       <c r="E2">
-        <v>-0.2936478619848524</v>
+        <v>-0.2897049131596939</v>
       </c>
       <c r="F2">
-        <v>-0.2929489902658939</v>
+        <v>-0.2676516526863517</v>
       </c>
       <c r="G2">
-        <v>-0.29188584974458454</v>
+        <v>-0.2947955096303285</v>
       </c>
       <c r="H2">
-        <v>-0.29095822654205217</v>
+        <v>-0.2942111631203584</v>
       </c>
       <c r="I2">
-        <v>-0.2875335915184969</v>
+        <v>-0.2941216676365658</v>
       </c>
       <c r="J2">
-        <v>-0.2813886934340103</v>
+        <v>-0.2940639321500736</v>
       </c>
       <c r="K2">
-        <v>-0.25982761161559303</v>
+        <v>-0.29387904011720456</v>
       </c>
       <c r="L2">
-        <v>-0.11831092263541639</v>
+        <v>-0.2937129501773844</v>
       </c>
       <c r="M2">
-        <v>-0.1331607804286368</v>
+        <v>-0.29359439597027065</v>
       </c>
       <c r="N2">
-        <v>0.0067626241048325325</v>
+        <v>-0.2933638554264878</v>
       </c>
       <c r="O2">
-        <v>-0.09829404141514973</v>
+        <v>-0.29276844337919034</v>
       </c>
       <c r="P2">
-        <v>0.00034095353786552985</v>
+        <v>-0.29229950834742496</v>
       </c>
       <c r="Q2">
-        <v>-1.698610102767582e-5</v>
+        <v>-0.29183850730045546</v>
       </c>
       <c r="R2">
         <v>-0.18714728706024322</v>
@@ -6895,55 +6895,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.2943159007109824</v>
+        <v>-0.2900283545218954</v>
       </c>
       <c r="B3">
-        <v>-0.2940615375332442</v>
+        <v>-0.29002806983600904</v>
       </c>
       <c r="C3">
-        <v>-0.29342093601807956</v>
+        <v>-0.2900252213589817</v>
       </c>
       <c r="D3">
-        <v>-0.29301141451416146</v>
+        <v>-0.28999657993357336</v>
       </c>
       <c r="E3">
-        <v>-0.29273792120152</v>
+        <v>-0.289701988392405</v>
       </c>
       <c r="F3">
-        <v>-0.2921082586998624</v>
+        <v>-0.26764780364756796</v>
       </c>
       <c r="G3">
-        <v>-0.2909749587040679</v>
+        <v>-0.2947926506853472</v>
       </c>
       <c r="H3">
-        <v>-0.28998020653300616</v>
+        <v>-0.294208378428632</v>
       </c>
       <c r="I3">
-        <v>-0.28678911573086485</v>
+        <v>-0.29411892447765303</v>
       </c>
       <c r="J3">
-        <v>-0.2790445290387063</v>
+        <v>-0.29406119743079395</v>
       </c>
       <c r="K3">
-        <v>-0.24236718967095977</v>
+        <v>-0.29387630704373574</v>
       </c>
       <c r="L3">
-        <v>-0.18393957965741006</v>
+        <v>-0.29371020839054174</v>
       </c>
       <c r="M3">
-        <v>-0.16122922876203666</v>
+        <v>-0.29359164137013394</v>
       </c>
       <c r="N3">
-        <v>0.0076730170382036935</v>
+        <v>-0.29336116550389</v>
       </c>
       <c r="O3">
-        <v>0.0034696827854286015</v>
+        <v>-0.2927653974000444</v>
       </c>
       <c r="P3">
-        <v>0.00021643130018687617</v>
+        <v>-0.29229943305268336</v>
       </c>
       <c r="Q3">
-        <v>-7.90756145788778e-5</v>
+        <v>-0.29180970036263354</v>
       </c>
       <c r="R3">
         <v>-0.14606036820064444</v>
@@ -6951,55 +6951,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.29239639008194535</v>
+        <v>-0.29000008220980017</v>
       </c>
       <c r="B4">
-        <v>-0.2921775538354318</v>
+        <v>-0.2899997971076942</v>
       </c>
       <c r="C4">
-        <v>-0.291534026904604</v>
+        <v>-0.28999694448345725</v>
       </c>
       <c r="D4">
-        <v>-0.2904597105356403</v>
+        <v>-0.2899682599822535</v>
       </c>
       <c r="E4">
-        <v>-0.28993220395549624</v>
+        <v>-0.2896729165643185</v>
       </c>
       <c r="F4">
-        <v>-0.2893959962365386</v>
+        <v>-0.267609524265521</v>
       </c>
       <c r="G4">
-        <v>-0.28835196636313853</v>
+        <v>-0.2947642565184162</v>
       </c>
       <c r="H4">
-        <v>-0.28735729495048434</v>
+        <v>-0.29418071929837075</v>
       </c>
       <c r="I4">
-        <v>-0.28452460156200404</v>
+        <v>-0.29409167660014096</v>
       </c>
       <c r="J4">
-        <v>-0.2799254378236213</v>
+        <v>-0.29403403281222146</v>
       </c>
       <c r="K4">
-        <v>-0.24250169300121904</v>
+        <v>-0.2938491563523433</v>
       </c>
       <c r="L4">
-        <v>-0.2578844709976619</v>
+        <v>-0.2936829774331437</v>
       </c>
       <c r="M4">
-        <v>0.02400415210120987</v>
+        <v>-0.2935643309690862</v>
       </c>
       <c r="N4">
-        <v>0.005832632308616239</v>
+        <v>-0.29333375020228974</v>
       </c>
       <c r="O4">
-        <v>-0.010766091443312965</v>
+        <v>-0.29273618583973404</v>
       </c>
       <c r="P4">
-        <v>-9.107116461159326e-5</v>
+        <v>-0.2922621125263729</v>
       </c>
       <c r="Q4">
-        <v>-0.0002260091517423932</v>
+        <v>-0.291721053880775</v>
       </c>
       <c r="R4">
         <v>-8.9041046750327507E-2</v>
@@ -7007,55 +7007,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.2845760849285192</v>
+        <v>-0.28973471566148434</v>
       </c>
       <c r="B5">
-        <v>-0.284056270069383</v>
+        <v>-0.289734426144831</v>
       </c>
       <c r="C5">
-        <v>-0.2836295814350392</v>
+        <v>-0.28973152918229256</v>
       </c>
       <c r="D5">
-        <v>-0.28240193631092897</v>
+        <v>-0.28970238296503087</v>
       </c>
       <c r="E5">
-        <v>-0.28013957851723653</v>
+        <v>-0.2893985416599559</v>
       </c>
       <c r="F5">
-        <v>-0.2790181604444437</v>
+        <v>-0.26724664985640306</v>
       </c>
       <c r="G5">
-        <v>-0.27808875389756327</v>
+        <v>-0.2944985351164663</v>
       </c>
       <c r="H5">
-        <v>-0.2772345671399505</v>
+        <v>-0.29392166156831195</v>
       </c>
       <c r="I5">
-        <v>-0.2752179363426446</v>
+        <v>-0.2938363571162632</v>
       </c>
       <c r="J5">
-        <v>-0.2728222276192233</v>
+        <v>-0.2937794357365243</v>
       </c>
       <c r="K5">
-        <v>-0.23975858684908993</v>
+        <v>-0.2935944962747383</v>
       </c>
       <c r="L5">
-        <v>-0.14545599471414009</v>
+        <v>-0.29342735543876447</v>
       </c>
       <c r="M5">
-        <v>-0.06797782981817563</v>
+        <v>-0.29330786380687324</v>
       </c>
       <c r="N5">
-        <v>0.23430159079624696</v>
+        <v>-0.2930753766863349</v>
       </c>
       <c r="O5">
-        <v>-0.01002860648143666</v>
+        <v>-0.2924660470495051</v>
       </c>
       <c r="P5">
-        <v>9.648031842183149e-5</v>
+        <v>-0.29199324042401803</v>
       </c>
       <c r="Q5">
-        <v>0.0004951482072436219</v>
+        <v>-0.29146512111158607</v>
       </c>
       <c r="R5">
         <v>-0.2125206220929361</v>
@@ -7063,55 +7063,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.26448507405050464</v>
+        <v>-0.2880985256958942</v>
       </c>
       <c r="B6">
-        <v>-0.2618010932884129</v>
+        <v>-0.2880981660737395</v>
       </c>
       <c r="C6">
-        <v>-0.2608572144387704</v>
+        <v>-0.28809456314675236</v>
       </c>
       <c r="D6">
-        <v>-0.25875677179850254</v>
+        <v>-0.28805782142276937</v>
       </c>
       <c r="E6">
-        <v>-0.25463704961217337</v>
+        <v>-0.28742968230639154</v>
       </c>
       <c r="F6">
-        <v>-0.24993962862109442</v>
+        <v>-0.2648735345262708</v>
       </c>
       <c r="G6">
-        <v>-0.24628273635704884</v>
+        <v>-0.2929051286365605</v>
       </c>
       <c r="H6">
-        <v>-0.24418280335846626</v>
+        <v>-0.29235994133280674</v>
       </c>
       <c r="I6">
-        <v>-0.24334805016953268</v>
+        <v>-0.29229281858380485</v>
       </c>
       <c r="J6">
-        <v>-0.2404759756389751</v>
+        <v>-0.2922380550187643</v>
       </c>
       <c r="K6">
-        <v>-0.2247234905407654</v>
+        <v>-0.29204508346345276</v>
       </c>
       <c r="L6">
-        <v>-0.0895108227789919</v>
+        <v>-0.29186328569306447</v>
       </c>
       <c r="M6">
-        <v>0.1998680196529882</v>
+        <v>-0.2917335904829482</v>
       </c>
       <c r="N6">
-        <v>-0.007192863580690137</v>
+        <v>-0.29148056171811826</v>
       </c>
       <c r="O6">
-        <v>-0.005131754966815198</v>
+        <v>-0.2907845869138872</v>
       </c>
       <c r="P6">
-        <v>0.00045462286807936594</v>
+        <v>-0.29025542042248326</v>
       </c>
       <c r="Q6">
-        <v>3.774358857434747e-5</v>
+        <v>-0.2898104802190247</v>
       </c>
       <c r="R6">
         <v>-0.12327400457225317</v>
@@ -7119,55 +7119,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.2316742360975453</v>
+        <v>-0.28596174046525696</v>
       </c>
       <c r="B7">
-        <v>-0.22318275941680166</v>
+        <v>-0.2859612868218639</v>
       </c>
       <c r="C7">
-        <v>-0.22155270874024452</v>
+        <v>-0.2859567619359531</v>
       </c>
       <c r="D7">
-        <v>-0.21971721275059372</v>
+        <v>-0.2859125490142923</v>
       </c>
       <c r="E7">
-        <v>-0.2148671007892463</v>
+        <v>-0.28551082993405447</v>
       </c>
       <c r="F7">
-        <v>-0.20962144822748943</v>
+        <v>-0.2602105700534661</v>
       </c>
       <c r="G7">
-        <v>-0.20419647425102191</v>
+        <v>-0.2905042840761743</v>
       </c>
       <c r="H7">
-        <v>-0.19901949896055632</v>
+        <v>-0.28997704238162203</v>
       </c>
       <c r="I7">
-        <v>-0.1971225600810622</v>
+        <v>-0.28992289029157414</v>
       </c>
       <c r="J7">
-        <v>-0.1949615819229907</v>
+        <v>-0.2898646680364205</v>
       </c>
       <c r="K7">
-        <v>-0.18758836421309186</v>
+        <v>-0.2896332420335293</v>
       </c>
       <c r="L7">
-        <v>-0.11396856664611495</v>
+        <v>-0.2893896056325562</v>
       </c>
       <c r="M7">
-        <v>-0.07484964643852067</v>
+        <v>-0.28921858043440446</v>
       </c>
       <c r="N7">
-        <v>0.004084216591555239</v>
+        <v>-0.28887947581885054</v>
       </c>
       <c r="O7">
-        <v>0.003810224244545143</v>
+        <v>-0.28764391815390866</v>
       </c>
       <c r="P7">
-        <v>-2.4518909098239204e-5</v>
+        <v>-0.28451022030985496</v>
       </c>
       <c r="Q7">
-        <v>9.405475095574125e-5</v>
+        <v>-0.2876272443048931</v>
       </c>
       <c r="R7">
         <v>-0.14660838129455178</v>
@@ -7175,55 +7175,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.20722028080019395</v>
+        <v>-0.2844718234480478</v>
       </c>
       <c r="B8">
-        <v>-0.19695405829105875</v>
+        <v>-0.28447135796499934</v>
       </c>
       <c r="C8">
-        <v>-0.19485501213727713</v>
+        <v>-0.28446670532017715</v>
       </c>
       <c r="D8">
-        <v>-0.19359456231673922</v>
+        <v>-0.2844203757147051</v>
       </c>
       <c r="E8">
-        <v>-0.19087555546319604</v>
+        <v>-0.28396036142023484</v>
       </c>
       <c r="F8">
-        <v>-0.18747520627302916</v>
+        <v>-0.24987689476568292</v>
       </c>
       <c r="G8">
-        <v>-0.18360450601186892</v>
+        <v>-0.2893682729884413</v>
       </c>
       <c r="H8">
-        <v>-0.17917714855275121</v>
+        <v>-0.288802362120831</v>
       </c>
       <c r="I8">
-        <v>-0.17660817449704733</v>
+        <v>-0.2888077489474856</v>
       </c>
       <c r="J8">
-        <v>-0.1735302089344041</v>
+        <v>-0.2891426428340624</v>
       </c>
       <c r="K8">
-        <v>-0.1626118537577385</v>
+        <v>-0.2868785008152845</v>
       </c>
       <c r="L8">
-        <v>-0.09051351860799761</v>
+        <v>-0.2879573056784553</v>
       </c>
       <c r="M8">
-        <v>-0.01625296675315624</v>
+        <v>-0.28784770911094737</v>
       </c>
       <c r="N8">
-        <v>0.0020984020171451842</v>
+        <v>-0.287511634433012</v>
       </c>
       <c r="O8">
-        <v>-0.009162187357705265</v>
+        <v>-0.2867994209277895</v>
       </c>
       <c r="P8">
-        <v>0.0002136543200748656</v>
+        <v>-0.2860308183365956</v>
       </c>
       <c r="Q8">
-        <v>6.199731657771997e-6</v>
+        <v>-0.28481658910703234</v>
       </c>
       <c r="R8">
         <v>4.5561798453175602E-2</v>
@@ -7231,55 +7231,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.19430204979985374</v>
+        <v>-0.2515176616632742</v>
       </c>
       <c r="B9">
-        <v>-0.18516180334957302</v>
+        <v>-0.25151241902894944</v>
       </c>
       <c r="C9">
-        <v>-0.18219588804852566</v>
+        <v>-0.2514600602136023</v>
       </c>
       <c r="D9">
-        <v>-0.18063254019493954</v>
+        <v>-0.25094228698016635</v>
       </c>
       <c r="E9">
-        <v>-0.17795166802507953</v>
+        <v>-0.24577855942896945</v>
       </c>
       <c r="F9">
-        <v>-0.1755344717391201</v>
+        <v>-0.354875139111833</v>
       </c>
       <c r="G9">
-        <v>-0.17296859921338575</v>
+        <v>-0.2803787090124427</v>
       </c>
       <c r="H9">
-        <v>-0.1693707004834714</v>
+        <v>-0.2742201517739894</v>
       </c>
       <c r="I9">
-        <v>-0.16702018343608502</v>
+        <v>-0.2793984460363072</v>
       </c>
       <c r="J9">
-        <v>-0.16493762001163947</v>
+        <v>-0.27907835018142324</v>
       </c>
       <c r="K9">
-        <v>-0.15665123726562505</v>
+        <v>-0.27836640327248563</v>
       </c>
       <c r="L9">
-        <v>-0.15295086214382939</v>
+        <v>-0.27770813646716896</v>
       </c>
       <c r="M9">
-        <v>-0.018038515551660944</v>
+        <v>-0.2770847338567609</v>
       </c>
       <c r="N9">
-        <v>0.003206495247799267</v>
+        <v>-0.27796406923323325</v>
       </c>
       <c r="O9">
-        <v>-0.0019139890563072933</v>
+        <v>-0.2767761845264174</v>
       </c>
       <c r="P9">
-        <v>-0.0017967154717834512</v>
+        <v>-0.2756453305264187</v>
       </c>
       <c r="Q9">
-        <v>-5.1292621751436516e-6</v>
+        <v>-0.2749476871184738</v>
       </c>
       <c r="R9">
         <v>-0.13835279782793247</v>
@@ -7287,55 +7287,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.18733102407296334</v>
+        <v>-0.2947356555826749</v>
       </c>
       <c r="B10">
-        <v>-0.17942234159316595</v>
+        <v>-0.2947358267778541</v>
       </c>
       <c r="C10">
-        <v>-0.17574906059541973</v>
+        <v>-0.29473752844842355</v>
       </c>
       <c r="D10">
-        <v>-0.17382207982463815</v>
+        <v>-0.29475356570604533</v>
       </c>
       <c r="E10">
-        <v>-0.17075753345876743</v>
+        <v>-0.2948488552294312</v>
       </c>
       <c r="F10">
-        <v>-0.16839798448507323</v>
+        <v>-0.2931843931611803</v>
       </c>
       <c r="G10">
-        <v>-0.16632545462403153</v>
+        <v>-0.2957713663938304</v>
       </c>
       <c r="H10">
-        <v>-0.1631547626081038</v>
+        <v>-0.29569819678096854</v>
       </c>
       <c r="I10">
-        <v>-0.1605160198200976</v>
+        <v>-0.29568201987012493</v>
       </c>
       <c r="J10">
-        <v>-0.158709146259938</v>
+        <v>-0.2956098692615358</v>
       </c>
       <c r="K10">
-        <v>-0.14985002881555942</v>
+        <v>-0.29532230868132286</v>
       </c>
       <c r="L10">
-        <v>-0.10207926817949418</v>
+        <v>-0.2949936147588778</v>
       </c>
       <c r="M10">
-        <v>-0.04032360895381824</v>
+        <v>-0.29476082163238176</v>
       </c>
       <c r="N10">
-        <v>0.0016020685715718104</v>
+        <v>-0.29434735245911486</v>
       </c>
       <c r="O10">
-        <v>-0.008089054540305802</v>
+        <v>-0.293427362648517</v>
       </c>
       <c r="P10">
-        <v>-0.0002125967645775257</v>
+        <v>-0.2924724591035137</v>
       </c>
       <c r="Q10">
-        <v>-6.051810553171121e-5</v>
+        <v>-0.29111723387052085</v>
       </c>
       <c r="R10">
         <v>-7.0060006597616187E-2</v>
@@ -7343,55 +7343,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.18306181547507921</v>
+        <v>-0.29348023918677535</v>
       </c>
       <c r="B11">
-        <v>-0.17682187339479055</v>
+        <v>-0.2934803491284996</v>
       </c>
       <c r="C11">
-        <v>-0.17300807091182818</v>
+        <v>-0.2934814367864019</v>
       </c>
       <c r="D11">
-        <v>-0.17118208279128216</v>
+        <v>-0.2934911602764405</v>
       </c>
       <c r="E11">
-        <v>-0.16834092867270953</v>
+        <v>-0.29331070918449115</v>
       </c>
       <c r="F11">
-        <v>-0.1661104418354471</v>
+        <v>-0.2762425890638015</v>
       </c>
       <c r="G11">
-        <v>-0.16415979265392155</v>
+        <v>-0.2948100155539799</v>
       </c>
       <c r="H11">
-        <v>-0.16092273962845802</v>
+        <v>-0.29469161076513745</v>
       </c>
       <c r="I11">
-        <v>-0.157116160972295</v>
+        <v>-0.29467036664485713</v>
       </c>
       <c r="J11">
-        <v>-0.1548364871185761</v>
+        <v>-0.29458687487447466</v>
       </c>
       <c r="K11">
-        <v>-0.14750805170425932</v>
+        <v>-0.294222289902481</v>
       </c>
       <c r="L11">
-        <v>-0.11120180650332968</v>
+        <v>-0.2938219741553588</v>
       </c>
       <c r="M11">
-        <v>0.7064696191404469</v>
+        <v>-0.2935900569931587</v>
       </c>
       <c r="N11">
-        <v>0.01314754069460959</v>
+        <v>-0.2932072365429336</v>
       </c>
       <c r="O11">
-        <v>0.043713834264866275</v>
+        <v>-0.29231192965232294</v>
       </c>
       <c r="P11">
-        <v>-7.293862957842117e-5</v>
+        <v>-0.2912822395373175</v>
       </c>
       <c r="Q11">
-        <v>-8.799033316619768e-5</v>
+        <v>-0.2900458637112683</v>
       </c>
       <c r="R11">
         <v>-9.4356966923843558E-2</v>
@@ -7399,55 +7399,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.1811712860955471</v>
+        <v>-0.2919170641132722</v>
       </c>
       <c r="B12">
-        <v>-0.1758644831486017</v>
+        <v>-0.291913774783694</v>
       </c>
       <c r="C12">
-        <v>-0.17180489651123185</v>
+        <v>-0.29187966624892064</v>
       </c>
       <c r="D12">
-        <v>-0.17007873325523817</v>
+        <v>-0.29135471273157987</v>
       </c>
       <c r="E12">
-        <v>-0.16748721563034147</v>
+        <v>-0.29358842160606574</v>
       </c>
       <c r="F12">
-        <v>-0.16532686001858787</v>
+        <v>-0.2909013519291276</v>
       </c>
       <c r="G12">
-        <v>-0.1634342204428254</v>
+        <v>-0.2943449034584823</v>
       </c>
       <c r="H12">
-        <v>-0.16019788965778167</v>
+        <v>-0.29407656677802735</v>
       </c>
       <c r="I12">
-        <v>-0.15614758966707856</v>
+        <v>-0.2939813321062195</v>
       </c>
       <c r="J12">
-        <v>-0.15317063536257167</v>
+        <v>-0.2938942796980745</v>
       </c>
       <c r="K12">
-        <v>-0.15024606270178595</v>
+        <v>-0.2934913603526765</v>
       </c>
       <c r="L12">
-        <v>-0.10514350651158193</v>
+        <v>-0.292699333939294</v>
       </c>
       <c r="M12">
-        <v>-0.018145065333806835</v>
+        <v>-0.2922689061288762</v>
       </c>
       <c r="N12">
-        <v>0.016228131738495955</v>
+        <v>-0.29193008027256095</v>
       </c>
       <c r="O12">
-        <v>0.002545276175231372</v>
+        <v>-0.2911219816034815</v>
       </c>
       <c r="P12">
-        <v>-0.00071911072780563</v>
+        <v>-0.28996759957496476</v>
       </c>
       <c r="Q12">
-        <v>1.9714240514571266e-5</v>
+        <v>-0.2887845425047541</v>
       </c>
       <c r="R12">
         <v>-0.13704395565333918</v>
@@ -7455,55 +7455,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.18085278061896437</v>
+        <v>-0.2961258786036877</v>
       </c>
       <c r="B13">
-        <v>-0.17570385835126423</v>
+        <v>-0.29610369748990123</v>
       </c>
       <c r="C13">
-        <v>-0.17157910711576832</v>
+        <v>-0.29589331478650477</v>
       </c>
       <c r="D13">
-        <v>-0.1698759244019142</v>
+        <v>-0.29452932666553067</v>
       </c>
       <c r="E13">
-        <v>-0.16734906075731373</v>
+        <v>-0.2923753253779285</v>
       </c>
       <c r="F13">
-        <v>-0.16520937195765745</v>
+        <v>-0.2903688380106117</v>
       </c>
       <c r="G13">
-        <v>-0.16332514710050877</v>
+        <v>-0.292702649785714</v>
       </c>
       <c r="H13">
-        <v>-0.16010954563520022</v>
+        <v>-0.29183370309778317</v>
       </c>
       <c r="I13">
-        <v>-0.15589968206464352</v>
+        <v>-0.2908194449475905</v>
       </c>
       <c r="J13">
-        <v>-0.15347392538269639</v>
+        <v>-0.2904994725971754</v>
       </c>
       <c r="K13">
-        <v>-0.14253543911977448</v>
+        <v>-0.2902002731388544</v>
       </c>
       <c r="L13">
-        <v>-0.15035502642391677</v>
+        <v>-0.2894372214033385</v>
       </c>
       <c r="M13">
-        <v>-0.06754072163521978</v>
+        <v>-0.2881093363962989</v>
       </c>
       <c r="N13">
-        <v>0.00716489513462414</v>
+        <v>-0.2874504925329358</v>
       </c>
       <c r="O13">
-        <v>-0.0040955748476108455</v>
+        <v>-0.2867727837315228</v>
       </c>
       <c r="P13">
-        <v>0.004231638665809567</v>
+        <v>-0.2857209289538729</v>
       </c>
       <c r="Q13">
-        <v>6.977445771764078e-5</v>
+        <v>-0.2847319453116605</v>
       </c>
       <c r="R13">
         <v>-0.17837598090416473</v>
@@ -7511,55 +7511,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.18081064222979173</v>
+        <v>-0.2913440159634295</v>
       </c>
       <c r="B14">
-        <v>-0.1756717868335519</v>
+        <v>-0.29133610241700153</v>
       </c>
       <c r="C14">
-        <v>-0.1715251684635129</v>
+        <v>-0.2912585471994854</v>
       </c>
       <c r="D14">
-        <v>-0.16981443999387322</v>
+        <v>-0.2906143240465642</v>
       </c>
       <c r="E14">
-        <v>-0.16729080606065339</v>
+        <v>-0.28850704389615406</v>
       </c>
       <c r="F14">
-        <v>-0.16515852825265798</v>
+        <v>-0.28810000389297113</v>
       </c>
       <c r="G14">
-        <v>-0.16325499020033934</v>
+        <v>-0.28737259878415133</v>
       </c>
       <c r="H14">
-        <v>-0.16000378990400155</v>
+        <v>-0.2856836653763087</v>
       </c>
       <c r="I14">
-        <v>-0.15584801336221882</v>
+        <v>-0.28105100979916975</v>
       </c>
       <c r="J14">
-        <v>-0.1527047457077755</v>
+        <v>-0.2784269507741713</v>
       </c>
       <c r="K14">
-        <v>-0.14359584392933256</v>
+        <v>-0.2777979944156941</v>
       </c>
       <c r="L14">
-        <v>-0.14105104354574102</v>
+        <v>-0.2771260460014638</v>
       </c>
       <c r="M14">
-        <v>-0.07612725309960211</v>
+        <v>-0.27525246895527333</v>
       </c>
       <c r="N14">
-        <v>0.005316551764731707</v>
+        <v>-0.27214476608793137</v>
       </c>
       <c r="O14">
-        <v>-0.09536590671473169</v>
+        <v>-0.270523151688261</v>
       </c>
       <c r="P14">
-        <v>0.0002153150089756783</v>
+        <v>-0.26934062621558463</v>
       </c>
       <c r="Q14">
-        <v>-4.471382453138557e-6</v>
+        <v>-0.2685325915140459</v>
       </c>
       <c r="R14">
         <v>0.35501144306742854</v>
@@ -7567,55 +7567,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.1809560985394508</v>
+        <v>-0.28356371971881067</v>
       </c>
       <c r="B15">
-        <v>-0.1758262223347069</v>
+        <v>-0.2835534220570612</v>
       </c>
       <c r="C15">
-        <v>-0.1717235709071233</v>
+        <v>-0.2834516983623741</v>
       </c>
       <c r="D15">
-        <v>-0.16986453812418142</v>
+        <v>-0.2825461083765903</v>
       </c>
       <c r="E15">
-        <v>-0.16723944642683486</v>
+        <v>-0.2785368053792597</v>
       </c>
       <c r="F15">
-        <v>-0.16542858212250589</v>
+        <v>-0.2807222087657629</v>
       </c>
       <c r="G15">
-        <v>-0.16336856919159667</v>
+        <v>-0.27368783733006397</v>
       </c>
       <c r="H15">
-        <v>-0.1600537841991587</v>
+        <v>-0.271197531429113</v>
       </c>
       <c r="I15">
-        <v>-0.15592043444713127</v>
+        <v>-0.2610837990111824</v>
       </c>
       <c r="J15">
-        <v>-0.15300020712006074</v>
+        <v>-0.25056072650502775</v>
       </c>
       <c r="K15">
-        <v>-0.14212939658692825</v>
+        <v>-0.2481377350529828</v>
       </c>
       <c r="L15">
-        <v>-0.11648030852499099</v>
+        <v>-0.24687709052833953</v>
       </c>
       <c r="M15">
-        <v>0.2378062476961911</v>
+        <v>-0.24346809391906404</v>
       </c>
       <c r="N15">
-        <v>0.004156502911698539</v>
+        <v>-0.23816652333453994</v>
       </c>
       <c r="O15">
-        <v>-0.014700942801700003</v>
+        <v>-0.232831766547756</v>
       </c>
       <c r="P15">
-        <v>0.00036371755238410433</v>
+        <v>-0.22767889347530806</v>
       </c>
       <c r="Q15">
-        <v>-7.405445832524685e-5</v>
+        <v>-0.22535046936913328</v>
       </c>
       <c r="R15">
         <v>0.20777686758962549</v>
@@ -7623,55 +7623,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.18117006894021725</v>
+        <v>-0.2612158996988051</v>
       </c>
       <c r="B16">
-        <v>-0.17652690804115545</v>
+        <v>-0.2612056100784894</v>
       </c>
       <c r="C16">
-        <v>-0.1729375051554288</v>
+        <v>-0.2611034801898632</v>
       </c>
       <c r="D16">
-        <v>-0.17073494551548976</v>
+        <v>-0.2601535331248067</v>
       </c>
       <c r="E16">
-        <v>-0.17015650440766505</v>
+        <v>-0.2547683451498928</v>
       </c>
       <c r="F16">
-        <v>-0.16685351343239813</v>
+        <v>-0.26599743470811404</v>
       </c>
       <c r="G16">
-        <v>-0.16552789449604025</v>
+        <v>-0.24686463644479276</v>
       </c>
       <c r="H16">
-        <v>-0.1554341285066778</v>
+        <v>-0.24442613775222127</v>
       </c>
       <c r="I16">
-        <v>-0.1591038184547815</v>
+        <v>-0.23375724626031108</v>
       </c>
       <c r="J16">
-        <v>-0.15296306890828013</v>
+        <v>-0.21563466529360967</v>
       </c>
       <c r="K16">
-        <v>-0.1417730675886288</v>
+        <v>-0.21015465881664988</v>
       </c>
       <c r="L16">
-        <v>-0.09698444822627202</v>
+        <v>-0.20889423749759645</v>
       </c>
       <c r="M16">
-        <v>-0.12586253821912516</v>
+        <v>-0.20670717606608696</v>
       </c>
       <c r="N16">
-        <v>0.07028936818009784</v>
+        <v>-0.2020243293785187</v>
       </c>
       <c r="O16">
-        <v>0.002281547744849739</v>
+        <v>-0.19742091513913987</v>
       </c>
       <c r="P16">
-        <v>-0.0010877894478401344</v>
+        <v>-0.19228160210833106</v>
       </c>
       <c r="Q16">
-        <v>2.259416191067631e-6</v>
+        <v>-0.18827478842378834</v>
       </c>
       <c r="R16">
         <v>-2.2787177252421953E-3</v>
@@ -7679,55 +7679,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.16910887840624508</v>
+        <v>-0.21809391333518052</v>
       </c>
       <c r="B17">
-        <v>-0.16513532785823357</v>
+        <v>-0.21809206821016286</v>
       </c>
       <c r="C17">
-        <v>-0.1617512881783444</v>
+        <v>-0.21807368864793694</v>
       </c>
       <c r="D17">
-        <v>-0.16568876746562777</v>
+        <v>-0.2178963169270416</v>
       </c>
       <c r="E17">
-        <v>-0.16650432473392207</v>
+        <v>-0.21662340717885328</v>
       </c>
       <c r="F17">
-        <v>-0.15414549664182015</v>
+        <v>-0.23522509376485898</v>
       </c>
       <c r="G17">
-        <v>-0.16165015926420032</v>
+        <v>-0.214620671543931</v>
       </c>
       <c r="H17">
-        <v>-12.957390637924425</v>
+        <v>-0.2135604133528551</v>
       </c>
       <c r="I17">
-        <v>-0.1901199291413092</v>
+        <v>-0.20937716649573096</v>
       </c>
       <c r="J17">
-        <v>-0.1441007998302605</v>
+        <v>-0.1969520809851078</v>
       </c>
       <c r="K17">
-        <v>-0.1323566215614201</v>
+        <v>-0.1905481533752824</v>
       </c>
       <c r="L17">
-        <v>-0.12757585622839931</v>
+        <v>-0.18910607246443684</v>
       </c>
       <c r="M17">
-        <v>-0.038321715098539155</v>
+        <v>-0.18747844599136312</v>
       </c>
       <c r="N17">
-        <v>0.0005457112161412875</v>
+        <v>-0.18464484149289057</v>
       </c>
       <c r="O17">
-        <v>-0.0009731165436286316</v>
+        <v>-0.18185196910312232</v>
       </c>
       <c r="P17">
-        <v>0.00011085393420532203</v>
+        <v>-0.1780200864091339</v>
       </c>
       <c r="Q17">
-        <v>-5.4150650565769424e-6</v>
+        <v>-0.17428214419094343</v>
       </c>
       <c r="R17">
         <v>2.1271902524867844E-4</v>
@@ -7808,55 +7808,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.3005435772059083</v>
+        <v>-0.3077609034214794</v>
       </c>
       <c r="B1">
-        <v>-0.3005107464461376</v>
+        <v>-0.30776091047515325</v>
       </c>
       <c r="C1">
-        <v>-0.30043272338548627</v>
+        <v>-0.30776098145290476</v>
       </c>
       <c r="D1">
-        <v>-0.30037818806544614</v>
+        <v>-0.3077617293535865</v>
       </c>
       <c r="E1">
-        <v>-0.30032496295159833</v>
+        <v>-0.3077733441792979</v>
       </c>
       <c r="F1">
-        <v>-0.3002184894384422</v>
+        <v>-0.307654893295568</v>
       </c>
       <c r="G1">
-        <v>-0.2999439487130959</v>
+        <v>-0.30773771892830065</v>
       </c>
       <c r="H1">
-        <v>-0.2988973441489216</v>
+        <v>-0.3076976668101278</v>
       </c>
       <c r="I1">
-        <v>-0.29545404504732</v>
+        <v>-0.3076526631368607</v>
       </c>
       <c r="J1">
-        <v>-0.2947586261107041</v>
+        <v>-0.3076158341380414</v>
       </c>
       <c r="K1">
-        <v>-0.5034514952210997</v>
+        <v>-0.3074823474848059</v>
       </c>
       <c r="L1">
-        <v>0.19987773078253188</v>
+        <v>-0.30734917148372526</v>
       </c>
       <c r="M1">
-        <v>0.040952635567200364</v>
+        <v>-0.30731116258930913</v>
       </c>
       <c r="N1">
-        <v>0.000685694144339624</v>
+        <v>-0.30629728000898754</v>
       </c>
       <c r="O1">
-        <v>0.00014191765623080521</v>
+        <v>-0.3068373029785882</v>
       </c>
       <c r="P1">
-        <v>-0.0008256573954194446</v>
+        <v>-0.30641376083780675</v>
       </c>
       <c r="Q1">
-        <v>5.963006478894737e-5</v>
+        <v>-0.30526218485006273</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -7864,55 +7864,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.29987336257623604</v>
+        <v>-0.30776012738467784</v>
       </c>
       <c r="B2">
-        <v>-0.2998391521383772</v>
+        <v>-0.307760134444024</v>
       </c>
       <c r="C2">
-        <v>-0.2997604319771575</v>
+        <v>-0.3077602054165172</v>
       </c>
       <c r="D2">
-        <v>-0.2997058171716672</v>
+        <v>-0.3077609533215932</v>
       </c>
       <c r="E2">
-        <v>-0.2996534671801247</v>
+        <v>-0.307772567729551</v>
       </c>
       <c r="F2">
-        <v>-0.29954832632888334</v>
+        <v>-0.3076541205810591</v>
       </c>
       <c r="G2">
-        <v>-0.2992793551478488</v>
+        <v>-0.30773695158133724</v>
       </c>
       <c r="H2">
-        <v>-0.2981812693277472</v>
+        <v>-0.30769690386476156</v>
       </c>
       <c r="I2">
-        <v>-0.2952565673186499</v>
+        <v>-0.3076519071623946</v>
       </c>
       <c r="J2">
-        <v>-0.29500489163901006</v>
+        <v>-0.30761508187790465</v>
       </c>
       <c r="K2">
-        <v>-0.4858205548876102</v>
+        <v>-0.3074816059339894</v>
       </c>
       <c r="L2">
-        <v>-0.303827920936428</v>
+        <v>-0.3073484394771849</v>
       </c>
       <c r="M2">
-        <v>0.0049597907288586535</v>
+        <v>-0.3073104256741286</v>
       </c>
       <c r="N2">
-        <v>-0.0001787789204986741</v>
+        <v>-0.30629665071891904</v>
       </c>
       <c r="O2">
-        <v>-0.0024895049252006557</v>
+        <v>-0.30683536888526447</v>
       </c>
       <c r="P2">
-        <v>-5.35386019530987e-5</v>
+        <v>-0.30640479485112215</v>
       </c>
       <c r="Q2">
-        <v>0.0002507487924025851</v>
+        <v>-0.3053086979487933</v>
       </c>
       <c r="R2">
         <v>-0.21756081649610176</v>
@@ -7920,55 +7920,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.2998267048865175</v>
+        <v>-0.30775237554596274</v>
       </c>
       <c r="B3">
-        <v>-0.29978721498563204</v>
+        <v>-0.30775238260298887</v>
       </c>
       <c r="C3">
-        <v>-0.299690960441913</v>
+        <v>-0.3077524535770749</v>
       </c>
       <c r="D3">
-        <v>-0.29962814378286773</v>
+        <v>-0.307753201456853</v>
       </c>
       <c r="E3">
-        <v>-0.29957788999705687</v>
+        <v>-0.30776481173252096</v>
       </c>
       <c r="F3">
-        <v>-0.29947747464129215</v>
+        <v>-0.3076464019214305</v>
       </c>
       <c r="G3">
-        <v>-0.29920902349289025</v>
+        <v>-0.30772928651896253</v>
       </c>
       <c r="H3">
-        <v>-0.29814036529513377</v>
+        <v>-0.3076892827606001</v>
       </c>
       <c r="I3">
-        <v>-0.29540121143820797</v>
+        <v>-0.3076443556377144</v>
       </c>
       <c r="J3">
-        <v>-0.2957713104027251</v>
+        <v>-0.3076075675389185</v>
       </c>
       <c r="K3">
-        <v>-0.5503400739861712</v>
+        <v>-0.3074741966820839</v>
       </c>
       <c r="L3">
-        <v>0.14687507107345116</v>
+        <v>-0.3073411330394053</v>
       </c>
       <c r="M3">
-        <v>-0.13665737160613872</v>
+        <v>-0.30730314704353034</v>
       </c>
       <c r="N3">
-        <v>0.0014616805121228126</v>
+        <v>-0.30629042648267935</v>
       </c>
       <c r="O3">
-        <v>-0.004343838670244751</v>
+        <v>-0.30682977352542834</v>
       </c>
       <c r="P3">
-        <v>0.00031985201470167556</v>
+        <v>-0.3063935012029234</v>
       </c>
       <c r="Q3">
-        <v>-0.0001491368972564738</v>
+        <v>-0.3052646702001899</v>
       </c>
       <c r="R3">
         <v>-0.21946617251298184</v>
@@ -7976,55 +7976,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.29972675819728645</v>
+        <v>-0.30767569783371057</v>
       </c>
       <c r="B4">
-        <v>-0.2996885670075536</v>
+        <v>-0.30767570489666596</v>
       </c>
       <c r="C4">
-        <v>-0.2995657570225233</v>
+        <v>-0.3076757758751484</v>
       </c>
       <c r="D4">
-        <v>-0.29944024160970395</v>
+        <v>-0.3076765234277333</v>
       </c>
       <c r="E4">
-        <v>-0.2993807755084407</v>
+        <v>-0.3076880924018791</v>
       </c>
       <c r="F4">
-        <v>-0.2992912555997091</v>
+        <v>-0.30757005321579883</v>
       </c>
       <c r="G4">
-        <v>-0.299042703839309</v>
+        <v>-0.30765346686645906</v>
       </c>
       <c r="H4">
-        <v>-0.297943736891861</v>
+        <v>-0.30761389508566556</v>
       </c>
       <c r="I4">
-        <v>-0.295127366486751</v>
+        <v>-0.3075696531076061</v>
       </c>
       <c r="J4">
-        <v>-0.29038714909290303</v>
+        <v>-0.30753323164947466</v>
       </c>
       <c r="K4">
-        <v>-0.5300900434729445</v>
+        <v>-0.3074008980096371</v>
       </c>
       <c r="L4">
-        <v>1.287232000372036</v>
+        <v>-0.3072688432813041</v>
       </c>
       <c r="M4">
-        <v>0.031215380174294982</v>
+        <v>-0.3072310521674611</v>
       </c>
       <c r="N4">
-        <v>0.008090804578399193</v>
+        <v>-0.30622794647386553</v>
       </c>
       <c r="O4">
-        <v>0.014693826733207807</v>
+        <v>-0.30675957859739733</v>
       </c>
       <c r="P4">
-        <v>-2.321529430294727e-5</v>
+        <v>-0.306323585667396</v>
       </c>
       <c r="Q4">
-        <v>1.5153812388134376e-5</v>
+        <v>-0.3051719030606828</v>
       </c>
       <c r="R4">
         <v>-0.22188926886685426</v>
@@ -8032,55 +8032,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.2992483546889553</v>
+        <v>-0.30698448268324396</v>
       </c>
       <c r="B5">
-        <v>-0.2992079952035279</v>
+        <v>-0.3069844897090286</v>
       </c>
       <c r="C5">
-        <v>-0.29911098261799557</v>
+        <v>-0.30698456031328347</v>
       </c>
       <c r="D5">
-        <v>-0.2989153841801442</v>
+        <v>-0.3069853006875547</v>
       </c>
       <c r="E5">
-        <v>-0.29874259527333685</v>
+        <v>-0.3069964607902331</v>
       </c>
       <c r="F5">
-        <v>-0.298643375564895</v>
+        <v>-0.3068818687485414</v>
       </c>
       <c r="G5">
-        <v>-0.2984150096784348</v>
+        <v>-0.3069699608104628</v>
       </c>
       <c r="H5">
-        <v>-0.2973781511850578</v>
+        <v>-0.30693405329342754</v>
       </c>
       <c r="I5">
-        <v>-0.29420767833202305</v>
+        <v>-0.30689573248729757</v>
       </c>
       <c r="J5">
-        <v>-0.2956335420245126</v>
+        <v>-0.30686251021545</v>
       </c>
       <c r="K5">
-        <v>-0.5911277890877427</v>
+        <v>-0.3067392751325332</v>
       </c>
       <c r="L5">
-        <v>0.25687859574138716</v>
+        <v>-0.30661598701594883</v>
       </c>
       <c r="M5">
-        <v>-0.36708858722499677</v>
+        <v>-0.30657980011931213</v>
       </c>
       <c r="N5">
-        <v>-0.0014370868274090982</v>
+        <v>-0.3056663121329612</v>
       </c>
       <c r="O5">
-        <v>-0.004863175453471165</v>
+        <v>-0.30613290249554576</v>
       </c>
       <c r="P5">
-        <v>0.00013084276315920498</v>
+        <v>-0.3057225501319327</v>
       </c>
       <c r="Q5">
-        <v>-0.0001587654975584796</v>
+        <v>-0.3046696137666793</v>
       </c>
       <c r="R5">
         <v>-0.21929400795188631</v>
@@ -8088,55 +8088,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.2977856055027403</v>
+        <v>-0.3036376239116199</v>
       </c>
       <c r="B6">
-        <v>-0.2976593668310835</v>
+        <v>-0.3036376296833016</v>
       </c>
       <c r="C6">
-        <v>-0.29758234727105415</v>
+        <v>-0.30363768759533555</v>
       </c>
       <c r="D6">
-        <v>-0.29746098979642827</v>
+        <v>-0.303638286298988</v>
       </c>
       <c r="E6">
-        <v>-0.2971001979645245</v>
+        <v>-0.3036465436565075</v>
       </c>
       <c r="F6">
-        <v>-0.29674902489840665</v>
+        <v>-0.30355129364512184</v>
       </c>
       <c r="G6">
-        <v>-0.29649046504959803</v>
+        <v>-0.3036597681696546</v>
       </c>
       <c r="H6">
-        <v>-0.29564275910710724</v>
+        <v>-0.30363574518690717</v>
       </c>
       <c r="I6">
-        <v>-0.2930837370620822</v>
+        <v>-0.3036195647331341</v>
       </c>
       <c r="J6">
-        <v>-0.29261472317060555</v>
+        <v>-0.30359912267526495</v>
       </c>
       <c r="K6">
-        <v>-0.5328881751332526</v>
+        <v>-0.30351349460095095</v>
       </c>
       <c r="L6">
-        <v>0.27396996471561813</v>
+        <v>-0.3034244323468317</v>
       </c>
       <c r="M6">
-        <v>0.400505737069838</v>
+        <v>-0.3033907158694643</v>
       </c>
       <c r="N6">
-        <v>-0.0009703736591716505</v>
+        <v>-0.3029636769872351</v>
       </c>
       <c r="O6">
-        <v>-0.006787762947131742</v>
+        <v>-0.30307665293914604</v>
       </c>
       <c r="P6">
-        <v>0.00028631443286213727</v>
+        <v>-0.3027057808285655</v>
       </c>
       <c r="Q6">
-        <v>0.00012262262628241348</v>
+        <v>-0.30161643050650816</v>
       </c>
       <c r="R6">
         <v>-0.20997075264379356</v>
@@ -8144,55 +8144,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.29341591540359624</v>
+        <v>-0.30026208266654447</v>
       </c>
       <c r="B7">
-        <v>-0.29274794287652783</v>
+        <v>-0.3002620853193443</v>
       </c>
       <c r="C7">
-        <v>-0.2925761937514665</v>
+        <v>-0.30026211195570535</v>
       </c>
       <c r="D7">
-        <v>-0.2923365193580494</v>
+        <v>-0.30026238652032516</v>
       </c>
       <c r="E7">
-        <v>-0.29182029660994446</v>
+        <v>-0.3002661639215902</v>
       </c>
       <c r="F7">
-        <v>-0.29097078571289664</v>
+        <v>-0.3001943220054291</v>
       </c>
       <c r="G7">
-        <v>-0.2900344936337946</v>
+        <v>-0.3003203224636238</v>
       </c>
       <c r="H7">
-        <v>-0.28903181226597646</v>
+        <v>-0.3002982414913572</v>
       </c>
       <c r="I7">
-        <v>-0.2878554641856444</v>
+        <v>-0.30029318927381776</v>
       </c>
       <c r="J7">
-        <v>-0.2919814728470259</v>
+        <v>-0.30028096910860075</v>
       </c>
       <c r="K7">
-        <v>-0.457725480277705</v>
+        <v>-0.30022177137545275</v>
       </c>
       <c r="L7">
-        <v>0.16162969203414854</v>
+        <v>-0.3001514755415864</v>
       </c>
       <c r="M7">
-        <v>0.06592354867299306</v>
+        <v>-0.3001091756410962</v>
       </c>
       <c r="N7">
-        <v>0.0013603281386055889</v>
+        <v>-0.30007601953052576</v>
       </c>
       <c r="O7">
-        <v>-0.00611007643078219</v>
+        <v>-0.2999301847534042</v>
       </c>
       <c r="P7">
-        <v>0.0002650503336725586</v>
+        <v>-0.29956927333146116</v>
       </c>
       <c r="Q7">
-        <v>-5.565717785666305e-7</v>
+        <v>-0.29831549619452</v>
       </c>
       <c r="R7">
         <v>-0.23030340416853815</v>
@@ -8200,55 +8200,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.27811912588379045</v>
+        <v>-0.2993172620307175</v>
       </c>
       <c r="B8">
-        <v>-0.2738681122035352</v>
+        <v>-0.29931726351818877</v>
       </c>
       <c r="C8">
-        <v>-0.2731202407366918</v>
+        <v>-0.2993172784963499</v>
       </c>
       <c r="D8">
-        <v>-0.272638209563197</v>
+        <v>-0.2993174348306005</v>
       </c>
       <c r="E8">
-        <v>-0.27135720350359394</v>
+        <v>-0.29931983216379765</v>
       </c>
       <c r="F8">
-        <v>-0.2693562154259216</v>
+        <v>-0.29925097913263576</v>
       </c>
       <c r="G8">
-        <v>-0.26770257733782715</v>
+        <v>-0.29938807911309073</v>
       </c>
       <c r="H8">
-        <v>-0.265983340099318</v>
+        <v>-0.29936374237739066</v>
       </c>
       <c r="I8">
-        <v>-0.26508870084340846</v>
+        <v>-0.2993597325382613</v>
       </c>
       <c r="J8">
-        <v>-0.26598334355277103</v>
+        <v>-0.29934877499698453</v>
       </c>
       <c r="K8">
-        <v>-0.5499062441421485</v>
+        <v>-0.2992920835142769</v>
       </c>
       <c r="L8">
-        <v>2.3507013885652963</v>
+        <v>-0.29920973109592935</v>
       </c>
       <c r="M8">
-        <v>-0.030351812389038998</v>
+        <v>-0.29969319934182254</v>
       </c>
       <c r="N8">
-        <v>-0.0026926349760490386</v>
+        <v>-0.2991407145074717</v>
       </c>
       <c r="O8">
-        <v>-0.01747688530323844</v>
+        <v>-0.29899669971456455</v>
       </c>
       <c r="P8">
-        <v>-0.0020642032410303408</v>
+        <v>-0.2985717765792925</v>
       </c>
       <c r="Q8">
-        <v>7.702752837734534e-5</v>
+        <v>-0.29710109013492814</v>
       </c>
       <c r="R8">
         <v>-0.21195218955833414</v>
@@ -8256,55 +8256,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.2517099148909998</v>
+        <v>-0.298559839136832</v>
       </c>
       <c r="B9">
-        <v>-0.23732844906824616</v>
+        <v>-0.2985598268669783</v>
       </c>
       <c r="C9">
-        <v>-0.23423258178531645</v>
+        <v>-0.2985597040648537</v>
       </c>
       <c r="D9">
-        <v>-0.23315066253154387</v>
+        <v>-0.29855846711301137</v>
       </c>
       <c r="E9">
-        <v>-0.23158186654853657</v>
+        <v>-0.2985449372286507</v>
       </c>
       <c r="F9">
-        <v>-0.22965793103856758</v>
+        <v>-0.2984691525686622</v>
       </c>
       <c r="G9">
-        <v>-0.22723960639741278</v>
+        <v>-0.29878251417294927</v>
       </c>
       <c r="H9">
-        <v>-0.22518181547634472</v>
+        <v>-0.29874030440465865</v>
       </c>
       <c r="I9">
-        <v>-0.22426169496590964</v>
+        <v>-0.299375992127817</v>
       </c>
       <c r="J9">
-        <v>-0.22135828909773472</v>
+        <v>-0.2985344423301661</v>
       </c>
       <c r="K9">
-        <v>-0.34166704496940103</v>
+        <v>-0.2985959081323784</v>
       </c>
       <c r="L9">
-        <v>-1.7712127937974886</v>
+        <v>-0.2985470097391745</v>
       </c>
       <c r="M9">
-        <v>0.0036115401762519222</v>
+        <v>-0.2985032617656151</v>
       </c>
       <c r="N9">
-        <v>-0.0013547613104269087</v>
+        <v>-0.29843970179103674</v>
       </c>
       <c r="O9">
-        <v>0.0011368279902220866</v>
+        <v>-0.2983131416430156</v>
       </c>
       <c r="P9">
-        <v>-0.0002826050606574808</v>
+        <v>-0.2979281693141819</v>
       </c>
       <c r="Q9">
-        <v>0.0003387008073705734</v>
+        <v>-0.2961865482513496</v>
       </c>
       <c r="R9">
         <v>-0.2780861852028168</v>
@@ -8312,55 +8312,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.2291593855617302</v>
+        <v>-0.3000311499269516</v>
       </c>
       <c r="B10">
-        <v>-0.21605028998685827</v>
+        <v>-0.300031149797634</v>
       </c>
       <c r="C10">
-        <v>-0.21133004080971565</v>
+        <v>-0.3000311485162131</v>
       </c>
       <c r="D10">
-        <v>-0.20953325953509688</v>
+        <v>-0.30003113533260567</v>
       </c>
       <c r="E10">
-        <v>-0.20728753959205298</v>
+        <v>-0.30003096053809764</v>
       </c>
       <c r="F10">
-        <v>-0.20546691701764183</v>
+        <v>-0.3000429023525027</v>
       </c>
       <c r="G10">
-        <v>-0.20449875106292367</v>
+        <v>-0.3000411059712798</v>
       </c>
       <c r="H10">
-        <v>-0.2029622381152551</v>
+        <v>-0.3000360615521044</v>
       </c>
       <c r="I10">
-        <v>-0.20143646979233742</v>
+        <v>-0.3000338722898801</v>
       </c>
       <c r="J10">
-        <v>-0.19723322608240337</v>
+        <v>-0.30002352029306123</v>
       </c>
       <c r="K10">
-        <v>-0.28967220961078843</v>
+        <v>-0.2999700919618502</v>
       </c>
       <c r="L10">
-        <v>0.48623245702279017</v>
+        <v>-0.2998964092547559</v>
       </c>
       <c r="M10">
-        <v>0.019290517301231186</v>
+        <v>-0.2998485245893902</v>
       </c>
       <c r="N10">
-        <v>-0.00019655994166011695</v>
+        <v>-0.2997824408297068</v>
       </c>
       <c r="O10">
-        <v>-0.0053265529055885625</v>
+        <v>-0.29964025971826086</v>
       </c>
       <c r="P10">
-        <v>-0.00026724867817695295</v>
+        <v>-0.29919224587046617</v>
       </c>
       <c r="Q10">
-        <v>-1.4486827291225125e-5</v>
+        <v>-0.297462017446957</v>
       </c>
       <c r="R10">
         <v>-0.22372212018710855</v>
@@ -8368,55 +8368,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.21531416468009013</v>
+        <v>-0.2998471361068334</v>
       </c>
       <c r="B11">
-        <v>-0.20734329969037685</v>
+        <v>-0.29984713577242467</v>
       </c>
       <c r="C11">
-        <v>-0.2022584816199424</v>
+        <v>-0.29984713243682554</v>
       </c>
       <c r="D11">
-        <v>-0.19982712400035696</v>
+        <v>-0.2998470983493097</v>
       </c>
       <c r="E11">
-        <v>-0.19653302346007523</v>
+        <v>-0.2998466487362535</v>
       </c>
       <c r="F11">
-        <v>-0.1939180327066759</v>
+        <v>-0.2998492965667452</v>
       </c>
       <c r="G11">
-        <v>-0.19312558354028003</v>
+        <v>-0.2998646271027996</v>
       </c>
       <c r="H11">
-        <v>-0.1924864732771051</v>
+        <v>-0.299857126924542</v>
       </c>
       <c r="I11">
-        <v>-0.19109952101878652</v>
+        <v>-0.29985468692998346</v>
       </c>
       <c r="J11">
-        <v>-0.18799114708175174</v>
+        <v>-0.299842961239862</v>
       </c>
       <c r="K11">
-        <v>-0.26909264322768944</v>
+        <v>-0.2997855240328037</v>
       </c>
       <c r="L11">
-        <v>0.20576393486072053</v>
+        <v>-0.29970855062652696</v>
       </c>
       <c r="M11">
-        <v>0.05322519936844467</v>
+        <v>-0.2996604063708648</v>
       </c>
       <c r="N11">
-        <v>-0.00042139178373172575</v>
+        <v>-0.29959574917402276</v>
       </c>
       <c r="O11">
-        <v>-0.0067059840637759835</v>
+        <v>-0.2994544388850524</v>
       </c>
       <c r="P11">
-        <v>0.0004105175426216931</v>
+        <v>-0.2989873494213234</v>
       </c>
       <c r="Q11">
-        <v>-4.963114929546349e-7</v>
+        <v>-0.29720326816104015</v>
       </c>
       <c r="R11">
         <v>-0.18882268762757914</v>
@@ -8424,55 +8424,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.20878337260262672</v>
+        <v>-0.29980475882244495</v>
       </c>
       <c r="B12">
-        <v>-0.20332497490484996</v>
+        <v>-0.2998047549529618</v>
       </c>
       <c r="C12">
-        <v>-0.19873891912317823</v>
+        <v>-0.2998047160895601</v>
       </c>
       <c r="D12">
-        <v>-0.19640299445641665</v>
+        <v>-0.2998043121761036</v>
       </c>
       <c r="E12">
-        <v>-0.19311399894284165</v>
+        <v>-0.299797738740967</v>
       </c>
       <c r="F12">
-        <v>-0.190331885625755</v>
+        <v>-0.29980650721886626</v>
       </c>
       <c r="G12">
-        <v>-0.1895442372897262</v>
+        <v>-0.29982699508961985</v>
       </c>
       <c r="H12">
-        <v>-0.1890577402598646</v>
+        <v>-0.29981576762739626</v>
       </c>
       <c r="I12">
-        <v>-0.18800388821530095</v>
+        <v>-0.2998121305328261</v>
       </c>
       <c r="J12">
-        <v>-0.18348785048839583</v>
+        <v>-0.299800094326397</v>
       </c>
       <c r="K12">
-        <v>-0.27276942549670435</v>
+        <v>-0.2997322285829774</v>
       </c>
       <c r="L12">
-        <v>-0.10984584177391905</v>
+        <v>-0.29962247843196016</v>
       </c>
       <c r="M12">
-        <v>0.04521164599102307</v>
+        <v>-0.2995644433822077</v>
       </c>
       <c r="N12">
-        <v>0.001782150660291769</v>
+        <v>-0.2995045399988946</v>
       </c>
       <c r="O12">
-        <v>-0.005425710681705186</v>
+        <v>-0.2993719616419995</v>
       </c>
       <c r="P12">
-        <v>-0.0007041387671474268</v>
+        <v>-0.298946004724399</v>
       </c>
       <c r="Q12">
-        <v>-0.0002258511984326821</v>
+        <v>-0.29715463016462296</v>
       </c>
       <c r="R12">
         <v>-0.21187033698876542</v>
@@ -8480,55 +8480,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.20713652171824484</v>
+        <v>-0.29968069121684016</v>
       </c>
       <c r="B13">
-        <v>-0.20234434761189063</v>
+        <v>-0.29968066619499717</v>
       </c>
       <c r="C13">
-        <v>-0.1979087444101798</v>
+        <v>-0.2996804145685789</v>
       </c>
       <c r="D13">
-        <v>-0.19566247652098645</v>
+        <v>-0.2996777520165579</v>
       </c>
       <c r="E13">
-        <v>-0.1924990717268584</v>
+        <v>-0.29961884517224213</v>
       </c>
       <c r="F13">
-        <v>-0.18972290466408193</v>
+        <v>-0.29969488671678435</v>
       </c>
       <c r="G13">
-        <v>-0.18893091661863146</v>
+        <v>-0.2997130944918939</v>
       </c>
       <c r="H13">
-        <v>-0.18847487952565595</v>
+        <v>-0.29966517236035806</v>
       </c>
       <c r="I13">
-        <v>-0.18727332388568882</v>
+        <v>-0.29963315034973953</v>
       </c>
       <c r="J13">
-        <v>-0.18258858172787681</v>
+        <v>-0.2996169097145714</v>
       </c>
       <c r="K13">
-        <v>-0.25836893557935686</v>
+        <v>-0.29955439251889937</v>
       </c>
       <c r="L13">
-        <v>0.3955893603644933</v>
+        <v>-0.2994053719173111</v>
       </c>
       <c r="M13">
-        <v>0.018455967701766076</v>
+        <v>-0.2992692282352738</v>
       </c>
       <c r="N13">
-        <v>0.021972828270061435</v>
+        <v>-0.2992012232105797</v>
       </c>
       <c r="O13">
-        <v>-0.0031744562178165404</v>
+        <v>-0.29908069420791555</v>
       </c>
       <c r="P13">
-        <v>-0.0004580421434633274</v>
+        <v>-0.29867373093719085</v>
       </c>
       <c r="Q13">
-        <v>-1.952537354363007e-5</v>
+        <v>-0.29695078184632123</v>
       </c>
       <c r="R13">
         <v>-0.32033268836081763</v>
@@ -8536,55 +8536,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.20691980156423523</v>
+        <v>-0.29929965996674357</v>
       </c>
       <c r="B14">
-        <v>-0.20221578510396684</v>
+        <v>-0.2992995773556493</v>
       </c>
       <c r="C14">
-        <v>-0.19779916772972206</v>
+        <v>-0.299298745331826</v>
       </c>
       <c r="D14">
-        <v>-0.19556764121478504</v>
+        <v>-0.2992897889025207</v>
       </c>
       <c r="E14">
-        <v>-0.19242721277541713</v>
+        <v>-0.2989941238504981</v>
       </c>
       <c r="F14">
-        <v>-0.1896507398806603</v>
+        <v>-0.2993456296214835</v>
       </c>
       <c r="G14">
-        <v>-0.18884714037718212</v>
+        <v>-0.2993545144239841</v>
       </c>
       <c r="H14">
-        <v>-0.18839947725200473</v>
+        <v>-0.29920021139140557</v>
       </c>
       <c r="I14">
-        <v>-0.1873646819986591</v>
+        <v>-0.2989393435711544</v>
       </c>
       <c r="J14">
-        <v>-0.18372140444442672</v>
+        <v>-0.2988419577612984</v>
       </c>
       <c r="K14">
-        <v>-0.24204255872312525</v>
+        <v>-0.29878416264982816</v>
       </c>
       <c r="L14">
-        <v>0.5173966355898674</v>
+        <v>-0.29868268008385307</v>
       </c>
       <c r="M14">
-        <v>0.014096219030844924</v>
+        <v>-0.29844873995976173</v>
       </c>
       <c r="N14">
-        <v>0.0012178224100117194</v>
+        <v>-0.29823255717846425</v>
       </c>
       <c r="O14">
-        <v>-0.00513901929668743</v>
+        <v>-0.298101903021518</v>
       </c>
       <c r="P14">
-        <v>0.00012580599685527597</v>
+        <v>-0.297738270557963</v>
       </c>
       <c r="Q14">
-        <v>0.0001439642889098119</v>
+        <v>-0.2961844883008745</v>
       </c>
       <c r="R14">
         <v>6.8070053629188262E-2</v>
@@ -8592,55 +8592,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.2069891484167532</v>
+        <v>-0.298267421276184</v>
       </c>
       <c r="B15">
-        <v>-0.20229400448588755</v>
+        <v>-0.29826721556712166</v>
       </c>
       <c r="C15">
-        <v>-0.19785242326379623</v>
+        <v>-0.2982651411196884</v>
       </c>
       <c r="D15">
-        <v>-0.1956121776501705</v>
+        <v>-0.2982425035876878</v>
       </c>
       <c r="E15">
-        <v>-0.19242543415533944</v>
+        <v>-0.2970119263406185</v>
       </c>
       <c r="F15">
-        <v>-0.189678509089784</v>
+        <v>-0.29834732077236437</v>
       </c>
       <c r="G15">
-        <v>-0.18886248561605323</v>
+        <v>-0.2983895590411014</v>
       </c>
       <c r="H15">
-        <v>-0.18840033546360946</v>
+        <v>-0.29811548901988966</v>
       </c>
       <c r="I15">
-        <v>-0.1873904827004504</v>
+        <v>-0.2972438647353337</v>
       </c>
       <c r="J15">
-        <v>-0.18220798936891047</v>
+        <v>-0.29666268843235477</v>
       </c>
       <c r="K15">
-        <v>-0.2566699315645532</v>
+        <v>-0.2965259032070136</v>
       </c>
       <c r="L15">
-        <v>1.2236547783335825</v>
+        <v>-0.29643077633582493</v>
       </c>
       <c r="M15">
-        <v>0.16340048002698818</v>
+        <v>-0.29624965533038705</v>
       </c>
       <c r="N15">
-        <v>0.13232915062161757</v>
+        <v>-0.29575017024673506</v>
       </c>
       <c r="O15">
-        <v>-1.722873328313028</v>
+        <v>-0.2952638706730513</v>
       </c>
       <c r="P15">
-        <v>-1.2449405347463408e-5</v>
+        <v>-0.29482387920355996</v>
       </c>
       <c r="Q15">
-        <v>-1.1158790811065308e-5</v>
+        <v>-0.29356105617263445</v>
       </c>
       <c r="R15">
         <v>1.4906064937463726</v>
@@ -8648,55 +8648,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.2082988478251075</v>
+        <v>-0.29388635458866164</v>
       </c>
       <c r="B16">
-        <v>-0.20369516257745482</v>
+        <v>-0.29388532474603307</v>
       </c>
       <c r="C16">
-        <v>-0.1990363164506904</v>
+        <v>-0.29387491210025374</v>
       </c>
       <c r="D16">
-        <v>-0.19715527850849834</v>
+        <v>-0.2937579533026331</v>
       </c>
       <c r="E16">
-        <v>-0.19406452840227295</v>
+        <v>-0.305592715696682</v>
       </c>
       <c r="F16">
-        <v>-0.19079363474675218</v>
+        <v>-0.2943570134727157</v>
       </c>
       <c r="G16">
-        <v>-0.18980823640378422</v>
+        <v>-0.2946998497736431</v>
       </c>
       <c r="H16">
-        <v>-0.18919087271454557</v>
+        <v>-0.2941836109788745</v>
       </c>
       <c r="I16">
-        <v>-0.18781424988676493</v>
+        <v>-0.29184893286760577</v>
       </c>
       <c r="J16">
-        <v>-0.18226403082075276</v>
+        <v>-0.2890176135967613</v>
       </c>
       <c r="K16">
-        <v>-0.27151909751513464</v>
+        <v>-0.28832863697717187</v>
       </c>
       <c r="L16">
-        <v>0.8426719774995384</v>
+        <v>-0.2881064089494845</v>
       </c>
       <c r="M16">
-        <v>-0.07401414992397479</v>
+        <v>-0.28763993857036385</v>
       </c>
       <c r="N16">
-        <v>0.0006835801483158189</v>
+        <v>-0.28669828611310555</v>
       </c>
       <c r="O16">
-        <v>-0.00033515598915952253</v>
+        <v>-0.2856296392894549</v>
       </c>
       <c r="P16">
-        <v>-0.00023675446396883505</v>
+        <v>-0.28429314370685144</v>
       </c>
       <c r="Q16">
-        <v>-3.7655313296561645e-5</v>
+        <v>-0.28284606950828944</v>
       </c>
       <c r="R16">
         <v>2.6106957339943473E-2</v>
@@ -8704,55 +8704,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.20432497795080345</v>
+        <v>-0.26005190410193446</v>
       </c>
       <c r="B17">
-        <v>-0.19988045834466886</v>
+        <v>-0.2598093648334423</v>
       </c>
       <c r="C17">
-        <v>-0.19506593855659024</v>
+        <v>-0.25707302151670114</v>
       </c>
       <c r="D17">
-        <v>-0.1927815397296026</v>
+        <v>-0.44151313981846346</v>
       </c>
       <c r="E17">
-        <v>-0.19347668669999027</v>
+        <v>-0.28547590742854945</v>
       </c>
       <c r="F17">
-        <v>-0.18718280756837227</v>
+        <v>-0.28097900083560207</v>
       </c>
       <c r="G17">
-        <v>-0.19314218241093084</v>
+        <v>-0.2832856176721334</v>
       </c>
       <c r="H17">
-        <v>-0.18802165458464756</v>
+        <v>-0.2822657191821516</v>
       </c>
       <c r="I17">
-        <v>-0.18412617212937107</v>
+        <v>-0.27677629774704193</v>
       </c>
       <c r="J17">
-        <v>-0.19439800975294097</v>
+        <v>-0.2645592497809314</v>
       </c>
       <c r="K17">
-        <v>-0.2501896461851547</v>
+        <v>-0.2599994143638766</v>
       </c>
       <c r="L17">
-        <v>-1.0550338908341437</v>
+        <v>-0.2591855287407905</v>
       </c>
       <c r="M17">
-        <v>0.02190086633025661</v>
+        <v>-0.2583848278801024</v>
       </c>
       <c r="N17">
-        <v>-0.0032487541044653166</v>
+        <v>-0.25656158311255145</v>
       </c>
       <c r="O17">
-        <v>-0.0018341702994997444</v>
+        <v>-0.2541024278562265</v>
       </c>
       <c r="P17">
-        <v>1.3834221317564671e-5</v>
+        <v>-0.25207394039442926</v>
       </c>
       <c r="Q17">
-        <v>-2.288809604963076e-5</v>
+        <v>-0.25054517067201765</v>
       </c>
       <c r="R17">
         <v>-3.8458809600156593E-3</v>
@@ -8833,55 +8833,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.30071563938743656</v>
+        <v>-0.30666985374218386</v>
       </c>
       <c r="B1">
-        <v>-0.3007061098537556</v>
+        <v>-0.3066698484152148</v>
       </c>
       <c r="C1">
-        <v>-0.3006788883819507</v>
+        <v>-0.30666979519663046</v>
       </c>
       <c r="D1">
-        <v>-0.30065844511586004</v>
+        <v>-0.30666926387959564</v>
       </c>
       <c r="E1">
-        <v>-0.30064145048408125</v>
+        <v>-0.3066639882024453</v>
       </c>
       <c r="F1">
-        <v>-0.30061048432007076</v>
+        <v>-0.30682075061668496</v>
       </c>
       <c r="G1">
-        <v>-0.30054741806198504</v>
+        <v>-0.3067013332132967</v>
       </c>
       <c r="H1">
-        <v>-0.30032139698141797</v>
+        <v>-0.3066794824030638</v>
       </c>
       <c r="I1">
-        <v>-0.29878386164311316</v>
+        <v>-0.3066749560656962</v>
       </c>
       <c r="J1">
-        <v>-0.28860262569361056</v>
+        <v>-0.3066702436785835</v>
       </c>
       <c r="K1">
-        <v>-0.23270605839296044</v>
+        <v>-0.30663950118299754</v>
       </c>
       <c r="L1">
-        <v>0.07766549603278523</v>
+        <v>-0.3065702297473958</v>
       </c>
       <c r="M1">
-        <v>0.0675663148760767</v>
+        <v>-0.30651978434592597</v>
       </c>
       <c r="N1">
-        <v>-0.01062067856159489</v>
+        <v>-0.3063599823793301</v>
       </c>
       <c r="O1">
-        <v>-0.0010447610055446927</v>
+        <v>-0.3137307416043981</v>
       </c>
       <c r="P1">
-        <v>-0.0012461409915359358</v>
+        <v>-0.30740922682994604</v>
       </c>
       <c r="Q1">
-        <v>-0.00012299456607090523</v>
+        <v>-0.3072020296406101</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -8889,55 +8889,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.3004004361154563</v>
+        <v>-0.30666942933590935</v>
       </c>
       <c r="B2">
-        <v>-0.3003907943705752</v>
+        <v>-0.3066694240129625</v>
       </c>
       <c r="C2">
-        <v>-0.30036351290619107</v>
+        <v>-0.3066693707917894</v>
       </c>
       <c r="D2">
-        <v>-0.30034296434026375</v>
+        <v>-0.30666883951289925</v>
       </c>
       <c r="E2">
-        <v>-0.30032603510102945</v>
+        <v>-0.3066635641723213</v>
       </c>
       <c r="F2">
-        <v>-0.30029571596148197</v>
+        <v>-0.30682031715764174</v>
       </c>
       <c r="G2">
-        <v>-0.3002454363494869</v>
+        <v>-0.30670090730829225</v>
       </c>
       <c r="H2">
-        <v>-0.30002839667556724</v>
+        <v>-0.3066790577753123</v>
       </c>
       <c r="I2">
-        <v>-0.2999049302905593</v>
+        <v>-0.3066745319438344</v>
       </c>
       <c r="J2">
-        <v>-0.29310798347070577</v>
+        <v>-0.3066698199292263</v>
       </c>
       <c r="K2">
-        <v>-0.2030981439202152</v>
+        <v>-0.3066390793530142</v>
       </c>
       <c r="L2">
-        <v>1.8745950771103486</v>
+        <v>-0.306569812964103</v>
       </c>
       <c r="M2">
-        <v>0.05807802646744104</v>
+        <v>-0.30651935209051034</v>
       </c>
       <c r="N2">
-        <v>0.237416548850705</v>
+        <v>-0.30636009541678727</v>
       </c>
       <c r="O2">
-        <v>-0.0004063016832855276</v>
+        <v>-0.31372893932094</v>
       </c>
       <c r="P2">
-        <v>9.185043809852469e-5</v>
+        <v>-0.307394000586989</v>
       </c>
       <c r="Q2">
-        <v>0.0008691398034665951</v>
+        <v>-0.3071228604022719</v>
       </c>
       <c r="R2">
         <v>-0.25969537043731633</v>
@@ -8945,55 +8945,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.30038859950297064</v>
+        <v>-0.3066651888303983</v>
       </c>
       <c r="B3">
-        <v>-0.30037798171318475</v>
+        <v>-0.30666518351259364</v>
       </c>
       <c r="C3">
-        <v>-0.30034856763733375</v>
+        <v>-0.3066651303284825</v>
       </c>
       <c r="D3">
-        <v>-0.3003269760853377</v>
+        <v>-0.3066645993952267</v>
       </c>
       <c r="E3">
-        <v>-0.30031035728716987</v>
+        <v>-0.30665932742795204</v>
       </c>
       <c r="F3">
-        <v>-0.3002807432596106</v>
+        <v>-0.30681598620177414</v>
       </c>
       <c r="G3">
-        <v>-0.3002197807098455</v>
+        <v>-0.3066966518421136</v>
       </c>
       <c r="H3">
-        <v>-0.29989133632554377</v>
+        <v>-0.30667481505658256</v>
       </c>
       <c r="I3">
-        <v>-0.29888967315807413</v>
+        <v>-0.3066702942367457</v>
       </c>
       <c r="J3">
-        <v>-0.2847343836990064</v>
+        <v>-0.30666558550495965</v>
       </c>
       <c r="K3">
-        <v>-0.2566648718673706</v>
+        <v>-0.3066348621466487</v>
       </c>
       <c r="L3">
-        <v>0.08351889878440089</v>
+        <v>-0.30656563132676806</v>
       </c>
       <c r="M3">
-        <v>0.513072215132524</v>
+        <v>-0.30651520907774543</v>
       </c>
       <c r="N3">
-        <v>0.0018155906636088503</v>
+        <v>-0.30635604533996563</v>
       </c>
       <c r="O3">
-        <v>0.0039518842277358164</v>
+        <v>-0.3137106343108838</v>
       </c>
       <c r="P3">
-        <v>-0.004886562771720022</v>
+        <v>-0.30740504176516553</v>
       </c>
       <c r="Q3">
-        <v>-5.940714937195599e-5</v>
+        <v>-0.3071547466556503</v>
       </c>
       <c r="R3">
         <v>-0.27938070835965656</v>
@@ -9001,55 +9001,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.30037501176738146</v>
+        <v>-0.3066231352706543</v>
       </c>
       <c r="B4">
-        <v>-0.30036412951372843</v>
+        <v>-0.30662312998461216</v>
       </c>
       <c r="C4">
-        <v>-0.30032757141904526</v>
+        <v>-0.306623077139012</v>
       </c>
       <c r="D4">
-        <v>-0.30029543450412155</v>
+        <v>-0.3066225496428917</v>
       </c>
       <c r="E4">
-        <v>-0.30027801245280816</v>
+        <v>-0.3066173111229598</v>
       </c>
       <c r="F4">
-        <v>-0.30025147297522425</v>
+        <v>-0.30677303577406434</v>
       </c>
       <c r="G4">
-        <v>-0.30019707378616145</v>
+        <v>-0.30665444988659707</v>
       </c>
       <c r="H4">
-        <v>-0.2998209309835323</v>
+        <v>-0.3066327393748637</v>
       </c>
       <c r="I4">
-        <v>-0.29988974666505613</v>
+        <v>-0.30662826809435184</v>
       </c>
       <c r="J4">
-        <v>-0.2931801009081289</v>
+        <v>-0.3066235922566117</v>
       </c>
       <c r="K4">
-        <v>-0.27321717234113324</v>
+        <v>-0.30659304133943893</v>
       </c>
       <c r="L4">
-        <v>0.1632985633231627</v>
+        <v>-0.30652418738630566</v>
       </c>
       <c r="M4">
-        <v>0.009315416670618547</v>
+        <v>-0.30647402904117893</v>
       </c>
       <c r="N4">
-        <v>0.006691636360344868</v>
+        <v>-0.30631572308770133</v>
       </c>
       <c r="O4">
-        <v>0.003178486800115882</v>
+        <v>-0.31352677593502076</v>
       </c>
       <c r="P4">
-        <v>0.0006624960426494144</v>
+        <v>-0.30735927581513683</v>
       </c>
       <c r="Q4">
-        <v>5.3830766433605795e-5</v>
+        <v>-0.30704277165062654</v>
       </c>
       <c r="R4">
         <v>-0.26226974913252304</v>
@@ -9057,55 +9057,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.3003073181575977</v>
+        <v>-0.3062349417847665</v>
       </c>
       <c r="B5">
-        <v>-0.3002967062664747</v>
+        <v>-0.30623493681614106</v>
       </c>
       <c r="C5">
-        <v>-0.30026180706883415</v>
+        <v>-0.306234887130014</v>
       </c>
       <c r="D5">
-        <v>-0.30020762448169447</v>
+        <v>-0.3062343910178985</v>
       </c>
       <c r="E5">
-        <v>-0.30017312162873355</v>
+        <v>-0.3062294586821432</v>
       </c>
       <c r="F5">
-        <v>-0.3001460096566086</v>
+        <v>-0.30637657930314455</v>
       </c>
       <c r="G5">
-        <v>-0.30010093727402243</v>
+        <v>-0.3062648877572587</v>
       </c>
       <c r="H5">
-        <v>-0.29965362339267515</v>
+        <v>-0.30624432903287174</v>
       </c>
       <c r="I5">
-        <v>-0.2989752792174222</v>
+        <v>-0.30624029901084476</v>
       </c>
       <c r="J5">
-        <v>-0.29516565221871277</v>
+        <v>-0.30623591576447495</v>
       </c>
       <c r="K5">
-        <v>-0.2572401366984579</v>
+        <v>-0.3062069138927295</v>
       </c>
       <c r="L5">
-        <v>0.22302853894966057</v>
+        <v>-0.30614145651893315</v>
       </c>
       <c r="M5">
-        <v>0.02292768676446449</v>
+        <v>-0.3060935483098269</v>
       </c>
       <c r="N5">
-        <v>0.002809265175423411</v>
+        <v>-0.3059430213313984</v>
       </c>
       <c r="O5">
-        <v>-0.03810167563282176</v>
+        <v>-0.3119367631084303</v>
       </c>
       <c r="P5">
-        <v>8.387919693120362e-5</v>
+        <v>-0.30688511144719605</v>
       </c>
       <c r="Q5">
-        <v>0.0006278144545259379</v>
+        <v>-0.30647643552859516</v>
       </c>
       <c r="R5">
         <v>-0.25906923178580488</v>
@@ -9113,55 +9113,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.3000617716366197</v>
+        <v>-0.30409116402821007</v>
       </c>
       <c r="B6">
-        <v>-0.3000420147187692</v>
+        <v>-0.3040911607018062</v>
       </c>
       <c r="C6">
-        <v>-0.30001531544807303</v>
+        <v>-0.3040911274172601</v>
       </c>
       <c r="D6">
-        <v>-0.2999715318721992</v>
+        <v>-0.3040907948607308</v>
       </c>
       <c r="E6">
-        <v>-0.29988630732469607</v>
+        <v>-0.3040874727239982</v>
       </c>
       <c r="F6">
-        <v>-0.2998281878662026</v>
+        <v>-0.3041876696464373</v>
       </c>
       <c r="G6">
-        <v>-0.29976807340640393</v>
+        <v>-0.30411358676638567</v>
       </c>
       <c r="H6">
-        <v>-0.29943526853197294</v>
+        <v>-0.30409894709670976</v>
       </c>
       <c r="I6">
-        <v>-0.29877551430561705</v>
+        <v>-0.3040968371008963</v>
       </c>
       <c r="J6">
-        <v>-0.2985524756539998</v>
+        <v>-0.3040937224693504</v>
       </c>
       <c r="K6">
-        <v>-0.21999447542140932</v>
+        <v>-0.30407198103175515</v>
       </c>
       <c r="L6">
-        <v>0.2266335614658705</v>
+        <v>-0.3040233677087374</v>
       </c>
       <c r="M6">
-        <v>0.002705292421091969</v>
+        <v>-0.30398700287063557</v>
       </c>
       <c r="N6">
-        <v>0.006665671464495212</v>
+        <v>-0.30387810839016866</v>
       </c>
       <c r="O6">
-        <v>0.0005181785917807247</v>
+        <v>-0.3058020117279138</v>
       </c>
       <c r="P6">
-        <v>1.4827863690440492e-5</v>
+        <v>-0.3044936306919862</v>
       </c>
       <c r="Q6">
-        <v>0.00020088219763056932</v>
+        <v>-0.3044006442364382</v>
       </c>
       <c r="R6">
         <v>-0.26251763489129681</v>
@@ -9169,55 +9169,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.2994094592302357</v>
+        <v>-0.30135696307653426</v>
       </c>
       <c r="B7">
-        <v>-0.29931943473178196</v>
+        <v>-0.3013569616199677</v>
       </c>
       <c r="C7">
-        <v>-0.29928391018548484</v>
+        <v>-0.3013569469986057</v>
       </c>
       <c r="D7">
-        <v>-0.29924486825492413</v>
+        <v>-0.3013568010715978</v>
       </c>
       <c r="E7">
-        <v>-0.29916050777461134</v>
+        <v>-0.3013553535213081</v>
       </c>
       <c r="F7">
-        <v>-0.298982035912799</v>
+        <v>-0.30139763780229756</v>
       </c>
       <c r="G7">
-        <v>-0.2988399259417398</v>
+        <v>-0.30136999072983045</v>
       </c>
       <c r="H7">
-        <v>-0.298636268508009</v>
+        <v>-0.3013619298392223</v>
       </c>
       <c r="I7">
-        <v>-0.29791655596798833</v>
+        <v>-0.30136114989908547</v>
       </c>
       <c r="J7">
-        <v>-0.29486155756224075</v>
+        <v>-0.3013588818533213</v>
       </c>
       <c r="K7">
-        <v>-0.24620684413525185</v>
+        <v>-0.3013435457002082</v>
       </c>
       <c r="L7">
-        <v>0.09900812753657828</v>
+        <v>-0.3013120761393248</v>
       </c>
       <c r="M7">
-        <v>-0.12227373785112815</v>
+        <v>-0.3012875151248071</v>
       </c>
       <c r="N7">
-        <v>0.12484313654677782</v>
+        <v>-0.30119781428061143</v>
       </c>
       <c r="O7">
-        <v>0.00045565963823084726</v>
+        <v>-0.3013858606284822</v>
       </c>
       <c r="P7">
-        <v>-0.00016480263694661933</v>
+        <v>-0.3013703205059063</v>
       </c>
       <c r="Q7">
-        <v>-0.0002225538513217977</v>
+        <v>-0.30131069204574173</v>
       </c>
       <c r="R7">
         <v>-0.26032173689759852</v>
@@ -9225,55 +9225,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.297443573052382</v>
+        <v>-0.3004799457666643</v>
       </c>
       <c r="B8">
-        <v>-0.29703962092555514</v>
+        <v>-0.30047994530442546</v>
       </c>
       <c r="C8">
-        <v>-0.29695568699996205</v>
+        <v>-0.3004799406464181</v>
       </c>
       <c r="D8">
-        <v>-0.29687578550550375</v>
+        <v>-0.30047989420171983</v>
       </c>
       <c r="E8">
-        <v>-0.2966858709722853</v>
+        <v>-0.3004794357494015</v>
       </c>
       <c r="F8">
-        <v>-0.2964210978856818</v>
+        <v>-0.300487511738106</v>
       </c>
       <c r="G8">
-        <v>-0.2960929493796949</v>
+        <v>-0.3004885458141977</v>
       </c>
       <c r="H8">
-        <v>-0.2955495772665517</v>
+        <v>-0.30048338047478845</v>
       </c>
       <c r="I8">
-        <v>-0.29480626351864414</v>
+        <v>-0.3004824637844675</v>
       </c>
       <c r="J8">
-        <v>-0.2904097033268412</v>
+        <v>-0.30047990176088646</v>
       </c>
       <c r="K8">
-        <v>-0.25399355071162955</v>
+        <v>-0.3004647828745449</v>
       </c>
       <c r="L8">
-        <v>0.08363112589135564</v>
+        <v>-0.30043927479026106</v>
       </c>
       <c r="M8">
-        <v>0.02758477526397214</v>
+        <v>-0.30042278933619154</v>
       </c>
       <c r="N8">
-        <v>0.0034515116414594984</v>
+        <v>-0.3004008192450112</v>
       </c>
       <c r="O8">
-        <v>-0.00028925504447662636</v>
+        <v>-0.30036408105740087</v>
       </c>
       <c r="P8">
-        <v>-0.0077684266256861706</v>
+        <v>-0.3003160338417701</v>
       </c>
       <c r="Q8">
-        <v>0.0012242929709641458</v>
+        <v>-0.3000458173462207</v>
       </c>
       <c r="R8">
         <v>-0.25602704031235368</v>
@@ -9281,55 +9281,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.28876411633817</v>
+        <v>-0.3002170235503557</v>
       </c>
       <c r="B9">
-        <v>-0.2854244348691168</v>
+        <v>-0.3002170237695576</v>
       </c>
       <c r="C9">
-        <v>-0.284800611241982</v>
+        <v>-0.30021702597226557</v>
       </c>
       <c r="D9">
-        <v>-0.28458072037492527</v>
+        <v>-0.30021704811451116</v>
       </c>
       <c r="E9">
-        <v>-0.28417604352275466</v>
+        <v>-0.3002172797614283</v>
       </c>
       <c r="F9">
-        <v>-0.28343273032458266</v>
+        <v>-0.3001799709857752</v>
       </c>
       <c r="G9">
-        <v>-0.28263444717901737</v>
+        <v>-0.3002244777919626</v>
       </c>
       <c r="H9">
-        <v>-0.28186313121953904</v>
+        <v>-0.3002203840632157</v>
       </c>
       <c r="I9">
-        <v>-0.2804175818567526</v>
+        <v>-0.3002196761299408</v>
       </c>
       <c r="J9">
-        <v>-0.2655348996460845</v>
+        <v>-0.3002169414318452</v>
       </c>
       <c r="K9">
-        <v>-0.23147105040025753</v>
+        <v>-0.30020062123306857</v>
       </c>
       <c r="L9">
-        <v>0.10194969643085948</v>
+        <v>-0.30017303884380786</v>
       </c>
       <c r="M9">
-        <v>-0.044382804610643714</v>
+        <v>-0.3001523177913677</v>
       </c>
       <c r="N9">
-        <v>0.000609037782388134</v>
+        <v>-0.30012041562224956</v>
       </c>
       <c r="O9">
-        <v>-0.0006845592911275688</v>
+        <v>-0.30003795342683864</v>
       </c>
       <c r="P9">
-        <v>0.00011051779362762008</v>
+        <v>-0.29982010381983415</v>
       </c>
       <c r="Q9">
-        <v>-3.957137677448618e-5</v>
+        <v>-0.29980539193976863</v>
       </c>
       <c r="R9">
         <v>-0.28633019204128307</v>
@@ -9337,55 +9337,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.26930852614562184</v>
+        <v>-0.3004578887789217</v>
       </c>
       <c r="B10">
-        <v>-0.25442886221584254</v>
+        <v>-0.3004578885922041</v>
       </c>
       <c r="C10">
-        <v>-0.2501295680908934</v>
+        <v>-0.30045788673111146</v>
       </c>
       <c r="D10">
-        <v>-0.2488562750905159</v>
+        <v>-0.3004578685544515</v>
       </c>
       <c r="E10">
-        <v>-0.24748915669712485</v>
+        <v>-0.30045772886453753</v>
       </c>
       <c r="F10">
-        <v>-0.2462022760429331</v>
+        <v>-0.30044188613013934</v>
       </c>
       <c r="G10">
-        <v>-0.24524102378856633</v>
+        <v>-0.300456349403814</v>
       </c>
       <c r="H10">
-        <v>-0.24373537221528557</v>
+        <v>-0.3004544666186127</v>
       </c>
       <c r="I10">
-        <v>-0.24241422423670284</v>
+        <v>-0.3004536756662482</v>
       </c>
       <c r="J10">
-        <v>-0.2366290818988232</v>
+        <v>-0.30045086349768124</v>
       </c>
       <c r="K10">
-        <v>-0.19926656842511054</v>
+        <v>-0.3004343549223591</v>
       </c>
       <c r="L10">
-        <v>0.11643112449305164</v>
+        <v>-0.3004071662206653</v>
       </c>
       <c r="M10">
-        <v>0.149159014235355</v>
+        <v>-0.30038972248668655</v>
       </c>
       <c r="N10">
-        <v>0.002127314200503768</v>
+        <v>-0.30036918796937356</v>
       </c>
       <c r="O10">
-        <v>-0.0002946552130992537</v>
+        <v>-0.30032982761938626</v>
       </c>
       <c r="P10">
-        <v>9.278478685313655e-5</v>
+        <v>-0.3002577884891136</v>
       </c>
       <c r="Q10">
-        <v>-5.8490252831134376e-5</v>
+        <v>-0.2999185147949877</v>
       </c>
       <c r="R10">
         <v>-0.30677421359147128</v>
@@ -9393,55 +9393,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.24350322774122246</v>
+        <v>-0.30039803471143484</v>
       </c>
       <c r="B11">
-        <v>-0.23111391596885822</v>
+        <v>-0.30039803455504027</v>
       </c>
       <c r="C11">
-        <v>-0.2243881252345723</v>
+        <v>-0.30039803300295764</v>
       </c>
       <c r="D11">
-        <v>-0.2218783437127785</v>
+        <v>-0.30039801789339093</v>
       </c>
       <c r="E11">
-        <v>-0.21909271123008134</v>
+        <v>-0.3003979130053115</v>
       </c>
       <c r="F11">
-        <v>-0.2167378475605666</v>
+        <v>-0.30038602344720006</v>
       </c>
       <c r="G11">
-        <v>-0.21598544264303732</v>
+        <v>-0.3003979441950182</v>
       </c>
       <c r="H11">
-        <v>-0.21544249265061585</v>
+        <v>-0.3003956621617128</v>
       </c>
       <c r="I11">
-        <v>-0.2146115345645604</v>
+        <v>-0.3003948274609761</v>
       </c>
       <c r="J11">
-        <v>-0.2145484728708512</v>
+        <v>-0.3003917839456697</v>
       </c>
       <c r="K11">
-        <v>-0.18630420471682166</v>
+        <v>-0.3003748590544196</v>
       </c>
       <c r="L11">
-        <v>0.15055886667685617</v>
+        <v>-0.30034721557134353</v>
       </c>
       <c r="M11">
-        <v>0.02714228965159364</v>
+        <v>-0.30032961838508354</v>
       </c>
       <c r="N11">
-        <v>0.001201608088174026</v>
+        <v>-0.300309281134649</v>
       </c>
       <c r="O11">
-        <v>-0.0008743212562698058</v>
+        <v>-0.3002662727651947</v>
       </c>
       <c r="P11">
-        <v>0.00022411638397368757</v>
+        <v>-0.3001933168464913</v>
       </c>
       <c r="Q11">
-        <v>5.326114847905271e-5</v>
+        <v>-0.30020191999732104</v>
       </c>
       <c r="R11">
         <v>-0.27806983285252107</v>
@@ -9449,55 +9449,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.22478783319877077</v>
+        <v>-0.30039130382639134</v>
       </c>
       <c r="B12">
-        <v>-0.2192507895195189</v>
+        <v>-0.30039130377009005</v>
       </c>
       <c r="C12">
-        <v>-0.21413452818395728</v>
+        <v>-0.30039130321417584</v>
       </c>
       <c r="D12">
-        <v>-0.21154956020112067</v>
+        <v>-0.3003912987391798</v>
       </c>
       <c r="E12">
-        <v>-0.2081461459584097</v>
+        <v>-0.3003913940400823</v>
       </c>
       <c r="F12">
-        <v>-0.2048184450899132</v>
+        <v>-0.3003841210010807</v>
       </c>
       <c r="G12">
-        <v>-0.20381669272368164</v>
+        <v>-0.3003905272851427</v>
       </c>
       <c r="H12">
-        <v>-0.20351751379033992</v>
+        <v>-0.3003880111618501</v>
       </c>
       <c r="I12">
-        <v>-0.20245616609267136</v>
+        <v>-0.3003871088317722</v>
       </c>
       <c r="J12">
-        <v>-0.19750266287080973</v>
+        <v>-0.3003839086558259</v>
       </c>
       <c r="K12">
-        <v>-0.18243958019190232</v>
+        <v>-0.30036481834958784</v>
       </c>
       <c r="L12">
-        <v>0.23116856049913295</v>
+        <v>-0.30033257313099243</v>
       </c>
       <c r="M12">
-        <v>-0.085558938218278</v>
+        <v>-0.300313754094054</v>
       </c>
       <c r="N12">
-        <v>-0.0011805430837312988</v>
+        <v>-0.3002944231221435</v>
       </c>
       <c r="O12">
-        <v>-0.0007878877025796193</v>
+        <v>-0.3002540926722024</v>
       </c>
       <c r="P12">
-        <v>-2.213730567997087e-5</v>
+        <v>-0.3001841385706202</v>
       </c>
       <c r="Q12">
-        <v>-7.517256565181729e-5</v>
+        <v>-0.2998391128677822</v>
       </c>
       <c r="R12">
         <v>-0.31740134081746257</v>
@@ -9505,55 +9505,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.22028471426859556</v>
+        <v>-0.3003751808729055</v>
       </c>
       <c r="B13">
-        <v>-0.2162070019567586</v>
+        <v>-0.30037518004403807</v>
       </c>
       <c r="C13">
-        <v>-0.21180673352923204</v>
+        <v>-0.300375171739489</v>
       </c>
       <c r="D13">
-        <v>-0.209391028317638</v>
+        <v>-0.300375087207799</v>
       </c>
       <c r="E13">
-        <v>-0.20600124570168338</v>
+        <v>-0.30037388008090726</v>
       </c>
       <c r="F13">
-        <v>-0.20242005280991396</v>
+        <v>-0.3003797255500025</v>
       </c>
       <c r="G13">
-        <v>-0.2013430201141878</v>
+        <v>-0.30037236715059606</v>
       </c>
       <c r="H13">
-        <v>-0.20100791524835615</v>
+        <v>-0.3003657718492371</v>
       </c>
       <c r="I13">
-        <v>-0.2004847943677707</v>
+        <v>-0.3003625001050273</v>
       </c>
       <c r="J13">
-        <v>-0.19715465275233535</v>
+        <v>-0.30035906214117586</v>
       </c>
       <c r="K13">
-        <v>-0.18248559372469414</v>
+        <v>-0.3003399072713004</v>
       </c>
       <c r="L13">
-        <v>0.15130490325691767</v>
+        <v>-0.3002958667990711</v>
       </c>
       <c r="M13">
-        <v>0.008307480738867416</v>
+        <v>-0.3002637897832475</v>
       </c>
       <c r="N13">
-        <v>0.0016332798474174763</v>
+        <v>-0.3002441996015914</v>
       </c>
       <c r="O13">
-        <v>-0.0007845150571957742</v>
+        <v>-0.300210653711428</v>
       </c>
       <c r="P13">
-        <v>-3.2844994144440136e-5</v>
+        <v>-0.3001556472265738</v>
       </c>
       <c r="Q13">
-        <v>1.7464118508040406e-6</v>
+        <v>-0.3000444769174562</v>
       </c>
       <c r="R13">
         <v>6.845458407934997E-2</v>
@@ -9561,55 +9561,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.21968349869858084</v>
+        <v>-0.3003135549576597</v>
       </c>
       <c r="B14">
-        <v>-0.2157938893946239</v>
+        <v>-0.30031354736670274</v>
       </c>
       <c r="C14">
-        <v>-0.21149094808975913</v>
+        <v>-0.3003134709529151</v>
       </c>
       <c r="D14">
-        <v>-0.20910346409521594</v>
+        <v>-0.300312651819898</v>
       </c>
       <c r="E14">
-        <v>-0.20572333076647542</v>
+        <v>-0.3002834073824943</v>
       </c>
       <c r="F14">
-        <v>-0.20209774834996594</v>
+        <v>-0.300328018852634</v>
       </c>
       <c r="G14">
-        <v>-0.20101238583337522</v>
+        <v>-0.300311220335562</v>
       </c>
       <c r="H14">
-        <v>-0.20069060342232714</v>
+        <v>-0.30028645985359986</v>
       </c>
       <c r="I14">
-        <v>-0.2003055117611189</v>
+        <v>-0.3002563104072364</v>
       </c>
       <c r="J14">
-        <v>-0.19565117099115484</v>
+        <v>-0.30024537562142317</v>
       </c>
       <c r="K14">
-        <v>-0.18347726627165148</v>
+        <v>-0.30022778714330123</v>
       </c>
       <c r="L14">
-        <v>0.14887005316934762</v>
+        <v>-0.30018768279308466</v>
       </c>
       <c r="M14">
-        <v>-0.02755436347797571</v>
+        <v>-0.30012581847156705</v>
       </c>
       <c r="N14">
-        <v>0.0006062893199316694</v>
+        <v>-0.30008606656139286</v>
       </c>
       <c r="O14">
-        <v>0.0021119382779755083</v>
+        <v>-0.3000475510181417</v>
       </c>
       <c r="P14">
-        <v>0.00014852791170088817</v>
+        <v>-0.30001286391048904</v>
       </c>
       <c r="Q14">
-        <v>-3.237460743892569e-5</v>
+        <v>-0.2997760667179867</v>
       </c>
       <c r="R14">
         <v>-6.1996306797285974E-3</v>
@@ -9617,55 +9617,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.21963491287721346</v>
+        <v>-0.30014989562653227</v>
       </c>
       <c r="B15">
-        <v>-0.21577817802649707</v>
+        <v>-0.3001498675868932</v>
       </c>
       <c r="C15">
-        <v>-0.2114804321516808</v>
+        <v>-0.3001495846904691</v>
       </c>
       <c r="D15">
-        <v>-0.209086398661257</v>
+        <v>-0.30014647958356927</v>
       </c>
       <c r="E15">
-        <v>-0.20570075770465707</v>
+        <v>-0.2997723392316436</v>
       </c>
       <c r="F15">
-        <v>-0.20201527551110948</v>
+        <v>-0.30018589421654024</v>
       </c>
       <c r="G15">
-        <v>-0.20089190320689293</v>
+        <v>-0.3001581002597438</v>
       </c>
       <c r="H15">
-        <v>-0.2006472240575086</v>
+        <v>-0.3001006348591489</v>
       </c>
       <c r="I15">
-        <v>-0.19998985267731</v>
+        <v>-0.2999515435679116</v>
       </c>
       <c r="J15">
-        <v>-0.19906435753298232</v>
+        <v>-0.29986836256814314</v>
       </c>
       <c r="K15">
-        <v>-0.20778482916677057</v>
+        <v>-0.2998425661258862</v>
       </c>
       <c r="L15">
-        <v>0.11431919594529391</v>
+        <v>-0.29981603280888103</v>
       </c>
       <c r="M15">
-        <v>0.025874332295158665</v>
+        <v>-0.29976724919163833</v>
       </c>
       <c r="N15">
-        <v>0.004617629792817977</v>
+        <v>-0.29965672300992824</v>
       </c>
       <c r="O15">
-        <v>-0.00041120059023591675</v>
+        <v>-0.2995757523251916</v>
       </c>
       <c r="P15">
-        <v>-2.6308659278207784e-5</v>
+        <v>-0.29951901244237494</v>
       </c>
       <c r="Q15">
-        <v>-2.628140521608882e-5</v>
+        <v>-0.29944394956627357</v>
       </c>
       <c r="R15">
         <v>-1.737990913640421E-2</v>
@@ -9673,55 +9673,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.21934463207541322</v>
+        <v>-0.29965392204071006</v>
       </c>
       <c r="B16">
-        <v>-0.21545178172943613</v>
+        <v>-0.29965383442501414</v>
       </c>
       <c r="C16">
-        <v>-0.2111465999077312</v>
+        <v>-0.29965294829428807</v>
       </c>
       <c r="D16">
-        <v>-0.20879362219833636</v>
+        <v>-0.2996429737075578</v>
       </c>
       <c r="E16">
-        <v>-0.2054550200281133</v>
+        <v>-0.30031825887744373</v>
       </c>
       <c r="F16">
-        <v>-0.20210993579928088</v>
+        <v>-0.29973153896579957</v>
       </c>
       <c r="G16">
-        <v>-0.20066618563581243</v>
+        <v>-0.29969922165209045</v>
       </c>
       <c r="H16">
-        <v>-0.2000555304903698</v>
+        <v>-0.2996069574497233</v>
       </c>
       <c r="I16">
-        <v>-0.20012783272948784</v>
+        <v>-0.29924292247721374</v>
       </c>
       <c r="J16">
-        <v>-0.19734278006150743</v>
+        <v>-0.2988901798062869</v>
       </c>
       <c r="K16">
-        <v>-0.19745379425388507</v>
+        <v>-0.29880613018897517</v>
       </c>
       <c r="L16">
-        <v>0.13059993017453417</v>
+        <v>-0.29876283941756737</v>
       </c>
       <c r="M16">
-        <v>0.017675043387235637</v>
+        <v>-0.2986938417990511</v>
       </c>
       <c r="N16">
-        <v>0.0028664388212821354</v>
+        <v>-0.29856183734881436</v>
       </c>
       <c r="O16">
-        <v>-0.0001865979510187541</v>
+        <v>-0.29833474896425327</v>
       </c>
       <c r="P16">
-        <v>-5.315179531042916e-5</v>
+        <v>-0.2981184020288864</v>
       </c>
       <c r="Q16">
-        <v>9.104599265698994e-5</v>
+        <v>-0.2978845497412355</v>
       </c>
       <c r="R16">
         <v>1.8327483881446033E-2</v>
@@ -9729,55 +9729,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.227155985828808</v>
+        <v>-0.2974501709989398</v>
       </c>
       <c r="B17">
-        <v>-0.22275567716327782</v>
+        <v>-0.2974493775336351</v>
       </c>
       <c r="C17">
-        <v>-0.21660424348775048</v>
+        <v>-0.29744127953453375</v>
       </c>
       <c r="D17">
-        <v>-0.21233132974451413</v>
+        <v>-0.29733978036777864</v>
       </c>
       <c r="E17">
-        <v>-0.20864017343936186</v>
+        <v>-0.29827590788790803</v>
       </c>
       <c r="F17">
-        <v>-0.20045818128263965</v>
+        <v>-0.2978460007512076</v>
       </c>
       <c r="G17">
-        <v>-0.19736047431978437</v>
+        <v>-0.29782187840685204</v>
       </c>
       <c r="H17">
-        <v>-0.20098647345974874</v>
+        <v>-0.2976286141480891</v>
       </c>
       <c r="I17">
-        <v>-0.20064666418881805</v>
+        <v>-0.2966776295626121</v>
       </c>
       <c r="J17">
-        <v>-0.19537128907500687</v>
+        <v>-0.29512266062432035</v>
       </c>
       <c r="K17">
-        <v>-0.1873531318223627</v>
+        <v>-0.2946679824741668</v>
       </c>
       <c r="L17">
-        <v>0.14010067757103528</v>
+        <v>-0.2945698380554349</v>
       </c>
       <c r="M17">
-        <v>-0.059836309042761285</v>
+        <v>-0.294433743112576</v>
       </c>
       <c r="N17">
-        <v>0.01003396974164953</v>
+        <v>-0.29409908111605987</v>
       </c>
       <c r="O17">
-        <v>-0.0018909937305098216</v>
+        <v>-0.29370943108167424</v>
       </c>
       <c r="P17">
-        <v>-5.909618211038234e-6</v>
+        <v>-0.2933363583103158</v>
       </c>
       <c r="Q17">
-        <v>-5.62324419167653e-5</v>
+        <v>-0.29283016611279844</v>
       </c>
       <c r="R17">
         <v>0.17841471997455144</v>
@@ -9857,952 +9857,952 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>16</v>
+      <c r="A1">
+        <v>-0.2977276274123261</v>
+      </c>
+      <c r="B1">
+        <v>-0.2977273774375883</v>
+      </c>
+      <c r="C1">
+        <v>-0.2977249284219661</v>
+      </c>
+      <c r="D1">
+        <v>-0.29770451228429934</v>
+      </c>
+      <c r="E1">
+        <v>-0.2976169897011833</v>
+      </c>
+      <c r="F1">
+        <v>-0.29585880950306154</v>
+      </c>
+      <c r="G1">
+        <v>-0.2986756889923317</v>
+      </c>
+      <c r="H1">
+        <v>-0.29843376668755733</v>
+      </c>
+      <c r="I1">
+        <v>-0.29832572817295866</v>
+      </c>
+      <c r="J1">
+        <v>-0.2982743556963657</v>
+      </c>
+      <c r="K1">
+        <v>-0.29812012023386814</v>
+      </c>
+      <c r="L1">
+        <v>-0.2977904388376746</v>
+      </c>
+      <c r="M1">
+        <v>-0.2969478676169459</v>
+      </c>
+      <c r="N1">
+        <v>-0.2920013114475461</v>
+      </c>
+      <c r="O1">
+        <v>-0.2773349427199903</v>
+      </c>
+      <c r="P1">
+        <v>-0.23371785150483274</v>
+      </c>
+      <c r="Q1">
+        <v>-0.3065548617329269</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s" s="2">
-        <v>1</v>
+      <c r="A2">
+        <v>-0.29772744804302</v>
       </c>
       <c r="B2">
-        <v>-0.40181038137070868</v>
+        <v>-0.2977271981550702</v>
       </c>
       <c r="C2">
-        <v>-0.3970541260148584</v>
+        <v>-0.2977247499281784</v>
       </c>
       <c r="D2">
-        <v>-0.39256743916104414</v>
+        <v>-0.297704339876284</v>
       </c>
       <c r="E2">
-        <v>-0.37808758050903496</v>
+        <v>-0.2976168321497858</v>
       </c>
       <c r="F2">
-        <v>-0.35490398614164825</v>
+        <v>-0.2958586702803581</v>
       </c>
       <c r="G2">
-        <v>-0.34036460370438532</v>
+        <v>-0.2986755369640577</v>
       </c>
       <c r="H2">
-        <v>-0.32668345107739133</v>
+        <v>-0.29843362121614814</v>
       </c>
       <c r="I2">
-        <v>-0.31136858683972801</v>
+        <v>-0.29832558962202355</v>
       </c>
       <c r="J2">
-        <v>-0.29115731122069854</v>
+        <v>-0.29827421938545434</v>
       </c>
       <c r="K2">
-        <v>-0.26189450023557115</v>
+        <v>-0.2981199888029592</v>
       </c>
       <c r="L2">
-        <v>-0.22880699030561433</v>
+        <v>-0.29779032293331115</v>
       </c>
       <c r="M2">
-        <v>-0.21645736413731384</v>
+        <v>-0.2969477873576636</v>
       </c>
       <c r="N2">
-        <v>-0.21727857956756388</v>
+        <v>-0.292000822467644</v>
       </c>
       <c r="O2">
-        <v>-0.21238162146600795</v>
+        <v>-0.2773280088213657</v>
       </c>
       <c r="P2">
-        <v>-6.5736328074872535E-2</v>
+        <v>-0.2335981628054962</v>
       </c>
       <c r="Q2">
-        <v>-0.22664930275403183</v>
+        <v>-0.3065103527533269</v>
       </c>
       <c r="R2">
         <v>-2.3378512348265143E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s" s="2">
-        <v>2</v>
+      <c r="A3">
+        <v>-0.29772565564408704</v>
       </c>
       <c r="B3">
-        <v>-0.40213904396382327</v>
+        <v>-0.2977254065697133</v>
       </c>
       <c r="C3">
-        <v>-0.3977888207164631</v>
+        <v>-0.2977229662681306</v>
       </c>
       <c r="D3">
-        <v>-0.39328157713369299</v>
+        <v>-0.2977026169384851</v>
       </c>
       <c r="E3">
-        <v>-0.37887953616311959</v>
+        <v>-0.29761525751263784</v>
       </c>
       <c r="F3">
-        <v>-0.35626330752357754</v>
+        <v>-0.29585727875384876</v>
       </c>
       <c r="G3">
-        <v>-0.34210026331515148</v>
+        <v>-0.29867401748571387</v>
       </c>
       <c r="H3">
-        <v>-0.32712271114166469</v>
+        <v>-0.29843216729106176</v>
       </c>
       <c r="I3">
-        <v>-0.31014969352784183</v>
+        <v>-0.29832420483186034</v>
       </c>
       <c r="J3">
-        <v>-0.28620774832194118</v>
+        <v>-0.2982728570613624</v>
       </c>
       <c r="K3">
-        <v>-0.24931360362672161</v>
+        <v>-0.2981186771324925</v>
       </c>
       <c r="L3">
-        <v>-0.21461140938034534</v>
+        <v>-0.2977891718690085</v>
       </c>
       <c r="M3">
-        <v>-0.19785493977771382</v>
+        <v>-0.2969469869646568</v>
       </c>
       <c r="N3">
-        <v>-0.19532211459596402</v>
+        <v>-0.29199703654703413</v>
       </c>
       <c r="O3">
-        <v>-0.17802744888816641</v>
+        <v>-0.277259214593502</v>
       </c>
       <c r="P3">
-        <v>-8.9527435212616677E-2</v>
+        <v>-0.23235150207805927</v>
       </c>
       <c r="Q3">
-        <v>-2.0497320464178272E-2</v>
+        <v>-0.30641421871309155</v>
       </c>
       <c r="R3">
         <v>-6.3494936769828342E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s" s="2">
-        <v>3</v>
+      <c r="A4">
+        <v>-0.2977078595767932</v>
       </c>
       <c r="B4">
-        <v>-0.40203490841413236</v>
+        <v>-0.29770761847157207</v>
       </c>
       <c r="C4">
-        <v>-0.39804977475114772</v>
+        <v>-0.297705255549787</v>
       </c>
       <c r="D4">
-        <v>-0.39392018244851712</v>
+        <v>-0.2976855001566984</v>
       </c>
       <c r="E4">
-        <v>-0.37972571882160783</v>
+        <v>-0.29759959805751185</v>
       </c>
       <c r="F4">
-        <v>-0.35795448132412166</v>
+        <v>-0.2958434360572918</v>
       </c>
       <c r="G4">
-        <v>-0.34469573655857916</v>
+        <v>-0.2986589030893699</v>
       </c>
       <c r="H4">
-        <v>-0.32889741434265257</v>
+        <v>-0.2984177035850655</v>
       </c>
       <c r="I4">
-        <v>-0.30917986611172776</v>
+        <v>-0.29831042753340375</v>
       </c>
       <c r="J4">
-        <v>-0.2792904822789809</v>
+        <v>-0.29825930266318684</v>
       </c>
       <c r="K4">
-        <v>-0.22636002800686525</v>
+        <v>-0.2981056252249775</v>
       </c>
       <c r="L4">
-        <v>-0.18898760207802737</v>
+        <v>-0.29777770852613866</v>
       </c>
       <c r="M4">
-        <v>-0.15064914320329234</v>
+        <v>-0.2969389696942608</v>
       </c>
       <c r="N4">
-        <v>-0.13641120310043908</v>
+        <v>-0.291958116582611</v>
       </c>
       <c r="O4">
-        <v>-0.14062294471284359</v>
+        <v>-0.2765299411509201</v>
       </c>
       <c r="P4">
-        <v>-6.3221355479496463E-2</v>
+        <v>-0.2163557333017752</v>
       </c>
       <c r="Q4">
-        <v>-4.9477163531729165E-2</v>
+        <v>-0.30532132080288615</v>
       </c>
       <c r="R4">
         <v>4.7392857074153347E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s" s="2">
-        <v>4</v>
+      <c r="A5">
+        <v>-0.29754165258685095</v>
       </c>
       <c r="B5">
-        <v>-0.4016858975653641</v>
+        <v>-0.2975414751727723</v>
       </c>
       <c r="C5">
-        <v>-0.39715759902577974</v>
+        <v>-0.29753973153877566</v>
       </c>
       <c r="D5">
-        <v>-0.3934500154413017</v>
+        <v>-0.2975247883602146</v>
       </c>
       <c r="E5">
-        <v>-0.38011791406493489</v>
+        <v>-0.297451207701667</v>
       </c>
       <c r="F5">
-        <v>-0.35880387270127073</v>
+        <v>-0.29571186670478217</v>
       </c>
       <c r="G5">
-        <v>-0.34555831825787814</v>
+        <v>-0.29851536549257196</v>
       </c>
       <c r="H5">
-        <v>-0.3298132640864766</v>
+        <v>-0.29828022102760454</v>
       </c>
       <c r="I5">
-        <v>-0.3059803790295062</v>
+        <v>-0.29817934464527235</v>
       </c>
       <c r="J5">
-        <v>-0.26515035282258942</v>
+        <v>-0.29813028840814904</v>
       </c>
       <c r="K5">
-        <v>-0.18145218098254756</v>
+        <v>-0.297981242897391</v>
       </c>
       <c r="L5">
-        <v>-0.15162503145502523</v>
+        <v>-0.29766815184946677</v>
       </c>
       <c r="M5">
-        <v>-0.12118503234526147</v>
+        <v>-0.296861901876381</v>
       </c>
       <c r="N5">
-        <v>-9.4329559914166722E-2</v>
+        <v>-0.29152631651321076</v>
       </c>
       <c r="O5">
-        <v>-8.5299533585045134E-2</v>
+        <v>-0.2637278521027854</v>
       </c>
       <c r="P5">
-        <v>-7.1448033461273083E-2</v>
+        <v>-0.3423549390429502</v>
       </c>
       <c r="Q5">
-        <v>-1.0728344308999275E-2</v>
+        <v>-0.2995652444649433</v>
       </c>
       <c r="R5">
         <v>1.2619233689269099E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s" s="2">
-        <v>5</v>
+      <c r="A6">
+        <v>-0.2965257686410807</v>
       </c>
       <c r="B6">
-        <v>-0.40113976985615174</v>
+        <v>-0.2965257312896528</v>
       </c>
       <c r="C6">
-        <v>-0.39517871866980164</v>
+        <v>-0.2965253579835142</v>
       </c>
       <c r="D6">
-        <v>-0.38724121526896854</v>
+        <v>-0.2965216408016515</v>
       </c>
       <c r="E6">
-        <v>-0.38205053522868065</v>
+        <v>-0.2964834277408001</v>
       </c>
       <c r="F6">
-        <v>-0.36384755725826262</v>
+        <v>-0.29483378225375817</v>
       </c>
       <c r="G6">
-        <v>-0.34690693941119499</v>
+        <v>-0.2975667029057138</v>
       </c>
       <c r="H6">
-        <v>-0.33137805647921953</v>
+        <v>-0.297365812576531</v>
       </c>
       <c r="I6">
-        <v>-0.30091137694115144</v>
+        <v>-0.29730164141826865</v>
       </c>
       <c r="J6">
-        <v>-0.24090997529786895</v>
+        <v>-0.29726399297580425</v>
       </c>
       <c r="K6">
-        <v>-0.13154075198534007</v>
+        <v>-0.29713893642095734</v>
       </c>
       <c r="L6">
-        <v>-0.12054989916325384</v>
+        <v>-0.2969108151262308</v>
       </c>
       <c r="M6">
-        <v>-0.12069322152229781</v>
+        <v>-0.29629624266081983</v>
       </c>
       <c r="N6">
-        <v>-9.447167138956962E-2</v>
+        <v>-0.34959568537198327</v>
       </c>
       <c r="O6">
-        <v>-8.3784041099648696E-2</v>
+        <v>-0.3000980326589809</v>
       </c>
       <c r="P6">
-        <v>-4.0399131030075731E-2</v>
+        <v>-0.29644335621631346</v>
       </c>
       <c r="Q6">
-        <v>6.282593570512332E-2</v>
+        <v>-0.2937328314416015</v>
       </c>
       <c r="R6">
         <v>-3.9083894687328667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
+      <c r="A7">
+        <v>-0.2947187395115078</v>
       </c>
       <c r="B7">
-        <v>-0.40031594750651023</v>
+        <v>-0.29471870530955335</v>
       </c>
       <c r="C7">
-        <v>-0.39489116908209104</v>
+        <v>-0.294718362952684</v>
       </c>
       <c r="D7">
-        <v>-0.385381250403245</v>
+        <v>-0.2947149059759268</v>
       </c>
       <c r="E7">
-        <v>-0.318888848479422</v>
+        <v>-0.29467703930996436</v>
       </c>
       <c r="F7">
-        <v>-0.39498457709419443</v>
+        <v>-0.2930725638384616</v>
       </c>
       <c r="G7">
-        <v>-0.36716428639764426</v>
+        <v>-0.2957667522582905</v>
       </c>
       <c r="H7">
-        <v>-0.33036989274989603</v>
+        <v>-0.29560009483291255</v>
       </c>
       <c r="I7">
-        <v>-0.34100940175519834</v>
+        <v>-0.29557319240071417</v>
       </c>
       <c r="J7">
-        <v>-5.6098346527919944E-2</v>
+        <v>-0.29554464799153785</v>
       </c>
       <c r="K7">
-        <v>-0.13956278248382181</v>
+        <v>-0.295430322871147</v>
       </c>
       <c r="L7">
-        <v>-0.1114134138669565</v>
+        <v>-0.2952212416967255</v>
       </c>
       <c r="M7">
-        <v>-0.13098240144263446</v>
+        <v>-0.2953347448431546</v>
       </c>
       <c r="N7">
-        <v>-0.15021175137953263</v>
+        <v>-0.29513046255349884</v>
       </c>
       <c r="O7">
-        <v>-0.21986854139602144</v>
+        <v>-0.2946117879337256</v>
       </c>
       <c r="P7">
-        <v>-0.29393718453645595</v>
+        <v>-0.2931253904085012</v>
       </c>
       <c r="Q7">
-        <v>1.1362479581979213E-2</v>
+        <v>-0.2915220006007455</v>
       </c>
       <c r="R7">
         <v>-1.5381517547818319E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" t="s" s="2">
-        <v>7</v>
+      <c r="A8">
+        <v>-0.2937626256400285</v>
       </c>
       <c r="B8">
-        <v>-0.39865594680539945</v>
+        <v>-0.2937625895580007</v>
       </c>
       <c r="C8">
-        <v>-0.39526309882722677</v>
+        <v>-0.29376222831398807</v>
       </c>
       <c r="D8">
-        <v>-0.41047887587395754</v>
+        <v>-0.2937585740654152</v>
       </c>
       <c r="E8">
-        <v>-0.26955306240199584</v>
+        <v>-0.29371797340884764</v>
       </c>
       <c r="F8">
-        <v>-0.10448658318386903</v>
+        <v>-0.29203594042028086</v>
       </c>
       <c r="G8">
-        <v>-0.16969891855426403</v>
+        <v>-0.2948887371304821</v>
       </c>
       <c r="H8">
-        <v>-6.6503814826736452E-2</v>
+        <v>-0.294706859424255</v>
       </c>
       <c r="I8">
-        <v>2.42334066904813E-2</v>
+        <v>-0.294684392843401</v>
       </c>
       <c r="J8">
-        <v>-0.1780113981264812</v>
+        <v>-0.2946559946633956</v>
       </c>
       <c r="K8">
-        <v>-0.13420555073597679</v>
+        <v>-0.29452807516031343</v>
       </c>
       <c r="L8">
-        <v>-7.133467381894977E-2</v>
+        <v>-0.29437120842108405</v>
       </c>
       <c r="M8">
-        <v>9.2692335560782748</v>
+        <v>-0.2942669672243999</v>
       </c>
       <c r="N8">
-        <v>0.68658825383531608</v>
+        <v>-0.2940601871138645</v>
       </c>
       <c r="O8">
-        <v>-2.2749389918644624E-2</v>
+        <v>-0.2935072030665407</v>
       </c>
       <c r="P8">
-        <v>-5.1173059822349522E-2</v>
+        <v>-0.29196722043287077</v>
       </c>
       <c r="Q8">
-        <v>-4.6065014066964047E-2</v>
+        <v>-0.28984578962837376</v>
       </c>
       <c r="R8">
         <v>-2.6154443235003894E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" t="s" s="2">
-        <v>8</v>
+      <c r="A9">
+        <v>-0.28796999389194006</v>
       </c>
       <c r="B9">
-        <v>-0.39500834548103214</v>
+        <v>-0.2879698624902866</v>
       </c>
       <c r="C9">
-        <v>-0.39197773791344698</v>
+        <v>-0.2879685465804319</v>
       </c>
       <c r="D9">
-        <v>-0.40620783671647265</v>
+        <v>-0.2879551944363595</v>
       </c>
       <c r="E9">
-        <v>-0.24425929422931819</v>
+        <v>-0.287795867325126</v>
       </c>
       <c r="F9">
-        <v>-0.45981411270132039</v>
+        <v>-0.27985713626417746</v>
       </c>
       <c r="G9">
-        <v>-5.0279750546500139</v>
+        <v>-0.2915807096138276</v>
       </c>
       <c r="H9">
-        <v>-0.25543545886954383</v>
+        <v>-0.29114557446834943</v>
       </c>
       <c r="I9">
-        <v>-0.2585201953821949</v>
+        <v>-0.2911074417710477</v>
       </c>
       <c r="J9">
-        <v>-0.2355406901905252</v>
+        <v>-0.29107248387471807</v>
       </c>
       <c r="K9">
-        <v>-0.15466814517367497</v>
+        <v>-0.29088422616950615</v>
       </c>
       <c r="L9">
-        <v>-0.16390999344752985</v>
+        <v>-0.29109312515736585</v>
       </c>
       <c r="M9">
-        <v>-2.4245915985454385E-2</v>
+        <v>-0.29085731713172996</v>
       </c>
       <c r="N9">
-        <v>-2.4042728113809503E-2</v>
+        <v>-0.2906798268252758</v>
       </c>
       <c r="O9">
-        <v>-4.6012094151938861E-2</v>
+        <v>-0.2901163694180318</v>
       </c>
       <c r="P9">
-        <v>-2.2091443757089007E-3</v>
+        <v>-0.2877313521270987</v>
       </c>
       <c r="Q9">
-        <v>-7.755073570648624E-2</v>
+        <v>-0.2839863468829358</v>
       </c>
       <c r="R9">
         <v>-0.11607135954945487</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s" s="2">
-        <v>9</v>
+      <c r="A10">
+        <v>-0.2978137165315216</v>
       </c>
       <c r="B10">
-        <v>-0.3925321370719056</v>
+        <v>-0.2978137206972727</v>
       </c>
       <c r="C10">
-        <v>-0.39141161027023952</v>
+        <v>-0.2978137624157512</v>
       </c>
       <c r="D10">
-        <v>-0.40170555220674758</v>
+        <v>-0.2978141868285028</v>
       </c>
       <c r="E10">
-        <v>-0.27571792033923009</v>
+        <v>-0.2978193000433381</v>
       </c>
       <c r="F10">
-        <v>-0.35515438338488559</v>
+        <v>-0.29697201079297</v>
       </c>
       <c r="G10">
-        <v>-0.32759843464732569</v>
+        <v>-0.29788646782784156</v>
       </c>
       <c r="H10">
-        <v>-1.2332473192861027</v>
+        <v>-0.29786373789184056</v>
       </c>
       <c r="I10">
-        <v>-0.228029532682062</v>
+        <v>-0.2978575201573591</v>
       </c>
       <c r="J10">
-        <v>-7.3921677618936338E-2</v>
+        <v>-0.2978267831393911</v>
       </c>
       <c r="K10">
-        <v>0.22223582296459699</v>
+        <v>-0.29769619670688574</v>
       </c>
       <c r="L10">
-        <v>-5.1270921825597615E-2</v>
+        <v>-0.2975355891220542</v>
       </c>
       <c r="M10">
-        <v>-0.19670861504931508</v>
+        <v>-0.2974281761875947</v>
       </c>
       <c r="N10">
-        <v>-1.65958404797109E-2</v>
+        <v>-0.29722988325789806</v>
       </c>
       <c r="O10">
-        <v>-4.6082398196355276E-2</v>
+        <v>-0.29665144232535395</v>
       </c>
       <c r="P10">
-        <v>6.3066866725667164E-3</v>
+        <v>-0.2949446355044712</v>
       </c>
       <c r="Q10">
-        <v>-1.3438853980773243E-2</v>
+        <v>-0.2923493374892047</v>
       </c>
       <c r="R10">
         <v>-1.0478508441940287E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s" s="2">
-        <v>10</v>
+      <c r="A11">
+        <v>-0.2972067439261898</v>
       </c>
       <c r="B11">
-        <v>-0.38594832849838828</v>
+        <v>-0.29720674483562687</v>
       </c>
       <c r="C11">
-        <v>-0.39213590432899831</v>
+        <v>-0.29720675397830515</v>
       </c>
       <c r="D11">
-        <v>-0.40143910413320705</v>
+        <v>-0.29720684985369744</v>
       </c>
       <c r="E11">
-        <v>-0.31734434425756886</v>
+        <v>-0.29720838259623</v>
       </c>
       <c r="F11">
-        <v>-0.51392413154259964</v>
+        <v>-0.29632556259455745</v>
       </c>
       <c r="G11">
-        <v>-0.32157389871370601</v>
+        <v>-0.29736698933573036</v>
       </c>
       <c r="H11">
-        <v>-0.35941718571960812</v>
+        <v>-0.2973290118798796</v>
       </c>
       <c r="I11">
-        <v>-0.2630853702167843</v>
+        <v>-0.29732096032467903</v>
       </c>
       <c r="J11">
-        <v>-0.1278974578191831</v>
+        <v>-0.29728386965351195</v>
       </c>
       <c r="K11">
-        <v>-1.2426667511209907E-2</v>
+        <v>-0.2971253068366554</v>
       </c>
       <c r="L11">
-        <v>9.7596481734253157E-2</v>
+        <v>-0.2969541145557106</v>
       </c>
       <c r="M11">
-        <v>-6.8877262039910209E-2</v>
+        <v>-0.29685132412924375</v>
       </c>
       <c r="N11">
-        <v>-0.17453045986391053</v>
+        <v>-0.29665907614272924</v>
       </c>
       <c r="O11">
-        <v>-1.4054158127741053E-2</v>
+        <v>-0.29605193252126305</v>
       </c>
       <c r="P11">
-        <v>0.19341428178572712</v>
+        <v>-0.29417112981242605</v>
       </c>
       <c r="Q11">
-        <v>-1.4352395379691851E-2</v>
+        <v>-0.29154389816904536</v>
       </c>
       <c r="R11">
         <v>-6.5558477355498711E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s" s="2">
-        <v>11</v>
+      <c r="A12">
+        <v>-0.2970346402213245</v>
       </c>
       <c r="B12">
-        <v>-0.38370915680375045</v>
+        <v>-0.29703463683503617</v>
       </c>
       <c r="C12">
-        <v>-0.39711411528143076</v>
+        <v>-0.29703460304664175</v>
       </c>
       <c r="D12">
-        <v>-0.40569010553447632</v>
+        <v>-0.2970342741090199</v>
       </c>
       <c r="E12">
-        <v>-0.32857591683257237</v>
+        <v>-0.2970319209098787</v>
       </c>
       <c r="F12">
-        <v>0.77081872843523913</v>
+        <v>-0.29612254452717957</v>
       </c>
       <c r="G12">
-        <v>-0.32337837743343378</v>
+        <v>-0.29716043014392846</v>
       </c>
       <c r="H12">
-        <v>-0.42850647693589039</v>
+        <v>-0.2970644426150073</v>
       </c>
       <c r="I12">
-        <v>-0.36616669291951365</v>
+        <v>-0.2970225566005349</v>
       </c>
       <c r="J12">
-        <v>-0.17732119485750594</v>
+        <v>-0.2969823897016327</v>
       </c>
       <c r="K12">
-        <v>-2.7248958114746692E-2</v>
+        <v>-0.2967972028902345</v>
       </c>
       <c r="L12">
-        <v>-1.9069254084173805E-4</v>
+        <v>-0.296486224000879</v>
       </c>
       <c r="M12">
-        <v>9.1896770659557023E-2</v>
+        <v>-0.2963370727745726</v>
       </c>
       <c r="N12">
-        <v>-7.4782684062918645E-2</v>
+        <v>-0.2961708047607381</v>
       </c>
       <c r="O12">
-        <v>-0.25609417039026006</v>
+        <v>-0.2955646835912933</v>
       </c>
       <c r="P12">
-        <v>0.12140541323637537</v>
+        <v>-0.293358385952504</v>
       </c>
       <c r="Q12">
-        <v>-0.16520176990838698</v>
+        <v>-0.29052087131071885</v>
       </c>
       <c r="R12">
         <v>0.1063597153617214</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s" s="2">
-        <v>12</v>
+      <c r="A13">
+        <v>-0.2963480980607671</v>
       </c>
       <c r="B13">
-        <v>-0.29666533135707401</v>
+        <v>-0.2963480946388954</v>
       </c>
       <c r="C13">
-        <v>-0.31597809399445459</v>
+        <v>-0.29634806053162227</v>
       </c>
       <c r="D13">
-        <v>-0.31986444046045137</v>
+        <v>-0.29634773042621265</v>
       </c>
       <c r="E13">
-        <v>-0.27603118569479729</v>
+        <v>-0.29634556242182497</v>
       </c>
       <c r="F13">
-        <v>0.54940610756519437</v>
+        <v>-0.29540703201591473</v>
       </c>
       <c r="G13">
-        <v>-0.24973666572476985</v>
+        <v>-0.29637875535978836</v>
       </c>
       <c r="H13">
-        <v>-0.15970718837063616</v>
+        <v>-0.29606487502870116</v>
       </c>
       <c r="I13">
-        <v>0.20180201409154533</v>
+        <v>-0.29563580923833205</v>
       </c>
       <c r="J13">
-        <v>-0.18598487747107326</v>
+        <v>-0.29548029705972256</v>
       </c>
       <c r="K13">
-        <v>-8.4927483687935929E-2</v>
+        <v>-0.2953383954887422</v>
       </c>
       <c r="L13">
-        <v>-9.7120660438042954E-3</v>
+        <v>-0.2950193870640883</v>
       </c>
       <c r="M13">
-        <v>1.2862071754039957E-3</v>
+        <v>-0.29456376895235925</v>
       </c>
       <c r="N13">
-        <v>0.11334494177199557</v>
+        <v>-0.294309829174088</v>
       </c>
       <c r="O13">
-        <v>-7.8345843954847991E-2</v>
+        <v>-0.2937676784728082</v>
       </c>
       <c r="P13">
-        <v>-3.0864353624366091E-2</v>
+        <v>-0.2915881527744984</v>
       </c>
       <c r="Q13">
-        <v>0.25941244439762884</v>
+        <v>-0.2889299505545054</v>
       </c>
       <c r="R13">
         <v>-0.73314302191093061</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="s" s="2">
-        <v>13</v>
+      <c r="A14">
+        <v>-0.293432560134954</v>
       </c>
       <c r="B14">
-        <v>-0.17398724869915183</v>
+        <v>-0.2934325349820989</v>
       </c>
       <c r="C14">
-        <v>-0.14318165234509758</v>
+        <v>-0.29343228375152214</v>
       </c>
       <c r="D14">
-        <v>-0.18969965261388338</v>
+        <v>-0.2934297988078934</v>
       </c>
       <c r="E14">
-        <v>-0.1669404741127041</v>
+        <v>-0.2934071746938626</v>
       </c>
       <c r="F14">
-        <v>-0.35571178041268803</v>
+        <v>-0.29264178146822595</v>
       </c>
       <c r="G14">
-        <v>-0.19478452727297621</v>
+        <v>-0.29327397671203376</v>
       </c>
       <c r="H14">
-        <v>-0.12889661511471887</v>
+        <v>-0.29248869216656237</v>
       </c>
       <c r="I14">
-        <v>4.9223262107219848E-2</v>
+        <v>-0.2903745333907161</v>
       </c>
       <c r="J14">
-        <v>-0.18362903109719067</v>
+        <v>-0.2891189373091182</v>
       </c>
       <c r="K14">
-        <v>-5.9321930240483788E-2</v>
+        <v>-0.2887922438952618</v>
       </c>
       <c r="L14">
-        <v>-6.8110915574040226E-2</v>
+        <v>-0.28840585808847546</v>
       </c>
       <c r="M14">
-        <v>6.8705064841193865E-4</v>
+        <v>-0.2876327697630838</v>
       </c>
       <c r="N14">
-        <v>2.0085797026761783E-2</v>
+        <v>-0.2866278597601846</v>
       </c>
       <c r="O14">
-        <v>1.0571332885886624</v>
+        <v>-0.28588587135511206</v>
       </c>
       <c r="P14">
-        <v>0.19319109224632697</v>
+        <v>-0.2838826289163476</v>
       </c>
       <c r="Q14">
-        <v>-1.4012539655683866E-2</v>
+        <v>-0.2816815685163615</v>
       </c>
       <c r="R14">
         <v>-3.4047992605492586E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="s" s="2">
-        <v>14</v>
+      <c r="A15">
+        <v>-0.2844098011019051</v>
       </c>
       <c r="B15">
-        <v>-1.1589743563571541E-2</v>
+        <v>-0.28440967001490647</v>
       </c>
       <c r="C15">
-        <v>-1.6456033148809286E-2</v>
+        <v>-0.28440835935108927</v>
       </c>
       <c r="D15">
-        <v>-0.20422115462042581</v>
+        <v>-0.2843952718761681</v>
       </c>
       <c r="E15">
-        <v>3.8871136845529661E-2</v>
+        <v>-0.2842631772068751</v>
       </c>
       <c r="F15">
-        <v>-5.2785404894065226E-2</v>
+        <v>-0.28435425561436944</v>
       </c>
       <c r="G15">
-        <v>-0.13702044452833761</v>
+        <v>-0.2840455091586866</v>
       </c>
       <c r="H15">
-        <v>0.5618304001939417</v>
+        <v>-0.2822470461622878</v>
       </c>
       <c r="I15">
-        <v>-4.983693309350402E-3</v>
+        <v>-0.2741911485274487</v>
       </c>
       <c r="J15">
-        <v>-2.4838675146767766E-2</v>
+        <v>-0.2636207220705521</v>
       </c>
       <c r="K15">
-        <v>-7.7307071061717539E-2</v>
+        <v>-0.2609121915633791</v>
       </c>
       <c r="L15">
-        <v>-3.7025797333090964E-2</v>
+        <v>-0.2598514645715576</v>
       </c>
       <c r="M15">
-        <v>-4.2845141043986693E-2</v>
+        <v>-0.25799634645478337</v>
       </c>
       <c r="N15">
-        <v>0.12230960331219831</v>
+        <v>-0.25576330952120585</v>
       </c>
       <c r="O15">
-        <v>0.28645937364272611</v>
+        <v>-0.25365351814980347</v>
       </c>
       <c r="P15">
-        <v>-0.61939973272249138</v>
+        <v>-0.25099977297853665</v>
       </c>
       <c r="Q15">
-        <v>-0.17867046472542536</v>
+        <v>-0.24935747531891073</v>
       </c>
       <c r="R15">
         <v>2.0447146717241658E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="s" s="2">
-        <v>15</v>
+      <c r="A16">
+        <v>-0.2590106814885389</v>
       </c>
       <c r="B16">
-        <v>-3.445632343388224E-2</v>
+        <v>-0.2590104683427278</v>
       </c>
       <c r="C16">
-        <v>-2.1033512909241815E-2</v>
+        <v>-0.2590083365679754</v>
       </c>
       <c r="D16">
-        <v>-3.6385966388272149E-2</v>
+        <v>-0.25898699064596453</v>
       </c>
       <c r="E16">
-        <v>-0.1847868472930107</v>
+        <v>-0.2587651006820502</v>
       </c>
       <c r="F16">
-        <v>-3.5801381230910881E-2</v>
+        <v>-0.2593906753208959</v>
       </c>
       <c r="G16">
-        <v>-6.6160161309250107E-2</v>
+        <v>-0.2589407639236514</v>
       </c>
       <c r="H16">
-        <v>1.181727860604885E-2</v>
+        <v>-0.2577816455589039</v>
       </c>
       <c r="I16">
-        <v>-2.017078097764282E-2</v>
+        <v>-0.25104370607564874</v>
       </c>
       <c r="J16">
-        <v>8.30580963423279E-2</v>
+        <v>-0.23203129426997773</v>
       </c>
       <c r="K16">
-        <v>-1.6031557115261465E-2</v>
+        <v>-0.22297444078677267</v>
       </c>
       <c r="L16">
-        <v>-3.8173011504271837E-3</v>
+        <v>-0.2210554389656796</v>
       </c>
       <c r="M16">
-        <v>-2.8261614059785049E-2</v>
+        <v>-0.21861944917678797</v>
       </c>
       <c r="N16">
-        <v>-7.1957544326950573E-3</v>
+        <v>-0.21514370682109824</v>
       </c>
       <c r="O16">
-        <v>-1.5083136774204791E-2</v>
+        <v>-0.21296935614214457</v>
       </c>
       <c r="P16">
-        <v>-1.2784618510712959E-2</v>
+        <v>-0.20963662414119444</v>
       </c>
       <c r="Q16">
-        <v>-0.12708086683219505</v>
+        <v>-0.20730226937598425</v>
       </c>
       <c r="R16">
         <v>1.9510811817114698E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s" s="2">
-        <v>16</v>
+      <c r="A17">
+        <v>-0.2270989667828564</v>
       </c>
       <c r="B17">
-        <v>-6.5676813264524084E-2</v>
+        <v>-0.22709867142227985</v>
       </c>
       <c r="C17">
-        <v>0.11447760475417204</v>
+        <v>-0.22709571528607975</v>
       </c>
       <c r="D17">
-        <v>-0.97699999370686053</v>
+        <v>-0.22706579943775618</v>
       </c>
       <c r="E17">
-        <v>0.4905989761874443</v>
+        <v>-0.22672151591141143</v>
       </c>
       <c r="F17">
-        <v>0.30011516895216256</v>
+        <v>-0.22890574312274545</v>
       </c>
       <c r="G17">
-        <v>2.8803401477806058E-2</v>
+        <v>-0.22860498482783698</v>
       </c>
       <c r="H17">
-        <v>-6.7161543898447806E-2</v>
+        <v>-0.22813337757941246</v>
       </c>
       <c r="I17">
-        <v>-5.4623355399129166E-2</v>
+        <v>-0.22579064319115338</v>
       </c>
       <c r="J17">
-        <v>-2.8610622652532523E-2</v>
+        <v>-0.21385567256379368</v>
       </c>
       <c r="K17">
-        <v>-0.36601506952363144</v>
+        <v>-0.2012853276114798</v>
       </c>
       <c r="L17">
-        <v>-0.13000800038029464</v>
+        <v>-0.19812431443116263</v>
       </c>
       <c r="M17">
-        <v>0.25276354702666981</v>
+        <v>-0.19590841888466792</v>
       </c>
       <c r="N17">
-        <v>2.4027091060848198E-2</v>
+        <v>-0.1925505978707505</v>
       </c>
       <c r="O17">
-        <v>6.8227127357682563E-2</v>
+        <v>-0.19035695285462956</v>
       </c>
       <c r="P17">
-        <v>8.7777839975106256E-2</v>
+        <v>-0.18812612693637465</v>
       </c>
       <c r="Q17">
-        <v>9.194979197887132E-2</v>
+        <v>-0.1860869132969286</v>
       </c>
       <c r="R17">
         <v>2.4711393072112776E-2</v>
@@ -10885,952 +10885,952 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>16</v>
+      <c r="A1">
+        <v>-0.3076171102455481</v>
+      </c>
+      <c r="B1">
+        <v>-0.3076167109390876</v>
+      </c>
+      <c r="C1">
+        <v>-0.3076127884522537</v>
+      </c>
+      <c r="D1">
+        <v>-0.3075794638174342</v>
+      </c>
+      <c r="E1">
+        <v>-0.3074365531697474</v>
+      </c>
+      <c r="F1">
+        <v>-0.30743062864301757</v>
+      </c>
+      <c r="G1">
+        <v>-0.30748149946768943</v>
+      </c>
+      <c r="H1">
+        <v>-0.30741591971566057</v>
+      </c>
+      <c r="I1">
+        <v>-0.3073694323301218</v>
+      </c>
+      <c r="J1">
+        <v>-0.3073535972134087</v>
+      </c>
+      <c r="K1">
+        <v>-0.30731267022227027</v>
+      </c>
+      <c r="L1">
+        <v>-0.3072315388230484</v>
+      </c>
+      <c r="M1">
+        <v>-0.30714524924042014</v>
+      </c>
+      <c r="N1">
+        <v>-0.306970323290786</v>
+      </c>
+      <c r="O1">
+        <v>-0.30675301173335967</v>
+      </c>
+      <c r="P1">
+        <v>-0.30653952396089673</v>
+      </c>
+      <c r="Q1">
+        <v>-0.3059814574799168</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s" s="2">
-        <v>1</v>
+      <c r="A2">
+        <v>-0.3076164487125793</v>
       </c>
       <c r="B2">
-        <v>-0.40710337874411873</v>
+        <v>-0.3076160494422485</v>
       </c>
       <c r="C2">
-        <v>-0.40311547469966952</v>
+        <v>-0.3076121273176844</v>
       </c>
       <c r="D2">
-        <v>-0.40269783782816854</v>
+        <v>-0.3075788057736615</v>
       </c>
       <c r="E2">
-        <v>-0.40261943895491231</v>
+        <v>-0.307435909042468</v>
       </c>
       <c r="F2">
-        <v>-0.40244913941546351</v>
+        <v>-0.3074299838864931</v>
       </c>
       <c r="G2">
-        <v>-0.40188711973690544</v>
+        <v>-0.3074808525116323</v>
       </c>
       <c r="H2">
-        <v>-0.39942861509836464</v>
+        <v>-0.3074152813012664</v>
       </c>
       <c r="I2">
-        <v>-0.39096653293910111</v>
+        <v>-0.3073688012910475</v>
       </c>
       <c r="J2">
-        <v>-0.38093796607187713</v>
+        <v>-0.30735296781978777</v>
       </c>
       <c r="K2">
-        <v>-0.36687121714127169</v>
+        <v>-0.3073120422990197</v>
       </c>
       <c r="L2">
-        <v>-0.34981458325919423</v>
+        <v>-0.307230915631286</v>
       </c>
       <c r="M2">
-        <v>-0.34012422413788496</v>
+        <v>-0.3071446388131397</v>
       </c>
       <c r="N2">
-        <v>-0.33431757956933339</v>
+        <v>-0.3069698466889393</v>
       </c>
       <c r="O2">
-        <v>-0.32884496085648213</v>
+        <v>-0.30675482693183465</v>
       </c>
       <c r="P2">
-        <v>-0.91883466510489764</v>
+        <v>-0.3065410700139339</v>
       </c>
       <c r="Q2">
-        <v>-2.6396155716414241E-2</v>
+        <v>-0.3058685955466092</v>
       </c>
       <c r="R2">
         <v>-4.84696634070306E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s" s="2">
-        <v>2</v>
+      <c r="A3">
+        <v>-0.30760984002528935</v>
       </c>
       <c r="B3">
-        <v>-0.40708225591508201</v>
+        <v>-0.30760944112797156</v>
       </c>
       <c r="C3">
-        <v>-0.40309925315740963</v>
+        <v>-0.30760552262685104</v>
       </c>
       <c r="D3">
-        <v>-0.40267673588507524</v>
+        <v>-0.3075722319568329</v>
       </c>
       <c r="E3">
-        <v>-0.40259074219734325</v>
+        <v>-0.3074294742448894</v>
       </c>
       <c r="F3">
-        <v>-0.40241746399668898</v>
+        <v>-0.3074235428526438</v>
       </c>
       <c r="G3">
-        <v>-0.40184986364662856</v>
+        <v>-0.30747438948123224</v>
       </c>
       <c r="H3">
-        <v>-0.39937257944896826</v>
+        <v>-0.30740890356413975</v>
       </c>
       <c r="I3">
-        <v>-0.3909522030576672</v>
+        <v>-0.30736249722588727</v>
       </c>
       <c r="J3">
-        <v>-0.38074929514058681</v>
+        <v>-0.3073466804886572</v>
       </c>
       <c r="K3">
-        <v>-0.36648239294672746</v>
+        <v>-0.3073057702074699</v>
       </c>
       <c r="L3">
-        <v>-0.34911532086505476</v>
+        <v>-0.3072246982006551</v>
       </c>
       <c r="M3">
-        <v>-0.33848499835206697</v>
+        <v>-0.3071384986556909</v>
       </c>
       <c r="N3">
-        <v>-0.33261630420153299</v>
+        <v>-0.3069640077528429</v>
       </c>
       <c r="O3">
-        <v>-0.32978031362539645</v>
+        <v>-0.3067490214977275</v>
       </c>
       <c r="P3">
-        <v>2.9633300906585855</v>
+        <v>-0.30654657301122823</v>
       </c>
       <c r="Q3">
-        <v>-0.11159113350233507</v>
+        <v>-0.3057813676198814</v>
       </c>
       <c r="R3">
         <v>-0.23019149446155271</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s" s="2">
-        <v>3</v>
+      <c r="A4">
+        <v>-0.30754441269422594</v>
       </c>
       <c r="B4">
-        <v>-0.40708762675274418</v>
+        <v>-0.3075440174386537</v>
       </c>
       <c r="C4">
-        <v>-0.40315431275504521</v>
+        <v>-0.30754013478296893</v>
       </c>
       <c r="D4">
-        <v>-0.40275430399035012</v>
+        <v>-0.3075071496986295</v>
       </c>
       <c r="E4">
-        <v>-0.40267104011842098</v>
+        <v>-0.30736576687006284</v>
       </c>
       <c r="F4">
-        <v>-0.4024900286906285</v>
+        <v>-0.30735977536700443</v>
       </c>
       <c r="G4">
-        <v>-0.40190724781824383</v>
+        <v>-0.3074104053940043</v>
       </c>
       <c r="H4">
-        <v>-0.39940360239477918</v>
+        <v>-0.3073457602411531</v>
       </c>
       <c r="I4">
-        <v>-0.39099514357822585</v>
+        <v>-0.30730008008649795</v>
       </c>
       <c r="J4">
-        <v>-0.38029966085651984</v>
+        <v>-0.30728442798908967</v>
       </c>
       <c r="K4">
-        <v>-0.36391630975382872</v>
+        <v>-0.30724366681759435</v>
       </c>
       <c r="L4">
-        <v>-0.34401969925375669</v>
+        <v>-0.3071631229896949</v>
       </c>
       <c r="M4">
-        <v>-0.33099353129168141</v>
+        <v>-0.30707780341856655</v>
       </c>
       <c r="N4">
-        <v>-0.32040552886020124</v>
+        <v>-0.30690505352971376</v>
       </c>
       <c r="O4">
-        <v>-0.30582109692531734</v>
+        <v>-0.3066935616542091</v>
       </c>
       <c r="P4">
-        <v>222.36229364488599</v>
+        <v>-0.30645157265643747</v>
       </c>
       <c r="Q4">
-        <v>-1.1036912059645088</v>
+        <v>-0.30583388969424025</v>
       </c>
       <c r="R4">
         <v>0.30927562014505655</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s" s="2">
-        <v>4</v>
+      <c r="A5">
+        <v>-0.3069498891782313</v>
       </c>
       <c r="B5">
-        <v>-0.40694856262368284</v>
+        <v>-0.30694952698313</v>
       </c>
       <c r="C5">
-        <v>-0.40310271413997428</v>
+        <v>-0.3069459691804499</v>
       </c>
       <c r="D5">
-        <v>-0.40281889461157666</v>
+        <v>-0.30691575232154905</v>
       </c>
       <c r="E5">
-        <v>-0.40279473771651281</v>
+        <v>-0.30678674249667215</v>
       </c>
       <c r="F5">
-        <v>-0.40265107310648401</v>
+        <v>-0.3067803434144573</v>
       </c>
       <c r="G5">
-        <v>-0.40211130335294498</v>
+        <v>-0.3068291001348777</v>
       </c>
       <c r="H5">
-        <v>-0.39960963313647918</v>
+        <v>-0.3067717914806719</v>
       </c>
       <c r="I5">
-        <v>-0.39123740347837005</v>
+        <v>-0.30673244273539574</v>
       </c>
       <c r="J5">
-        <v>-0.38040334071326476</v>
+        <v>-0.30671822452057207</v>
       </c>
       <c r="K5">
-        <v>-0.3578090261677852</v>
+        <v>-0.30667876027193797</v>
       </c>
       <c r="L5">
-        <v>-0.31850289052727393</v>
+        <v>-0.30660288424778265</v>
       </c>
       <c r="M5">
-        <v>-0.30644181478796767</v>
+        <v>-0.3065253524848444</v>
       </c>
       <c r="N5">
-        <v>-0.27732605049089443</v>
+        <v>-0.3063694174929462</v>
       </c>
       <c r="O5">
-        <v>-0.23230842707620228</v>
+        <v>-0.30616986833622245</v>
       </c>
       <c r="P5">
-        <v>-0.42180881984479784</v>
+        <v>-0.3059253461443578</v>
       </c>
       <c r="Q5">
-        <v>0.30954702854627092</v>
+        <v>-0.30546463989133354</v>
       </c>
       <c r="R5">
         <v>-0.91655225933341855</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s" s="2">
-        <v>5</v>
+      <c r="A6">
+        <v>-0.3039460585483258</v>
       </c>
       <c r="B6">
-        <v>-0.40657645919269636</v>
+        <v>-0.3039458610407704</v>
       </c>
       <c r="C6">
-        <v>-0.40269441463561062</v>
+        <v>-0.3039439210388029</v>
       </c>
       <c r="D6">
-        <v>-0.40248693331704471</v>
+        <v>-0.3039274553011955</v>
       </c>
       <c r="E6">
-        <v>-0.40263672056341171</v>
+        <v>-0.3038575820221473</v>
       </c>
       <c r="F6">
-        <v>-0.40258571727778919</v>
+        <v>-0.3038530357884154</v>
       </c>
       <c r="G6">
-        <v>-0.40214315954823227</v>
+        <v>-0.30389490941150316</v>
       </c>
       <c r="H6">
-        <v>-0.39979782032779365</v>
+        <v>-0.30386629850461017</v>
       </c>
       <c r="I6">
-        <v>-0.39162808856878745</v>
+        <v>-0.303851522035157</v>
       </c>
       <c r="J6">
-        <v>-0.38105830489120252</v>
+        <v>-0.30384282075889</v>
       </c>
       <c r="K6">
-        <v>-0.35333421459281084</v>
+        <v>-0.3038083291785794</v>
       </c>
       <c r="L6">
-        <v>-6.3119064028864483E-2</v>
+        <v>-0.30375171425937586</v>
       </c>
       <c r="M6">
-        <v>-0.19678589099304747</v>
+        <v>-0.3037057918768589</v>
       </c>
       <c r="N6">
-        <v>-0.21316388548011742</v>
+        <v>-0.303618967590088</v>
       </c>
       <c r="O6">
-        <v>-0.13773170907200347</v>
+        <v>-0.3034728365808769</v>
       </c>
       <c r="P6">
-        <v>-4.4417799830189474E-2</v>
+        <v>-0.30323192690413864</v>
       </c>
       <c r="Q6">
-        <v>-0.12259051736274512</v>
+        <v>-0.30257907510789983</v>
       </c>
       <c r="R6">
         <v>-0.11550952052198792</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
+      <c r="A7">
+        <v>-0.30068949735356354</v>
       </c>
       <c r="B7">
-        <v>-0.40654640233617689</v>
+        <v>-0.3006894714472621</v>
       </c>
       <c r="C7">
-        <v>-0.40261570278936226</v>
+        <v>-0.300689216063965</v>
       </c>
       <c r="D7">
-        <v>-0.40239076124224793</v>
+        <v>-0.30068696646775095</v>
       </c>
       <c r="E7">
-        <v>-0.40256799878632316</v>
+        <v>-0.3006649972422136</v>
       </c>
       <c r="F7">
-        <v>-0.40251912414830965</v>
+        <v>-0.3006807540141061</v>
       </c>
       <c r="G7">
-        <v>-0.40197943201090902</v>
+        <v>-0.30071999523092463</v>
       </c>
       <c r="H7">
-        <v>-0.39957536569914986</v>
+        <v>-0.30070641211820875</v>
       </c>
       <c r="I7">
-        <v>-0.39129803809190028</v>
+        <v>-0.3007039374741704</v>
       </c>
       <c r="J7">
-        <v>-0.38058683162223922</v>
+        <v>-0.30069787937265113</v>
       </c>
       <c r="K7">
-        <v>-0.35425724154283789</v>
+        <v>-0.30066567327919463</v>
       </c>
       <c r="L7">
-        <v>-1.9924236709102794</v>
+        <v>-0.3006209890224855</v>
       </c>
       <c r="M7">
-        <v>-1.3181304424767371</v>
+        <v>-0.3005937870701837</v>
       </c>
       <c r="N7">
-        <v>0.16010874498582164</v>
+        <v>-0.3005472708003276</v>
       </c>
       <c r="O7">
-        <v>-0.11658098547982733</v>
+        <v>-0.30043287021202997</v>
       </c>
       <c r="P7">
-        <v>-2.5776766161349252</v>
+        <v>-0.30022311671704477</v>
       </c>
       <c r="Q7">
-        <v>-3.8641892594568329E-2</v>
+        <v>-0.2997256802970611</v>
       </c>
       <c r="R7">
         <v>0.21734430893530454</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" t="s" s="2">
-        <v>7</v>
+      <c r="A8">
+        <v>-0.29983481521226674</v>
       </c>
       <c r="B8">
-        <v>-0.40384188837213025</v>
+        <v>-0.2998347145874628</v>
       </c>
       <c r="C8">
-        <v>-0.39994780006465874</v>
+        <v>-0.29983372543967574</v>
       </c>
       <c r="D8">
-        <v>-0.40111145192848568</v>
+        <v>-0.29982528741613884</v>
       </c>
       <c r="E8">
-        <v>-0.42371748668560094</v>
+        <v>-0.29979363456657243</v>
       </c>
       <c r="F8">
-        <v>-0.4107198519537209</v>
+        <v>-0.29976294961761035</v>
       </c>
       <c r="G8">
-        <v>-0.40779754907974625</v>
+        <v>-0.2998142393284227</v>
       </c>
       <c r="H8">
-        <v>-0.40044006943561972</v>
+        <v>-0.29979989280289504</v>
       </c>
       <c r="I8">
-        <v>-0.38906045782621734</v>
+        <v>-0.2997993098531866</v>
       </c>
       <c r="J8">
-        <v>-0.37759671542945489</v>
+        <v>-0.2997950517987917</v>
       </c>
       <c r="K8">
-        <v>-0.3489899938620184</v>
+        <v>-0.2997724680457922</v>
       </c>
       <c r="L8">
-        <v>-1.3826744950048577</v>
+        <v>-0.299664280943978</v>
       </c>
       <c r="M8">
-        <v>-0.38762704749107724</v>
+        <v>-0.29967172355896143</v>
       </c>
       <c r="N8">
-        <v>-0.49170754533031019</v>
+        <v>-0.2996344458036846</v>
       </c>
       <c r="O8">
-        <v>-6.1885777862076378E-2</v>
+        <v>-0.2995390320650778</v>
       </c>
       <c r="P8">
-        <v>1.6822277247575582E-2</v>
+        <v>-0.2993464221730388</v>
       </c>
       <c r="Q8">
-        <v>-0.30272320238267825</v>
+        <v>-0.2987280107294251</v>
       </c>
       <c r="R8">
         <v>-0.18321385356538764</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" t="s" s="2">
-        <v>8</v>
+      <c r="A9">
+        <v>-0.2990925260672979</v>
       </c>
       <c r="B9">
-        <v>-0.39855759249008793</v>
+        <v>-0.29909282133190684</v>
       </c>
       <c r="C9">
-        <v>-0.39227559423112668</v>
+        <v>-0.2990957193779113</v>
       </c>
       <c r="D9">
-        <v>-0.36839228293285903</v>
+        <v>-0.29912011425634</v>
       </c>
       <c r="E9">
-        <v>-0.41234269377837862</v>
+        <v>-0.2992059680356304</v>
       </c>
       <c r="F9">
-        <v>-0.39304433803843331</v>
+        <v>-0.29928868741416237</v>
       </c>
       <c r="G9">
-        <v>-0.45684558889576882</v>
+        <v>-0.29930683800386815</v>
       </c>
       <c r="H9">
-        <v>-0.53471554156873669</v>
+        <v>-0.2992850334415664</v>
       </c>
       <c r="I9">
-        <v>-0.41874906530454548</v>
+        <v>-0.2992731979206101</v>
       </c>
       <c r="J9">
-        <v>-0.37849422398163274</v>
+        <v>-0.29925882952729904</v>
       </c>
       <c r="K9">
-        <v>-0.34846737010340612</v>
+        <v>-0.2990996480289994</v>
       </c>
       <c r="L9">
-        <v>-0.23354699255396946</v>
+        <v>-0.29933898479096716</v>
       </c>
       <c r="M9">
-        <v>-0.19707720745688165</v>
+        <v>-0.2992594028062995</v>
       </c>
       <c r="N9">
-        <v>-0.22841311080513077</v>
+        <v>-0.29918590069266754</v>
       </c>
       <c r="O9">
-        <v>-0.54590413157814122</v>
+        <v>-0.299057458784027</v>
       </c>
       <c r="P9">
-        <v>-0.15317560851071435</v>
+        <v>-0.2987649950022309</v>
       </c>
       <c r="Q9">
-        <v>-0.1128630891479073</v>
+        <v>-0.2981397315575503</v>
       </c>
       <c r="R9">
         <v>0.20559710343032114</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s" s="2">
-        <v>9</v>
+      <c r="A10">
+        <v>-0.30003124301818157</v>
       </c>
       <c r="B10">
-        <v>-0.38348158933900656</v>
+        <v>-0.30003137375209793</v>
       </c>
       <c r="C10">
-        <v>-0.3384052824614952</v>
+        <v>-0.3000326547561389</v>
       </c>
       <c r="D10">
-        <v>-0.47809260305029166</v>
+        <v>-0.30004328581715334</v>
       </c>
       <c r="E10">
-        <v>-0.42032689889845354</v>
+        <v>-0.3000785824893664</v>
       </c>
       <c r="F10">
-        <v>-0.42402339457208876</v>
+        <v>-0.3001004763375914</v>
       </c>
       <c r="G10">
-        <v>-0.39878126216586407</v>
+        <v>-0.30010352316660166</v>
       </c>
       <c r="H10">
-        <v>-0.42184332586062195</v>
+        <v>-0.30010029728174153</v>
       </c>
       <c r="I10">
-        <v>-0.57840063304896738</v>
+        <v>-0.3000989513987243</v>
       </c>
       <c r="J10">
-        <v>-0.52481018186886164</v>
+        <v>-0.30009281582344793</v>
       </c>
       <c r="K10">
-        <v>-0.35507102398236889</v>
+        <v>-0.30006017522833345</v>
       </c>
       <c r="L10">
-        <v>-0.2186878132513026</v>
+        <v>-0.30001300282685905</v>
       </c>
       <c r="M10">
-        <v>-0.13335316217896243</v>
+        <v>-0.2999841180939676</v>
       </c>
       <c r="N10">
-        <v>-0.14347896252512404</v>
+        <v>-0.2999436076899467</v>
       </c>
       <c r="O10">
-        <v>-0.2386274109991447</v>
+        <v>-0.2998558823471133</v>
       </c>
       <c r="P10">
-        <v>-0.155864049327119</v>
+        <v>-0.299658774171452</v>
       </c>
       <c r="Q10">
-        <v>0.60207598651815608</v>
+        <v>-0.2988777337271054</v>
       </c>
       <c r="R10">
         <v>6.3020245915474268E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s" s="2">
-        <v>10</v>
+      <c r="A11">
+        <v>-0.29991815409406225</v>
       </c>
       <c r="B11">
-        <v>-0.42854048967251029</v>
+        <v>-0.2999182645768443</v>
       </c>
       <c r="C11">
-        <v>-0.41742811340266989</v>
+        <v>-0.2999193472915647</v>
       </c>
       <c r="D11">
-        <v>-0.41958984065783417</v>
+        <v>-0.2999283416301969</v>
       </c>
       <c r="E11">
-        <v>-0.42128744521112477</v>
+        <v>-0.29995826399539877</v>
       </c>
       <c r="F11">
-        <v>-0.45670948163440622</v>
+        <v>-0.29997769918106226</v>
       </c>
       <c r="G11">
-        <v>-0.37891090386696025</v>
+        <v>-0.2999842746895064</v>
       </c>
       <c r="H11">
-        <v>-0.38838279822624006</v>
+        <v>-0.29997976621297684</v>
       </c>
       <c r="I11">
-        <v>-0.39228087237239728</v>
+        <v>-0.2999782776112051</v>
       </c>
       <c r="J11">
-        <v>-1.1765692524151126</v>
+        <v>-0.2999712721291167</v>
       </c>
       <c r="K11">
-        <v>-0.51000961963307556</v>
+        <v>-0.29993672142620514</v>
       </c>
       <c r="L11">
-        <v>-0.28222601736992314</v>
+        <v>-0.2998885595724619</v>
       </c>
       <c r="M11">
-        <v>-0.14176617268393066</v>
+        <v>-0.29985962360954344</v>
       </c>
       <c r="N11">
-        <v>-9.8002280204948319E-2</v>
+        <v>-0.29981970577226136</v>
       </c>
       <c r="O11">
-        <v>0.60851313420333641</v>
+        <v>-0.29972981465008836</v>
       </c>
       <c r="P11">
-        <v>-0.110002129981779</v>
+        <v>-0.2995132667354772</v>
       </c>
       <c r="Q11">
-        <v>-1.7880714355166927</v>
+        <v>-0.29888047468632767</v>
       </c>
       <c r="R11">
         <v>-0.17646895701618878</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s" s="2">
-        <v>11</v>
+      <c r="A12">
+        <v>-0.29988522736818113</v>
       </c>
       <c r="B12">
-        <v>-0.51242892064806467</v>
+        <v>-0.29988536161265134</v>
       </c>
       <c r="C12">
-        <v>-0.51049609360918913</v>
+        <v>-0.29988667727743323</v>
       </c>
       <c r="D12">
-        <v>-0.5075154904727448</v>
+        <v>-0.2998976097188769</v>
       </c>
       <c r="E12">
-        <v>-0.5269258220538221</v>
+        <v>-0.299933779208482</v>
       </c>
       <c r="F12">
-        <v>-0.56550074905876113</v>
+        <v>-0.29996157051971656</v>
       </c>
       <c r="G12">
-        <v>-0.43036714342288063</v>
+        <v>-0.29996225212666994</v>
       </c>
       <c r="H12">
-        <v>-0.43466052686295326</v>
+        <v>-0.2999558086977546</v>
       </c>
       <c r="I12">
-        <v>-0.46073938524354341</v>
+        <v>-0.2999535987809911</v>
       </c>
       <c r="J12">
-        <v>-0.44057641772959871</v>
+        <v>-0.2999462481478717</v>
       </c>
       <c r="K12">
-        <v>-0.29996652380972288</v>
+        <v>-0.2999049778444315</v>
       </c>
       <c r="L12">
-        <v>-0.77006186267772303</v>
+        <v>-0.29984182501067624</v>
       </c>
       <c r="M12">
-        <v>-2.7407246792046425E-2</v>
+        <v>-0.29980977402227105</v>
       </c>
       <c r="N12">
-        <v>-0.12094672022750924</v>
+        <v>-0.2997726063715097</v>
       </c>
       <c r="O12">
-        <v>-0.11904164788464967</v>
+        <v>-0.29968735996817253</v>
       </c>
       <c r="P12">
-        <v>-0.11867489796320584</v>
+        <v>-0.29946071358559667</v>
       </c>
       <c r="Q12">
-        <v>-0.12140613940731038</v>
+        <v>-0.2986194264853083</v>
       </c>
       <c r="R12">
         <v>0.74215967728212784</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s" s="2">
-        <v>12</v>
+      <c r="A13">
+        <v>-0.2998004695154263</v>
       </c>
       <c r="B13">
-        <v>-0.24883795312346074</v>
+        <v>-0.29980065837811876</v>
       </c>
       <c r="C13">
-        <v>-0.34720885868861612</v>
+        <v>-0.29980251081602277</v>
       </c>
       <c r="D13">
-        <v>-0.19744490423146804</v>
+        <v>-0.29981800547450926</v>
       </c>
       <c r="E13">
-        <v>-0.28127279834999097</v>
+        <v>-0.29987013053767375</v>
       </c>
       <c r="F13">
-        <v>-0.20050110386870623</v>
+        <v>-0.2999203515186738</v>
       </c>
       <c r="G13">
-        <v>-0.90922221441164253</v>
+        <v>-0.2998984234881044</v>
       </c>
       <c r="H13">
-        <v>-0.31464194744838347</v>
+        <v>-0.2998710205773229</v>
       </c>
       <c r="I13">
-        <v>-0.47209663014825332</v>
+        <v>-0.2998496353917155</v>
       </c>
       <c r="J13">
-        <v>-0.28552639031016036</v>
+        <v>-0.29983900601358787</v>
       </c>
       <c r="K13">
-        <v>-0.84877361512664662</v>
+        <v>-0.29980120486173717</v>
       </c>
       <c r="L13">
-        <v>1.6038614376971578</v>
+        <v>-0.29971562267579116</v>
       </c>
       <c r="M13">
-        <v>-6.1106131178978576E-2</v>
+        <v>-0.29964608016967315</v>
       </c>
       <c r="N13">
-        <v>-0.11443830672980546</v>
+        <v>-0.29960730619693005</v>
       </c>
       <c r="O13">
-        <v>-0.11800540113351947</v>
+        <v>-0.29953208154512545</v>
       </c>
       <c r="P13">
-        <v>9.6600894317858885E-3</v>
+        <v>-0.29933060970477005</v>
       </c>
       <c r="Q13">
-        <v>-0.14491620319879353</v>
+        <v>-0.2987015207321</v>
       </c>
       <c r="R13">
         <v>-0.29273290631532506</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="s" s="2">
-        <v>13</v>
+      <c r="A14">
+        <v>-0.29954267532591117</v>
       </c>
       <c r="B14">
-        <v>-4.7810682869470496E-2</v>
+        <v>-0.299542932096122</v>
       </c>
       <c r="C14">
-        <v>-6.3513145621984068E-2</v>
+        <v>-0.29954545672402444</v>
       </c>
       <c r="D14">
-        <v>-2.3413040109398316E-2</v>
+        <v>-0.2995670209293686</v>
       </c>
       <c r="E14">
-        <v>-2.5076601722976238E-2</v>
+        <v>-0.2996458535629648</v>
       </c>
       <c r="F14">
-        <v>4.3228066654522605E-2</v>
+        <v>-0.2997404960429828</v>
       </c>
       <c r="G14">
-        <v>-4.5409916173356824E-2</v>
+        <v>-0.29967784100360084</v>
       </c>
       <c r="H14">
-        <v>-6.9455680984399776E-2</v>
+        <v>-0.2996006062844001</v>
       </c>
       <c r="I14">
-        <v>-4.9534588018195429E-2</v>
+        <v>-0.29945285902778773</v>
       </c>
       <c r="J14">
-        <v>-1.262722591879426E-2</v>
+        <v>-0.2993887539206052</v>
       </c>
       <c r="K14">
-        <v>5.9916660330627909E-3</v>
+        <v>-0.2993523939612073</v>
       </c>
       <c r="L14">
-        <v>5.8452949981689616E-3</v>
+        <v>-0.2992944328366725</v>
       </c>
       <c r="M14">
-        <v>-6.2017770804350968E-2</v>
+        <v>-0.29917586117669714</v>
       </c>
       <c r="N14">
-        <v>-1.2780603989801567E-2</v>
+        <v>-0.2990682633168317</v>
       </c>
       <c r="O14">
-        <v>-1.0287501369345564E-2</v>
+        <v>-0.29898626115155613</v>
       </c>
       <c r="P14">
-        <v>-2.2859462141949147E-2</v>
+        <v>-0.2987959289499038</v>
       </c>
       <c r="Q14">
-        <v>-4.3945484372585254E-2</v>
+        <v>-0.2979311529884023</v>
       </c>
       <c r="R14">
         <v>2.0765643159882815E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="s" s="2">
-        <v>14</v>
+      <c r="A15">
+        <v>-0.2987011138455586</v>
       </c>
       <c r="B15">
-        <v>1.3371449833839014E-2</v>
+        <v>-0.2987013682456332</v>
       </c>
       <c r="C15">
-        <v>8.8141290867149308E-3</v>
+        <v>-0.29870387369762735</v>
       </c>
       <c r="D15">
-        <v>1.585286841079498E-2</v>
+        <v>-0.2987255713939177</v>
       </c>
       <c r="E15">
-        <v>-1.9966099740270575E-2</v>
+        <v>-0.29880769959337083</v>
       </c>
       <c r="F15">
-        <v>-1.1094365027893391E-2</v>
+        <v>-0.2989638348049958</v>
       </c>
       <c r="G15">
-        <v>-8.3289622568569893E-3</v>
+        <v>-0.29882414742142505</v>
       </c>
       <c r="H15">
-        <v>-7.9035006120280575E-3</v>
+        <v>-0.2986616750197947</v>
       </c>
       <c r="I15">
-        <v>-7.023548275449854E-3</v>
+        <v>-0.2981583733078004</v>
       </c>
       <c r="J15">
-        <v>-3.9746717348721995E-3</v>
+        <v>-0.2978003018402819</v>
       </c>
       <c r="K15">
-        <v>-1.7458995707692361E-2</v>
+        <v>-0.2977084470809694</v>
       </c>
       <c r="L15">
-        <v>-3.7670955490759382E-3</v>
+        <v>-0.29761816358534454</v>
       </c>
       <c r="M15">
-        <v>-9.7509976142770593E-4</v>
+        <v>-0.29745672152184083</v>
       </c>
       <c r="N15">
-        <v>-1.3530712747676477E-2</v>
+        <v>-0.2971713396270996</v>
       </c>
       <c r="O15">
-        <v>-7.0256525687703384E-3</v>
+        <v>-0.29690385429315297</v>
       </c>
       <c r="P15">
-        <v>-6.3233783105545961E-3</v>
+        <v>-0.2966575824623186</v>
       </c>
       <c r="Q15">
-        <v>-1.4394277101298902E-2</v>
+        <v>-0.29584197159821657</v>
       </c>
       <c r="R15">
         <v>-5.0245144126511354E-3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="s" s="2">
-        <v>15</v>
+      <c r="A16">
+        <v>-0.29484886073520944</v>
       </c>
       <c r="B16">
-        <v>-1.1755393276164278E-2</v>
+        <v>-0.2948491983174674</v>
       </c>
       <c r="C16">
-        <v>1.8350943259645709E-2</v>
+        <v>-0.2948525208728499</v>
       </c>
       <c r="D16">
-        <v>-7.1090624882360533E-3</v>
+        <v>-0.2948810986123418</v>
       </c>
       <c r="E16">
-        <v>-0.11531823820259196</v>
+        <v>-0.29497345614515413</v>
       </c>
       <c r="F16">
-        <v>-0.16010125202341088</v>
+        <v>-0.29533905389543874</v>
       </c>
       <c r="G16">
-        <v>3.4599137035211123</v>
+        <v>-0.29498024094386127</v>
       </c>
       <c r="H16">
-        <v>-8.2892907269362909E-2</v>
+        <v>-0.29447983111277765</v>
       </c>
       <c r="I16">
-        <v>0.43030491295422951</v>
+        <v>-0.2923286648170557</v>
       </c>
       <c r="J16">
-        <v>-3.7403026783496226E-3</v>
+        <v>-0.2894921198863142</v>
       </c>
       <c r="K16">
-        <v>-1.2438244099802283</v>
+        <v>-0.2887642069833591</v>
       </c>
       <c r="L16">
-        <v>-0.21899795679623388</v>
+        <v>-0.2884905101848603</v>
       </c>
       <c r="M16">
-        <v>-0.17165871720400766</v>
+        <v>-0.28783096044035295</v>
       </c>
       <c r="N16">
-        <v>5.3770826952793754E-2</v>
+        <v>-0.28684380111941504</v>
       </c>
       <c r="O16">
-        <v>0.13029130517576276</v>
+        <v>-0.2861025705467127</v>
       </c>
       <c r="P16">
-        <v>-0.78905897809046022</v>
+        <v>-0.28535900821160076</v>
       </c>
       <c r="Q16">
-        <v>0.15794087435606208</v>
+        <v>-0.28389305382318303</v>
       </c>
       <c r="R16">
         <v>-2.7712982479313167E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s" s="2">
-        <v>16</v>
+      <c r="A17">
+        <v>-0.2832751135563059</v>
       </c>
       <c r="B17">
-        <v>3.8646061987172735E-2</v>
+        <v>-0.28327550256926576</v>
       </c>
       <c r="C17">
-        <v>-5.9726097916073903E-2</v>
+        <v>-0.28327933040764713</v>
       </c>
       <c r="D17">
-        <v>-8.1959470565260037</v>
+        <v>-0.2833121264901014</v>
       </c>
       <c r="E17">
-        <v>-1.9944260458675294E-2</v>
+        <v>-0.2834068897895629</v>
       </c>
       <c r="F17">
-        <v>1.2992222717348623E-2</v>
+        <v>-0.2839571664892247</v>
       </c>
       <c r="G17">
-        <v>3.3234179695074924E-2</v>
+        <v>-0.28359448970381235</v>
       </c>
       <c r="H17">
-        <v>5.9152992992656458E-2</v>
+        <v>-0.28288772156603076</v>
       </c>
       <c r="I17">
-        <v>1.7960227323586337E-2</v>
+        <v>-0.27875678775371504</v>
       </c>
       <c r="J17">
-        <v>4.4108947126796368E-2</v>
+        <v>-0.2665775804849247</v>
       </c>
       <c r="K17">
-        <v>7.9958275261540507E-2</v>
+        <v>-0.2604971682402883</v>
       </c>
       <c r="L17">
-        <v>-1.7605133352024106E-2</v>
+        <v>-0.2592650025039282</v>
       </c>
       <c r="M17">
-        <v>-6.6394770022704915E-3</v>
+        <v>-0.25756748037770616</v>
       </c>
       <c r="N17">
-        <v>-4.161592002149761E-2</v>
+        <v>-0.25350286053206134</v>
       </c>
       <c r="O17">
-        <v>-2.5119310348638207E-2</v>
+        <v>-0.2500095276235578</v>
       </c>
       <c r="P17">
-        <v>-2.772671203377616E-2</v>
+        <v>-0.24871703160252112</v>
       </c>
       <c r="Q17">
-        <v>4.7512739136754814E-2</v>
+        <v>-0.24689546308275048</v>
       </c>
       <c r="R17">
         <v>-1.2691700044186346E-2</v>
